--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9712390026623151</v>
+        <v>0.9712390026623134</v>
       </c>
       <c r="D2">
-        <v>0.9933547240797574</v>
+        <v>0.9933547240797563</v>
       </c>
       <c r="E2">
-        <v>0.9796227745677978</v>
+        <v>0.9796227745677958</v>
       </c>
       <c r="F2">
-        <v>0.9824918326250265</v>
+        <v>0.982491832625025</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.032602970768765</v>
       </c>
       <c r="J2">
-        <v>0.9943153509366599</v>
+        <v>0.9943153509366581</v>
       </c>
       <c r="K2">
-        <v>1.004907421129411</v>
+        <v>1.00490742112941</v>
       </c>
       <c r="L2">
-        <v>0.9913734906854332</v>
+        <v>0.9913734906854313</v>
       </c>
       <c r="M2">
-        <v>0.9942005958275562</v>
+        <v>0.9942005958275547</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9841007583439734</v>
+        <v>0.9841007583439708</v>
       </c>
       <c r="D3">
-        <v>1.003311105339485</v>
+        <v>1.003311105339483</v>
       </c>
       <c r="E3">
-        <v>0.991891253861489</v>
+        <v>0.991891253861486</v>
       </c>
       <c r="F3">
-        <v>0.9949415725060599</v>
+        <v>0.9949415725060576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03752107430689</v>
+        <v>1.037521074306889</v>
       </c>
       <c r="J3">
-        <v>1.005034440847302</v>
+        <v>1.0050344408473</v>
       </c>
       <c r="K3">
-        <v>1.01390179453996</v>
+        <v>1.013901794539958</v>
       </c>
       <c r="L3">
-        <v>1.002628949896407</v>
+        <v>1.002628949896404</v>
       </c>
       <c r="M3">
-        <v>1.005639588651398</v>
+        <v>1.005639588651396</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9919803633857404</v>
+        <v>0.9919803633857414</v>
       </c>
       <c r="D4">
-        <v>1.009408532693386</v>
+        <v>1.009408532693387</v>
       </c>
       <c r="E4">
-        <v>0.9994141883082184</v>
+        <v>0.9994141883082193</v>
       </c>
       <c r="F4">
         <v>1.002581982685955</v>
@@ -512,19 +512,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040512070004028</v>
+        <v>1.040512070004029</v>
       </c>
       <c r="J4">
-        <v>1.011591461038638</v>
+        <v>1.011591461038639</v>
       </c>
       <c r="K4">
-        <v>1.01939471591843</v>
+        <v>1.019394715918431</v>
       </c>
       <c r="L4">
-        <v>1.00951968870669</v>
+        <v>1.009519688706691</v>
       </c>
       <c r="M4">
-        <v>1.012649345021209</v>
+        <v>1.01264934502121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951974178955973</v>
+        <v>0.9951974178955985</v>
       </c>
       <c r="D5">
-        <v>1.011897172718204</v>
+        <v>1.011897172718205</v>
       </c>
       <c r="E5">
-        <v>1.002487092004272</v>
+        <v>1.002487092004273</v>
       </c>
       <c r="F5">
-        <v>1.005704345169374</v>
+        <v>1.005704345169375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041727844533844</v>
+        <v>1.041727844533845</v>
       </c>
       <c r="J5">
-        <v>1.014266055977493</v>
+        <v>1.014266055977495</v>
       </c>
       <c r="K5">
-        <v>1.0216330453565</v>
+        <v>1.021633045356501</v>
       </c>
       <c r="L5">
-        <v>1.012331743210873</v>
+        <v>1.012331743210874</v>
       </c>
       <c r="M5">
-        <v>1.015511522560703</v>
+        <v>1.015511522560705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9957322464893149</v>
+        <v>0.995732246489317</v>
       </c>
       <c r="D6">
-        <v>1.012310850366126</v>
+        <v>1.012310850366128</v>
       </c>
       <c r="E6">
-        <v>1.002998038103245</v>
+        <v>1.002998038103247</v>
       </c>
       <c r="F6">
-        <v>1.006223600563648</v>
+        <v>1.006223600563649</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041929645370117</v>
+        <v>1.041929645370118</v>
       </c>
       <c r="J6">
-        <v>1.01471055308398</v>
+        <v>1.014710553083982</v>
       </c>
       <c r="K6">
-        <v>1.022004906398657</v>
+        <v>1.022004906398659</v>
       </c>
       <c r="L6">
-        <v>1.012799163470209</v>
+        <v>1.012799163470211</v>
       </c>
       <c r="M6">
-        <v>1.015987364561428</v>
+        <v>1.01598736456143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9920237126244531</v>
+        <v>0.9920237126244554</v>
       </c>
       <c r="D7">
-        <v>1.009442070148433</v>
+        <v>1.009442070148436</v>
       </c>
       <c r="E7">
-        <v>0.999455589493065</v>
+        <v>0.9994555894930673</v>
       </c>
       <c r="F7">
-        <v>1.002624044425403</v>
+        <v>1.002624044425405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040528473851528</v>
+        <v>1.04052847385153</v>
       </c>
       <c r="J7">
-        <v>1.011627510717816</v>
+        <v>1.011627510717818</v>
       </c>
       <c r="K7">
-        <v>1.019424894265599</v>
+        <v>1.019424894265601</v>
       </c>
       <c r="L7">
-        <v>1.009557585838021</v>
+        <v>1.009557585838024</v>
       </c>
       <c r="M7">
-        <v>1.012687911520925</v>
+        <v>1.012687911520927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9756842756596671</v>
+        <v>0.9756842756596655</v>
       </c>
       <c r="D8">
-        <v>0.99679614743905</v>
+        <v>0.9967961474390488</v>
       </c>
       <c r="E8">
-        <v>0.9838614324496464</v>
+        <v>0.9838614324496447</v>
       </c>
       <c r="F8">
-        <v>0.9867917267541928</v>
+        <v>0.9867917267541915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034307426952415</v>
+        <v>1.034307426952414</v>
       </c>
       <c r="J8">
-        <v>0.9980221325509692</v>
+        <v>0.9980221325509676</v>
       </c>
       <c r="K8">
-        <v>1.008019692555496</v>
+        <v>1.008019692555495</v>
       </c>
       <c r="L8">
-        <v>0.9952645414357927</v>
+        <v>0.9952645414357912</v>
       </c>
       <c r="M8">
-        <v>0.9981536357111692</v>
+        <v>0.9981536357111677</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429090861808053</v>
+        <v>0.9429090861808027</v>
       </c>
       <c r="D9">
-        <v>0.9714264505109377</v>
+        <v>0.9714264505109357</v>
       </c>
       <c r="E9">
-        <v>0.9526495284804575</v>
+        <v>0.9526495284804549</v>
       </c>
       <c r="F9">
-        <v>0.9551601717274844</v>
+        <v>0.9551601717274825</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021644955149499</v>
+        <v>1.021644955149498</v>
       </c>
       <c r="J9">
-        <v>0.9706524757542916</v>
+        <v>0.9706524757542895</v>
       </c>
       <c r="K9">
-        <v>0.9850007741620012</v>
+        <v>0.9850007741619992</v>
       </c>
       <c r="L9">
-        <v>0.9665605791508171</v>
+        <v>0.9665605791508144</v>
       </c>
       <c r="M9">
-        <v>0.9690252007956053</v>
+        <v>0.9690252007956033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9172712524520784</v>
+        <v>0.9172712524520735</v>
       </c>
       <c r="D10">
-        <v>0.9516097080852046</v>
+        <v>0.9516097080852008</v>
       </c>
       <c r="E10">
-        <v>0.9283016830951525</v>
+        <v>0.9283016830951476</v>
       </c>
       <c r="F10">
-        <v>0.9305301414568363</v>
+        <v>0.930530141456832</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011621580938428</v>
+        <v>1.011621580938426</v>
       </c>
       <c r="J10">
-        <v>0.9492004795719267</v>
+        <v>0.9492004795719221</v>
       </c>
       <c r="K10">
-        <v>0.9669113133752224</v>
+        <v>0.9669113133752186</v>
       </c>
       <c r="L10">
-        <v>0.9440985141110326</v>
+        <v>0.9440985141110276</v>
       </c>
       <c r="M10">
-        <v>0.9462781993136273</v>
+        <v>0.9462781993136231</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9048936566600885</v>
+        <v>0.9048936566600843</v>
       </c>
       <c r="D11">
-        <v>0.9420594794891008</v>
+        <v>0.9420594794890974</v>
       </c>
       <c r="E11">
-        <v>0.9165693638666113</v>
+        <v>0.9165693638666068</v>
       </c>
       <c r="F11">
-        <v>0.9186743376507828</v>
+        <v>0.9186743376507788</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006757646076992</v>
+        <v>1.006757646076989</v>
       </c>
       <c r="J11">
-        <v>0.9388379768042734</v>
+        <v>0.9388379768042694</v>
       </c>
       <c r="K11">
-        <v>0.9581635384646511</v>
+        <v>0.9581635384646475</v>
       </c>
       <c r="L11">
-        <v>0.9332570568002178</v>
+        <v>0.9332570568002136</v>
       </c>
       <c r="M11">
-        <v>0.9353121893420143</v>
+        <v>0.9353121893420103</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9000563809185743</v>
+        <v>0.9000563809185759</v>
       </c>
       <c r="D12">
-        <v>0.9383309797300782</v>
+        <v>0.9383309797300793</v>
       </c>
       <c r="E12">
-        <v>0.9119884271823026</v>
+        <v>0.911988427182304</v>
       </c>
       <c r="F12">
-        <v>0.9140472583548757</v>
+        <v>0.9140472583548771</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004853504610176</v>
+        <v>1.004853504610177</v>
       </c>
       <c r="J12">
-        <v>0.9347879137708442</v>
+        <v>0.9347879137708457</v>
       </c>
       <c r="K12">
-        <v>0.9547433677796434</v>
+        <v>0.9547433677796445</v>
       </c>
       <c r="L12">
-        <v>0.929021189480405</v>
+        <v>0.9290211894804066</v>
       </c>
       <c r="M12">
-        <v>0.9310298018829669</v>
+        <v>0.9310298018829682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.901105819014513</v>
+        <v>0.9011058190145145</v>
       </c>
       <c r="D13">
-        <v>0.9391396747704763</v>
+        <v>0.9391396747704778</v>
       </c>
       <c r="E13">
-        <v>0.91298205091576</v>
+        <v>0.9129820509157618</v>
       </c>
       <c r="F13">
-        <v>0.9150507937786364</v>
+        <v>0.9150507937786381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.005266742363293</v>
+        <v>1.005266742363294</v>
       </c>
       <c r="J13">
-        <v>0.9356665697738392</v>
+        <v>0.9356665697738409</v>
       </c>
       <c r="K13">
-        <v>0.9554854188534082</v>
+        <v>0.9554854188534094</v>
       </c>
       <c r="L13">
-        <v>0.9299400923517863</v>
+        <v>0.929940092351788</v>
       </c>
       <c r="M13">
-        <v>0.9319586965557316</v>
+        <v>0.9319586965557329</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9044990407629924</v>
+        <v>0.9044990407629954</v>
       </c>
       <c r="D14">
-        <v>0.9417552302432654</v>
+        <v>0.9417552302432678</v>
       </c>
       <c r="E14">
-        <v>0.9161955708444823</v>
+        <v>0.9161955708444857</v>
       </c>
       <c r="F14">
-        <v>0.9182967366082792</v>
+        <v>0.9182967366082819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006602372202331</v>
+        <v>1.006602372202332</v>
       </c>
       <c r="J14">
-        <v>0.9385075823594354</v>
+        <v>0.9385075823594385</v>
       </c>
       <c r="K14">
-        <v>0.9578845516566551</v>
+        <v>0.9578845516566575</v>
       </c>
       <c r="L14">
-        <v>0.9329114767556337</v>
+        <v>0.9329114767556369</v>
       </c>
       <c r="M14">
-        <v>0.9349627696780202</v>
+        <v>0.9349627696780228</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9065562034397259</v>
+        <v>0.9065562034397241</v>
       </c>
       <c r="D15">
-        <v>0.9433414661191317</v>
+        <v>0.9433414661191304</v>
       </c>
       <c r="E15">
-        <v>0.9181443542574683</v>
+        <v>0.9181443542574663</v>
       </c>
       <c r="F15">
-        <v>0.9202654576794321</v>
+        <v>0.9202654576794301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007411698655853</v>
+        <v>1.007411698655852</v>
       </c>
       <c r="J15">
-        <v>0.9402299454005216</v>
+        <v>0.9402299454005195</v>
       </c>
       <c r="K15">
-        <v>0.9593388773530388</v>
+        <v>0.9593388773530375</v>
       </c>
       <c r="L15">
-        <v>0.9347130590652164</v>
+        <v>0.9347130590652144</v>
       </c>
       <c r="M15">
-        <v>0.9367844559752019</v>
+        <v>0.9367844559751999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9180621294427702</v>
+        <v>0.9180621294427681</v>
       </c>
       <c r="D16">
-        <v>0.9522203639085093</v>
+        <v>0.9522203639085074</v>
       </c>
       <c r="E16">
-        <v>0.9290518398140977</v>
+        <v>0.9290518398140959</v>
       </c>
       <c r="F16">
-        <v>0.9312884597078483</v>
+        <v>0.9312884597078467</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011931901397079</v>
+        <v>1.011931901397078</v>
       </c>
       <c r="J16">
-        <v>0.9498625260497056</v>
+        <v>0.9498625260497039</v>
       </c>
       <c r="K16">
-        <v>0.9674700219411858</v>
+        <v>0.9674700219411841</v>
       </c>
       <c r="L16">
-        <v>0.9447913438243026</v>
+        <v>0.9447913438243006</v>
       </c>
       <c r="M16">
-        <v>0.9469792641176515</v>
+        <v>0.9469792641176499</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,19 +988,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.924909169471989</v>
+        <v>0.9249091694719879</v>
       </c>
       <c r="D17">
-        <v>0.9575090877829687</v>
+        <v>0.9575090877829677</v>
       </c>
       <c r="E17">
-        <v>0.935548852398333</v>
+        <v>0.9355488523983315</v>
       </c>
       <c r="F17">
-        <v>0.9378575346971362</v>
+        <v>0.937857534697135</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.014615849716773</v>
       </c>
       <c r="J17">
-        <v>0.9555936285059172</v>
+        <v>0.9555936285059162</v>
       </c>
       <c r="K17">
-        <v>0.9723055429343603</v>
+        <v>0.9723055429343596</v>
       </c>
       <c r="L17">
-        <v>0.9507899046633407</v>
+        <v>0.9507899046633393</v>
       </c>
       <c r="M17">
-        <v>0.9530505526832472</v>
+        <v>0.953050552683246</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9287837617707217</v>
+        <v>0.9287837617707247</v>
       </c>
       <c r="D18">
-        <v>0.9605033049416073</v>
+        <v>0.9605033049416096</v>
       </c>
       <c r="E18">
-        <v>0.9392273423266995</v>
+        <v>0.9392273423267022</v>
       </c>
       <c r="F18">
-        <v>0.9415779385947357</v>
+        <v>0.9415779385947379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016132368829707</v>
+        <v>1.016132368829708</v>
       </c>
       <c r="J18">
-        <v>0.9588361729067251</v>
+        <v>0.9588361729067278</v>
       </c>
       <c r="K18">
-        <v>0.9750405054078418</v>
+        <v>0.9750405054078439</v>
       </c>
       <c r="L18">
-        <v>0.9541845771007993</v>
+        <v>0.9541845771008021</v>
       </c>
       <c r="M18">
-        <v>0.9564875390380644</v>
+        <v>0.9564875390380667</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.930085867333473</v>
+        <v>0.9300858673334754</v>
       </c>
       <c r="D19">
-        <v>0.961509764585826</v>
+        <v>0.9615097645858278</v>
       </c>
       <c r="E19">
-        <v>0.9404638612254995</v>
+        <v>0.940463861225502</v>
       </c>
       <c r="F19">
-        <v>0.9428287310562795</v>
+        <v>0.9428287310562813</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016641618686767</v>
+        <v>1.016641618686768</v>
       </c>
       <c r="J19">
-        <v>0.9599257623355839</v>
+        <v>0.9599257623355861</v>
       </c>
       <c r="K19">
-        <v>0.9759593779318805</v>
+        <v>0.9759593779318821</v>
       </c>
       <c r="L19">
-        <v>0.9553254215552381</v>
+        <v>0.9553254215552406</v>
       </c>
       <c r="M19">
-        <v>0.9576427954103555</v>
+        <v>0.9576427954103574</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241871639357158</v>
+        <v>0.9241871639357155</v>
       </c>
       <c r="D20">
-        <v>0.9569512450759218</v>
+        <v>0.9569512450759216</v>
       </c>
       <c r="E20">
-        <v>0.9348635457659338</v>
+        <v>0.9348635457659336</v>
       </c>
       <c r="F20">
-        <v>0.9371645092590071</v>
+        <v>0.9371645092590069</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.014333068012774</v>
       </c>
       <c r="J20">
-        <v>0.9549893518312496</v>
+        <v>0.9549893518312492</v>
       </c>
       <c r="K20">
-        <v>0.971795785398983</v>
+        <v>0.9717957853989829</v>
       </c>
       <c r="L20">
-        <v>0.9501573431458732</v>
+        <v>0.950157343145873</v>
       </c>
       <c r="M20">
-        <v>0.9524101997416063</v>
+        <v>0.9524101997416061</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9035069182109009</v>
+        <v>0.9035069182108981</v>
       </c>
       <c r="D21">
-        <v>0.9409903686245416</v>
+        <v>0.9409903686245391</v>
       </c>
       <c r="E21">
-        <v>0.9152558694797205</v>
+        <v>0.9152558694797177</v>
       </c>
       <c r="F21">
-        <v>0.9173474958389495</v>
+        <v>0.9173474958389468</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.006211940464837</v>
+        <v>1.006211940464835</v>
       </c>
       <c r="J21">
-        <v>0.9376769194554323</v>
+        <v>0.9376769194554294</v>
       </c>
       <c r="K21">
-        <v>0.9571831172610015</v>
+        <v>0.957183117260999</v>
       </c>
       <c r="L21">
-        <v>0.9320426572040101</v>
+        <v>0.9320426572040073</v>
       </c>
       <c r="M21">
-        <v>0.9340843319140666</v>
+        <v>0.9340843319140643</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8890777237529134</v>
+        <v>0.8890777237529124</v>
       </c>
       <c r="D22">
-        <v>0.9298778112165857</v>
+        <v>0.929877811216585</v>
       </c>
       <c r="E22">
-        <v>0.901600504389228</v>
+        <v>0.9016005043892269</v>
       </c>
       <c r="F22">
-        <v>0.903558866142445</v>
+        <v>0.9035588661424444</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.000526426336863</v>
       </c>
       <c r="J22">
-        <v>0.9255961981472387</v>
+        <v>0.9255961981472377</v>
       </c>
       <c r="K22">
-        <v>0.9469793017305415</v>
+        <v>0.9469793017305407</v>
       </c>
       <c r="L22">
-        <v>0.9194104469856367</v>
+        <v>0.9194104469856357</v>
       </c>
       <c r="M22">
-        <v>0.9213178077941594</v>
+        <v>0.9213178077941586</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8968837328449889</v>
+        <v>0.8968837328449888</v>
       </c>
       <c r="D23">
-        <v>0.9358868271100068</v>
+        <v>0.9358868271100067</v>
       </c>
       <c r="E23">
-        <v>0.9089852034844049</v>
+        <v>0.9089852034844047</v>
       </c>
       <c r="F23">
-        <v>0.9110143995801179</v>
+        <v>0.9110143995801175</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.00360377485683</v>
       </c>
       <c r="J23">
-        <v>0.9321315843508683</v>
+        <v>0.9321315843508681</v>
       </c>
       <c r="K23">
-        <v>0.9524998653402506</v>
+        <v>0.9524998653402504</v>
       </c>
       <c r="L23">
-        <v>0.9262433944632216</v>
+        <v>0.9262433944632212</v>
       </c>
       <c r="M23">
-        <v>0.9282221354526283</v>
+        <v>0.9282221354526281</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245137720425533</v>
+        <v>0.9245137720425531</v>
       </c>
       <c r="D24">
-        <v>0.9572035876733959</v>
+        <v>0.957203587673396</v>
       </c>
       <c r="E24">
-        <v>0.9351735465567386</v>
+        <v>0.9351735465567388</v>
       </c>
       <c r="F24">
         <v>0.9374779982072462</v>
@@ -1275,16 +1275,16 @@
         <v>1.014460994935023</v>
       </c>
       <c r="J24">
-        <v>0.9552627056348175</v>
+        <v>0.9552627056348176</v>
       </c>
       <c r="K24">
-        <v>0.9720263847913934</v>
+        <v>0.9720263847913936</v>
       </c>
       <c r="L24">
         <v>0.9504434895135148</v>
       </c>
       <c r="M24">
-        <v>0.9526998670431959</v>
+        <v>0.9526998670431961</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9519505245826521</v>
+        <v>0.9519505245826488</v>
       </c>
       <c r="D25">
-        <v>0.9784228767176889</v>
+        <v>0.978422876717686</v>
       </c>
       <c r="E25">
-        <v>0.9612503678989863</v>
+        <v>0.9612503678989825</v>
       </c>
       <c r="F25">
-        <v>0.9638697212603463</v>
+        <v>0.9638697212603435</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025158117787144</v>
+        <v>1.025158117787143</v>
       </c>
       <c r="J25">
-        <v>0.9782106790349292</v>
+        <v>0.9782106790349256</v>
       </c>
       <c r="K25">
-        <v>0.9913656470883618</v>
+        <v>0.9913656470883588</v>
       </c>
       <c r="L25">
-        <v>0.9744815616715208</v>
+        <v>0.9744815616715169</v>
       </c>
       <c r="M25">
-        <v>0.9770560633330748</v>
+        <v>0.9770560633330722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9712390026623134</v>
+        <v>0.9712390026623151</v>
       </c>
       <c r="D2">
-        <v>0.9933547240797563</v>
+        <v>0.9933547240797574</v>
       </c>
       <c r="E2">
-        <v>0.9796227745677958</v>
+        <v>0.9796227745677978</v>
       </c>
       <c r="F2">
-        <v>0.982491832625025</v>
+        <v>0.9824918326250265</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.032602970768765</v>
       </c>
       <c r="J2">
-        <v>0.9943153509366581</v>
+        <v>0.9943153509366599</v>
       </c>
       <c r="K2">
-        <v>1.00490742112941</v>
+        <v>1.004907421129411</v>
       </c>
       <c r="L2">
-        <v>0.9913734906854313</v>
+        <v>0.9913734906854332</v>
       </c>
       <c r="M2">
-        <v>0.9942005958275547</v>
+        <v>0.9942005958275562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9841007583439708</v>
+        <v>0.9841007583439734</v>
       </c>
       <c r="D3">
-        <v>1.003311105339483</v>
+        <v>1.003311105339485</v>
       </c>
       <c r="E3">
-        <v>0.991891253861486</v>
+        <v>0.991891253861489</v>
       </c>
       <c r="F3">
-        <v>0.9949415725060576</v>
+        <v>0.9949415725060599</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037521074306889</v>
+        <v>1.03752107430689</v>
       </c>
       <c r="J3">
-        <v>1.0050344408473</v>
+        <v>1.005034440847302</v>
       </c>
       <c r="K3">
-        <v>1.013901794539958</v>
+        <v>1.01390179453996</v>
       </c>
       <c r="L3">
-        <v>1.002628949896404</v>
+        <v>1.002628949896407</v>
       </c>
       <c r="M3">
-        <v>1.005639588651396</v>
+        <v>1.005639588651398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9919803633857414</v>
+        <v>0.9919803633857404</v>
       </c>
       <c r="D4">
-        <v>1.009408532693387</v>
+        <v>1.009408532693386</v>
       </c>
       <c r="E4">
-        <v>0.9994141883082193</v>
+        <v>0.9994141883082184</v>
       </c>
       <c r="F4">
         <v>1.002581982685955</v>
@@ -512,19 +512,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040512070004029</v>
+        <v>1.040512070004028</v>
       </c>
       <c r="J4">
-        <v>1.011591461038639</v>
+        <v>1.011591461038638</v>
       </c>
       <c r="K4">
-        <v>1.019394715918431</v>
+        <v>1.01939471591843</v>
       </c>
       <c r="L4">
-        <v>1.009519688706691</v>
+        <v>1.00951968870669</v>
       </c>
       <c r="M4">
-        <v>1.01264934502121</v>
+        <v>1.012649345021209</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951974178955985</v>
+        <v>0.9951974178955973</v>
       </c>
       <c r="D5">
-        <v>1.011897172718205</v>
+        <v>1.011897172718204</v>
       </c>
       <c r="E5">
-        <v>1.002487092004273</v>
+        <v>1.002487092004272</v>
       </c>
       <c r="F5">
-        <v>1.005704345169375</v>
+        <v>1.005704345169374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041727844533845</v>
+        <v>1.041727844533844</v>
       </c>
       <c r="J5">
-        <v>1.014266055977495</v>
+        <v>1.014266055977493</v>
       </c>
       <c r="K5">
-        <v>1.021633045356501</v>
+        <v>1.0216330453565</v>
       </c>
       <c r="L5">
-        <v>1.012331743210874</v>
+        <v>1.012331743210873</v>
       </c>
       <c r="M5">
-        <v>1.015511522560705</v>
+        <v>1.015511522560703</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995732246489317</v>
+        <v>0.9957322464893149</v>
       </c>
       <c r="D6">
-        <v>1.012310850366128</v>
+        <v>1.012310850366126</v>
       </c>
       <c r="E6">
-        <v>1.002998038103247</v>
+        <v>1.002998038103245</v>
       </c>
       <c r="F6">
-        <v>1.006223600563649</v>
+        <v>1.006223600563648</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041929645370118</v>
+        <v>1.041929645370117</v>
       </c>
       <c r="J6">
-        <v>1.014710553083982</v>
+        <v>1.01471055308398</v>
       </c>
       <c r="K6">
-        <v>1.022004906398659</v>
+        <v>1.022004906398657</v>
       </c>
       <c r="L6">
-        <v>1.012799163470211</v>
+        <v>1.012799163470209</v>
       </c>
       <c r="M6">
-        <v>1.01598736456143</v>
+        <v>1.015987364561428</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9920237126244554</v>
+        <v>0.9920237126244531</v>
       </c>
       <c r="D7">
-        <v>1.009442070148436</v>
+        <v>1.009442070148433</v>
       </c>
       <c r="E7">
-        <v>0.9994555894930673</v>
+        <v>0.999455589493065</v>
       </c>
       <c r="F7">
-        <v>1.002624044425405</v>
+        <v>1.002624044425403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04052847385153</v>
+        <v>1.040528473851528</v>
       </c>
       <c r="J7">
-        <v>1.011627510717818</v>
+        <v>1.011627510717816</v>
       </c>
       <c r="K7">
-        <v>1.019424894265601</v>
+        <v>1.019424894265599</v>
       </c>
       <c r="L7">
-        <v>1.009557585838024</v>
+        <v>1.009557585838021</v>
       </c>
       <c r="M7">
-        <v>1.012687911520927</v>
+        <v>1.012687911520925</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9756842756596655</v>
+        <v>0.9756842756596671</v>
       </c>
       <c r="D8">
-        <v>0.9967961474390488</v>
+        <v>0.99679614743905</v>
       </c>
       <c r="E8">
-        <v>0.9838614324496447</v>
+        <v>0.9838614324496464</v>
       </c>
       <c r="F8">
-        <v>0.9867917267541915</v>
+        <v>0.9867917267541928</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034307426952414</v>
+        <v>1.034307426952415</v>
       </c>
       <c r="J8">
-        <v>0.9980221325509676</v>
+        <v>0.9980221325509692</v>
       </c>
       <c r="K8">
-        <v>1.008019692555495</v>
+        <v>1.008019692555496</v>
       </c>
       <c r="L8">
-        <v>0.9952645414357912</v>
+        <v>0.9952645414357927</v>
       </c>
       <c r="M8">
-        <v>0.9981536357111677</v>
+        <v>0.9981536357111692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429090861808027</v>
+        <v>0.9429090861808053</v>
       </c>
       <c r="D9">
-        <v>0.9714264505109357</v>
+        <v>0.9714264505109377</v>
       </c>
       <c r="E9">
-        <v>0.9526495284804549</v>
+        <v>0.9526495284804575</v>
       </c>
       <c r="F9">
-        <v>0.9551601717274825</v>
+        <v>0.9551601717274844</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021644955149498</v>
+        <v>1.021644955149499</v>
       </c>
       <c r="J9">
-        <v>0.9706524757542895</v>
+        <v>0.9706524757542916</v>
       </c>
       <c r="K9">
-        <v>0.9850007741619992</v>
+        <v>0.9850007741620012</v>
       </c>
       <c r="L9">
-        <v>0.9665605791508144</v>
+        <v>0.9665605791508171</v>
       </c>
       <c r="M9">
-        <v>0.9690252007956033</v>
+        <v>0.9690252007956053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9172712524520735</v>
+        <v>0.9172712524520784</v>
       </c>
       <c r="D10">
-        <v>0.9516097080852008</v>
+        <v>0.9516097080852046</v>
       </c>
       <c r="E10">
-        <v>0.9283016830951476</v>
+        <v>0.9283016830951525</v>
       </c>
       <c r="F10">
-        <v>0.930530141456832</v>
+        <v>0.9305301414568363</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011621580938426</v>
+        <v>1.011621580938428</v>
       </c>
       <c r="J10">
-        <v>0.9492004795719221</v>
+        <v>0.9492004795719267</v>
       </c>
       <c r="K10">
-        <v>0.9669113133752186</v>
+        <v>0.9669113133752224</v>
       </c>
       <c r="L10">
-        <v>0.9440985141110276</v>
+        <v>0.9440985141110326</v>
       </c>
       <c r="M10">
-        <v>0.9462781993136231</v>
+        <v>0.9462781993136273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9048936566600843</v>
+        <v>0.9048936566600885</v>
       </c>
       <c r="D11">
-        <v>0.9420594794890974</v>
+        <v>0.9420594794891008</v>
       </c>
       <c r="E11">
-        <v>0.9165693638666068</v>
+        <v>0.9165693638666113</v>
       </c>
       <c r="F11">
-        <v>0.9186743376507788</v>
+        <v>0.9186743376507828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006757646076989</v>
+        <v>1.006757646076992</v>
       </c>
       <c r="J11">
-        <v>0.9388379768042694</v>
+        <v>0.9388379768042734</v>
       </c>
       <c r="K11">
-        <v>0.9581635384646475</v>
+        <v>0.9581635384646511</v>
       </c>
       <c r="L11">
-        <v>0.9332570568002136</v>
+        <v>0.9332570568002178</v>
       </c>
       <c r="M11">
-        <v>0.9353121893420103</v>
+        <v>0.9353121893420143</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9000563809185759</v>
+        <v>0.9000563809185743</v>
       </c>
       <c r="D12">
-        <v>0.9383309797300793</v>
+        <v>0.9383309797300782</v>
       </c>
       <c r="E12">
-        <v>0.911988427182304</v>
+        <v>0.9119884271823026</v>
       </c>
       <c r="F12">
-        <v>0.9140472583548771</v>
+        <v>0.9140472583548757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004853504610177</v>
+        <v>1.004853504610176</v>
       </c>
       <c r="J12">
-        <v>0.9347879137708457</v>
+        <v>0.9347879137708442</v>
       </c>
       <c r="K12">
-        <v>0.9547433677796445</v>
+        <v>0.9547433677796434</v>
       </c>
       <c r="L12">
-        <v>0.9290211894804066</v>
+        <v>0.929021189480405</v>
       </c>
       <c r="M12">
-        <v>0.9310298018829682</v>
+        <v>0.9310298018829669</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9011058190145145</v>
+        <v>0.901105819014513</v>
       </c>
       <c r="D13">
-        <v>0.9391396747704778</v>
+        <v>0.9391396747704763</v>
       </c>
       <c r="E13">
-        <v>0.9129820509157618</v>
+        <v>0.91298205091576</v>
       </c>
       <c r="F13">
-        <v>0.9150507937786381</v>
+        <v>0.9150507937786364</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.005266742363294</v>
+        <v>1.005266742363293</v>
       </c>
       <c r="J13">
-        <v>0.9356665697738409</v>
+        <v>0.9356665697738392</v>
       </c>
       <c r="K13">
-        <v>0.9554854188534094</v>
+        <v>0.9554854188534082</v>
       </c>
       <c r="L13">
-        <v>0.929940092351788</v>
+        <v>0.9299400923517863</v>
       </c>
       <c r="M13">
-        <v>0.9319586965557329</v>
+        <v>0.9319586965557316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9044990407629954</v>
+        <v>0.9044990407629924</v>
       </c>
       <c r="D14">
-        <v>0.9417552302432678</v>
+        <v>0.9417552302432654</v>
       </c>
       <c r="E14">
-        <v>0.9161955708444857</v>
+        <v>0.9161955708444823</v>
       </c>
       <c r="F14">
-        <v>0.9182967366082819</v>
+        <v>0.9182967366082792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006602372202332</v>
+        <v>1.006602372202331</v>
       </c>
       <c r="J14">
-        <v>0.9385075823594385</v>
+        <v>0.9385075823594354</v>
       </c>
       <c r="K14">
-        <v>0.9578845516566575</v>
+        <v>0.9578845516566551</v>
       </c>
       <c r="L14">
-        <v>0.9329114767556369</v>
+        <v>0.9329114767556337</v>
       </c>
       <c r="M14">
-        <v>0.9349627696780228</v>
+        <v>0.9349627696780202</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9065562034397241</v>
+        <v>0.9065562034397259</v>
       </c>
       <c r="D15">
-        <v>0.9433414661191304</v>
+        <v>0.9433414661191317</v>
       </c>
       <c r="E15">
-        <v>0.9181443542574663</v>
+        <v>0.9181443542574683</v>
       </c>
       <c r="F15">
-        <v>0.9202654576794301</v>
+        <v>0.9202654576794321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007411698655852</v>
+        <v>1.007411698655853</v>
       </c>
       <c r="J15">
-        <v>0.9402299454005195</v>
+        <v>0.9402299454005216</v>
       </c>
       <c r="K15">
-        <v>0.9593388773530375</v>
+        <v>0.9593388773530388</v>
       </c>
       <c r="L15">
-        <v>0.9347130590652144</v>
+        <v>0.9347130590652164</v>
       </c>
       <c r="M15">
-        <v>0.9367844559751999</v>
+        <v>0.9367844559752019</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9180621294427681</v>
+        <v>0.9180621294427702</v>
       </c>
       <c r="D16">
-        <v>0.9522203639085074</v>
+        <v>0.9522203639085093</v>
       </c>
       <c r="E16">
-        <v>0.9290518398140959</v>
+        <v>0.9290518398140977</v>
       </c>
       <c r="F16">
-        <v>0.9312884597078467</v>
+        <v>0.9312884597078483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011931901397078</v>
+        <v>1.011931901397079</v>
       </c>
       <c r="J16">
-        <v>0.9498625260497039</v>
+        <v>0.9498625260497056</v>
       </c>
       <c r="K16">
-        <v>0.9674700219411841</v>
+        <v>0.9674700219411858</v>
       </c>
       <c r="L16">
-        <v>0.9447913438243006</v>
+        <v>0.9447913438243026</v>
       </c>
       <c r="M16">
-        <v>0.9469792641176499</v>
+        <v>0.9469792641176515</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,19 +988,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9249091694719879</v>
+        <v>0.924909169471989</v>
       </c>
       <c r="D17">
-        <v>0.9575090877829677</v>
+        <v>0.9575090877829687</v>
       </c>
       <c r="E17">
-        <v>0.9355488523983315</v>
+        <v>0.935548852398333</v>
       </c>
       <c r="F17">
-        <v>0.937857534697135</v>
+        <v>0.9378575346971362</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.014615849716773</v>
       </c>
       <c r="J17">
-        <v>0.9555936285059162</v>
+        <v>0.9555936285059172</v>
       </c>
       <c r="K17">
-        <v>0.9723055429343596</v>
+        <v>0.9723055429343603</v>
       </c>
       <c r="L17">
-        <v>0.9507899046633393</v>
+        <v>0.9507899046633407</v>
       </c>
       <c r="M17">
-        <v>0.953050552683246</v>
+        <v>0.9530505526832472</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9287837617707247</v>
+        <v>0.9287837617707217</v>
       </c>
       <c r="D18">
-        <v>0.9605033049416096</v>
+        <v>0.9605033049416073</v>
       </c>
       <c r="E18">
-        <v>0.9392273423267022</v>
+        <v>0.9392273423266995</v>
       </c>
       <c r="F18">
-        <v>0.9415779385947379</v>
+        <v>0.9415779385947357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016132368829708</v>
+        <v>1.016132368829707</v>
       </c>
       <c r="J18">
-        <v>0.9588361729067278</v>
+        <v>0.9588361729067251</v>
       </c>
       <c r="K18">
-        <v>0.9750405054078439</v>
+        <v>0.9750405054078418</v>
       </c>
       <c r="L18">
-        <v>0.9541845771008021</v>
+        <v>0.9541845771007993</v>
       </c>
       <c r="M18">
-        <v>0.9564875390380667</v>
+        <v>0.9564875390380644</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9300858673334754</v>
+        <v>0.930085867333473</v>
       </c>
       <c r="D19">
-        <v>0.9615097645858278</v>
+        <v>0.961509764585826</v>
       </c>
       <c r="E19">
-        <v>0.940463861225502</v>
+        <v>0.9404638612254995</v>
       </c>
       <c r="F19">
-        <v>0.9428287310562813</v>
+        <v>0.9428287310562795</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016641618686768</v>
+        <v>1.016641618686767</v>
       </c>
       <c r="J19">
-        <v>0.9599257623355861</v>
+        <v>0.9599257623355839</v>
       </c>
       <c r="K19">
-        <v>0.9759593779318821</v>
+        <v>0.9759593779318805</v>
       </c>
       <c r="L19">
-        <v>0.9553254215552406</v>
+        <v>0.9553254215552381</v>
       </c>
       <c r="M19">
-        <v>0.9576427954103574</v>
+        <v>0.9576427954103555</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241871639357155</v>
+        <v>0.9241871639357158</v>
       </c>
       <c r="D20">
-        <v>0.9569512450759216</v>
+        <v>0.9569512450759218</v>
       </c>
       <c r="E20">
-        <v>0.9348635457659336</v>
+        <v>0.9348635457659338</v>
       </c>
       <c r="F20">
-        <v>0.9371645092590069</v>
+        <v>0.9371645092590071</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.014333068012774</v>
       </c>
       <c r="J20">
-        <v>0.9549893518312492</v>
+        <v>0.9549893518312496</v>
       </c>
       <c r="K20">
-        <v>0.9717957853989829</v>
+        <v>0.971795785398983</v>
       </c>
       <c r="L20">
-        <v>0.950157343145873</v>
+        <v>0.9501573431458732</v>
       </c>
       <c r="M20">
-        <v>0.9524101997416061</v>
+        <v>0.9524101997416063</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9035069182108981</v>
+        <v>0.9035069182109009</v>
       </c>
       <c r="D21">
-        <v>0.9409903686245391</v>
+        <v>0.9409903686245416</v>
       </c>
       <c r="E21">
-        <v>0.9152558694797177</v>
+        <v>0.9152558694797205</v>
       </c>
       <c r="F21">
-        <v>0.9173474958389468</v>
+        <v>0.9173474958389495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.006211940464835</v>
+        <v>1.006211940464837</v>
       </c>
       <c r="J21">
-        <v>0.9376769194554294</v>
+        <v>0.9376769194554323</v>
       </c>
       <c r="K21">
-        <v>0.957183117260999</v>
+        <v>0.9571831172610015</v>
       </c>
       <c r="L21">
-        <v>0.9320426572040073</v>
+        <v>0.9320426572040101</v>
       </c>
       <c r="M21">
-        <v>0.9340843319140643</v>
+        <v>0.9340843319140666</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8890777237529124</v>
+        <v>0.8890777237529134</v>
       </c>
       <c r="D22">
-        <v>0.929877811216585</v>
+        <v>0.9298778112165857</v>
       </c>
       <c r="E22">
-        <v>0.9016005043892269</v>
+        <v>0.901600504389228</v>
       </c>
       <c r="F22">
-        <v>0.9035588661424444</v>
+        <v>0.903558866142445</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.000526426336863</v>
       </c>
       <c r="J22">
-        <v>0.9255961981472377</v>
+        <v>0.9255961981472387</v>
       </c>
       <c r="K22">
-        <v>0.9469793017305407</v>
+        <v>0.9469793017305415</v>
       </c>
       <c r="L22">
-        <v>0.9194104469856357</v>
+        <v>0.9194104469856367</v>
       </c>
       <c r="M22">
-        <v>0.9213178077941586</v>
+        <v>0.9213178077941594</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8968837328449888</v>
+        <v>0.8968837328449889</v>
       </c>
       <c r="D23">
-        <v>0.9358868271100067</v>
+        <v>0.9358868271100068</v>
       </c>
       <c r="E23">
-        <v>0.9089852034844047</v>
+        <v>0.9089852034844049</v>
       </c>
       <c r="F23">
-        <v>0.9110143995801175</v>
+        <v>0.9110143995801179</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.00360377485683</v>
       </c>
       <c r="J23">
-        <v>0.9321315843508681</v>
+        <v>0.9321315843508683</v>
       </c>
       <c r="K23">
-        <v>0.9524998653402504</v>
+        <v>0.9524998653402506</v>
       </c>
       <c r="L23">
-        <v>0.9262433944632212</v>
+        <v>0.9262433944632216</v>
       </c>
       <c r="M23">
-        <v>0.9282221354526281</v>
+        <v>0.9282221354526283</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245137720425531</v>
+        <v>0.9245137720425533</v>
       </c>
       <c r="D24">
-        <v>0.957203587673396</v>
+        <v>0.9572035876733959</v>
       </c>
       <c r="E24">
-        <v>0.9351735465567388</v>
+        <v>0.9351735465567386</v>
       </c>
       <c r="F24">
         <v>0.9374779982072462</v>
@@ -1275,16 +1275,16 @@
         <v>1.014460994935023</v>
       </c>
       <c r="J24">
-        <v>0.9552627056348176</v>
+        <v>0.9552627056348175</v>
       </c>
       <c r="K24">
-        <v>0.9720263847913936</v>
+        <v>0.9720263847913934</v>
       </c>
       <c r="L24">
         <v>0.9504434895135148</v>
       </c>
       <c r="M24">
-        <v>0.9526998670431961</v>
+        <v>0.9526998670431959</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9519505245826488</v>
+        <v>0.9519505245826521</v>
       </c>
       <c r="D25">
-        <v>0.978422876717686</v>
+        <v>0.9784228767176889</v>
       </c>
       <c r="E25">
-        <v>0.9612503678989825</v>
+        <v>0.9612503678989863</v>
       </c>
       <c r="F25">
-        <v>0.9638697212603435</v>
+        <v>0.9638697212603463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025158117787143</v>
+        <v>1.025158117787144</v>
       </c>
       <c r="J25">
-        <v>0.9782106790349256</v>
+        <v>0.9782106790349292</v>
       </c>
       <c r="K25">
-        <v>0.9913656470883588</v>
+        <v>0.9913656470883618</v>
       </c>
       <c r="L25">
-        <v>0.9744815616715169</v>
+        <v>0.9744815616715208</v>
       </c>
       <c r="M25">
-        <v>0.9770560633330722</v>
+        <v>0.9770560633330748</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9712390026623151</v>
+        <v>0.9745761749636679</v>
       </c>
       <c r="D2">
-        <v>0.9933547240797574</v>
+        <v>0.9958964729855104</v>
       </c>
       <c r="E2">
-        <v>0.9796227745677978</v>
+        <v>0.982934294102783</v>
       </c>
       <c r="F2">
-        <v>0.9824918326250265</v>
+        <v>0.9852791042269269</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032602970768765</v>
+        <v>1.033971329107041</v>
       </c>
       <c r="J2">
-        <v>0.9943153509366599</v>
+        <v>0.9975448418773115</v>
       </c>
       <c r="K2">
-        <v>1.004907421129411</v>
+        <v>1.007413274051963</v>
       </c>
       <c r="L2">
-        <v>0.9913734906854332</v>
+        <v>0.9946366150401493</v>
       </c>
       <c r="M2">
-        <v>0.9942005958275562</v>
+        <v>0.9969474070004484</v>
+      </c>
+      <c r="N2">
+        <v>0.9989614699727698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9841007583439734</v>
+        <v>0.9873874337992613</v>
       </c>
       <c r="D3">
-        <v>1.003311105339485</v>
+        <v>1.005816971065557</v>
       </c>
       <c r="E3">
-        <v>0.991891253861489</v>
+        <v>0.9951577231452429</v>
       </c>
       <c r="F3">
-        <v>0.9949415725060599</v>
+        <v>0.9976795537768653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03752107430689</v>
+        <v>1.038871398262324</v>
       </c>
       <c r="J3">
-        <v>1.005034440847302</v>
+        <v>1.008227936844682</v>
       </c>
       <c r="K3">
-        <v>1.01390179453996</v>
+        <v>1.016375959804586</v>
       </c>
       <c r="L3">
-        <v>1.002628949896407</v>
+        <v>1.005852939058523</v>
       </c>
       <c r="M3">
-        <v>1.005639588651398</v>
+        <v>1.008342211500254</v>
+      </c>
+      <c r="N3">
+        <v>1.009659736160362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9919803633857404</v>
+        <v>0.9952393599717694</v>
       </c>
       <c r="D4">
-        <v>1.009408532693386</v>
+        <v>1.011894840458407</v>
       </c>
       <c r="E4">
-        <v>0.9994141883082184</v>
+        <v>1.002656052450072</v>
       </c>
       <c r="F4">
-        <v>1.002581982685955</v>
+        <v>1.00529272668548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040512070004028</v>
+        <v>1.041852670279292</v>
       </c>
       <c r="J4">
-        <v>1.011591461038638</v>
+        <v>1.014765632374318</v>
       </c>
       <c r="K4">
-        <v>1.01939471591843</v>
+        <v>1.021851794084823</v>
       </c>
       <c r="L4">
-        <v>1.00951968870669</v>
+        <v>1.012722526613446</v>
       </c>
       <c r="M4">
-        <v>1.012649345021209</v>
+        <v>1.015327690132883</v>
+      </c>
+      <c r="N4">
+        <v>1.016206715967535</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951974178955973</v>
+        <v>0.9984457855484401</v>
       </c>
       <c r="D5">
-        <v>1.011897172718204</v>
+        <v>1.014375998036974</v>
       </c>
       <c r="E5">
-        <v>1.002487092004272</v>
+        <v>1.005719528345733</v>
       </c>
       <c r="F5">
-        <v>1.005704345169374</v>
+        <v>1.008404579186468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041727844533844</v>
+        <v>1.043064750827884</v>
       </c>
       <c r="J5">
-        <v>1.014266055977493</v>
+        <v>1.017432901982489</v>
       </c>
       <c r="K5">
-        <v>1.0216330453565</v>
+        <v>1.024083630168049</v>
       </c>
       <c r="L5">
-        <v>1.012331743210873</v>
+        <v>1.015526529589531</v>
       </c>
       <c r="M5">
-        <v>1.015511522560703</v>
+        <v>1.0181805328565</v>
+      </c>
+      <c r="N5">
+        <v>1.018877773404489</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9957322464893149</v>
+        <v>0.9989788838909076</v>
       </c>
       <c r="D6">
-        <v>1.012310850366126</v>
+        <v>1.014788459341571</v>
       </c>
       <c r="E6">
-        <v>1.002998038103245</v>
+        <v>1.006228940945253</v>
       </c>
       <c r="F6">
-        <v>1.006223600563648</v>
+        <v>1.008922120745495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041929645370117</v>
+        <v>1.043265952742717</v>
       </c>
       <c r="J6">
-        <v>1.01471055308398</v>
+        <v>1.017876212243618</v>
       </c>
       <c r="K6">
-        <v>1.022004906398657</v>
+        <v>1.024454438245955</v>
       </c>
       <c r="L6">
-        <v>1.012799163470209</v>
+        <v>1.01599264333127</v>
       </c>
       <c r="M6">
-        <v>1.015987364561428</v>
+        <v>1.018654854608655</v>
+      </c>
+      <c r="N6">
+        <v>1.019321713217038</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9920237126244531</v>
+        <v>0.9952825634449437</v>
       </c>
       <c r="D7">
-        <v>1.009442070148433</v>
+        <v>1.01192827518298</v>
       </c>
       <c r="E7">
-        <v>0.999455589493065</v>
+        <v>1.002697324257492</v>
       </c>
       <c r="F7">
-        <v>1.002624044425403</v>
+        <v>1.005334644494419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040528473851528</v>
+        <v>1.041869023302651</v>
       </c>
       <c r="J7">
-        <v>1.011627510717816</v>
+        <v>1.014801581206431</v>
       </c>
       <c r="K7">
-        <v>1.019424894265599</v>
+        <v>1.021881883102824</v>
       </c>
       <c r="L7">
-        <v>1.009557585838021</v>
+        <v>1.012760313038977</v>
       </c>
       <c r="M7">
-        <v>1.012687911520925</v>
+        <v>1.015366128661173</v>
+      </c>
+      <c r="N7">
+        <v>1.016242715851112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9756842756596671</v>
+        <v>0.9790032186281701</v>
       </c>
       <c r="D8">
-        <v>0.99679614743905</v>
+        <v>0.999324917903223</v>
       </c>
       <c r="E8">
-        <v>0.9838614324496464</v>
+        <v>0.9871566681546154</v>
       </c>
       <c r="F8">
-        <v>0.9867917267541928</v>
+        <v>0.9895612569751007</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034307426952415</v>
+        <v>1.035669238335571</v>
       </c>
       <c r="J8">
-        <v>0.9980221325509692</v>
+        <v>1.001238534215909</v>
       </c>
       <c r="K8">
-        <v>1.008019692555496</v>
+        <v>1.010514041376187</v>
       </c>
       <c r="L8">
-        <v>0.9952645414357927</v>
+        <v>0.9985134676507414</v>
       </c>
       <c r="M8">
-        <v>0.9981536357111692</v>
+        <v>1.000884509261848</v>
+      </c>
+      <c r="N8">
+        <v>1.002660407778161</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9429090861808053</v>
+        <v>0.9463841045105658</v>
       </c>
       <c r="D9">
-        <v>0.9714264505109377</v>
+        <v>0.9740668882883436</v>
       </c>
       <c r="E9">
-        <v>0.9526495284804575</v>
+        <v>0.9560847129125467</v>
       </c>
       <c r="F9">
-        <v>0.9551601717274844</v>
+        <v>0.9580801984718188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021644955149499</v>
+        <v>1.023063678778306</v>
       </c>
       <c r="J9">
-        <v>0.9706524757542916</v>
+        <v>0.973983392809308</v>
       </c>
       <c r="K9">
-        <v>0.9850007741620012</v>
+        <v>0.9875952083953834</v>
       </c>
       <c r="L9">
-        <v>0.9665605791508171</v>
+        <v>0.9699328738306777</v>
       </c>
       <c r="M9">
-        <v>0.9690252007956053</v>
+        <v>0.9718920963009117</v>
+      </c>
+      <c r="N9">
+        <v>0.9753665609445539</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9172712524520784</v>
+        <v>0.9209099894667213</v>
       </c>
       <c r="D10">
-        <v>0.9516097080852046</v>
+        <v>0.9543679675662923</v>
       </c>
       <c r="E10">
-        <v>0.9283016830951525</v>
+        <v>0.9318844926773286</v>
       </c>
       <c r="F10">
-        <v>0.9305301414568363</v>
+        <v>0.9336057117898922</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011621580938428</v>
+        <v>1.013101195420453</v>
       </c>
       <c r="J10">
-        <v>0.9492004795719267</v>
+        <v>0.9526553814214611</v>
       </c>
       <c r="K10">
-        <v>0.9669113133752224</v>
+        <v>0.9696130778997138</v>
       </c>
       <c r="L10">
-        <v>0.9440985141110326</v>
+        <v>0.9476030598418034</v>
       </c>
       <c r="M10">
-        <v>0.9462781993136273</v>
+        <v>0.9492869636426048</v>
+      </c>
+      <c r="N10">
+        <v>0.954008261334179</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9048936566600885</v>
+        <v>0.9086281274493565</v>
       </c>
       <c r="D11">
-        <v>0.9420594794891008</v>
+        <v>0.9448867534307851</v>
       </c>
       <c r="E11">
-        <v>0.9165693638666113</v>
+        <v>0.9202387180618057</v>
       </c>
       <c r="F11">
-        <v>0.9186743376507828</v>
+        <v>0.9218401635708969</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006757646076992</v>
+        <v>1.008273137836833</v>
       </c>
       <c r="J11">
-        <v>0.9388379768042734</v>
+        <v>0.9423664596861147</v>
       </c>
       <c r="K11">
-        <v>0.9581635384646511</v>
+        <v>0.9609286551183044</v>
       </c>
       <c r="L11">
-        <v>0.9332570568002178</v>
+        <v>0.9368397264303531</v>
       </c>
       <c r="M11">
-        <v>0.9353121893420143</v>
+        <v>0.9384036290883409</v>
+      </c>
+      <c r="N11">
+        <v>0.9437047281498124</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9000563809185743</v>
+        <v>0.9038317414074641</v>
       </c>
       <c r="D12">
-        <v>0.9383309797300782</v>
+        <v>0.9411877430086066</v>
       </c>
       <c r="E12">
-        <v>0.9119884271823026</v>
+        <v>0.9156947814418985</v>
       </c>
       <c r="F12">
-        <v>0.9140472583548757</v>
+        <v>0.9172515136439243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004853504610176</v>
+        <v>1.006384359172163</v>
       </c>
       <c r="J12">
-        <v>0.9347879137708442</v>
+        <v>0.9383480033029983</v>
       </c>
       <c r="K12">
-        <v>0.9547433677796434</v>
+        <v>0.9575356344955073</v>
       </c>
       <c r="L12">
-        <v>0.929021189480405</v>
+        <v>0.9326373573656095</v>
       </c>
       <c r="M12">
-        <v>0.9310298018829669</v>
+        <v>0.9341565016782657</v>
+      </c>
+      <c r="N12">
+        <v>0.939680565097709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.901105819014513</v>
+        <v>0.9048721314696855</v>
       </c>
       <c r="D13">
-        <v>0.9391396747704763</v>
+        <v>0.9419899122636438</v>
       </c>
       <c r="E13">
-        <v>0.91298205091576</v>
+        <v>0.9166802162473844</v>
       </c>
       <c r="F13">
-        <v>0.9150507937786364</v>
+        <v>0.9182465510814023</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.005266742363293</v>
+        <v>1.006794195771384</v>
       </c>
       <c r="J13">
-        <v>0.9356665697738392</v>
+        <v>0.9392196572034258</v>
       </c>
       <c r="K13">
-        <v>0.9554854188534082</v>
+        <v>0.9582716737558464</v>
       </c>
       <c r="L13">
-        <v>0.9299400923517863</v>
+        <v>0.9335488418138767</v>
       </c>
       <c r="M13">
-        <v>0.9319586965557316</v>
+        <v>0.935077596537476</v>
+      </c>
+      <c r="N13">
+        <v>0.9405534568466554</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9044990407629924</v>
+        <v>0.9082367702462034</v>
       </c>
       <c r="D14">
-        <v>0.9417552302432654</v>
+        <v>0.9445848541373127</v>
       </c>
       <c r="E14">
-        <v>0.9161955708444823</v>
+        <v>0.9198678730542132</v>
       </c>
       <c r="F14">
-        <v>0.9182967366082792</v>
+        <v>0.921465627593237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006602372202331</v>
+        <v>1.008119087551394</v>
       </c>
       <c r="J14">
-        <v>0.9385075823594354</v>
+        <v>0.9420385805423847</v>
       </c>
       <c r="K14">
-        <v>0.9578845516566551</v>
+        <v>0.9606518302401157</v>
       </c>
       <c r="L14">
-        <v>0.9329114767556337</v>
+        <v>0.9364968134188991</v>
       </c>
       <c r="M14">
-        <v>0.9349627696780202</v>
+        <v>0.9380570205445958</v>
+      </c>
+      <c r="N14">
+        <v>0.9433763833800902</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9065562034397259</v>
+        <v>0.9102770913635659</v>
       </c>
       <c r="D15">
-        <v>0.9433414661191317</v>
+        <v>0.9461589454287052</v>
       </c>
       <c r="E15">
-        <v>0.9181443542574683</v>
+        <v>0.9218014219300504</v>
       </c>
       <c r="F15">
-        <v>0.9202654576794321</v>
+        <v>0.9234185030656088</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007411698655853</v>
+        <v>1.008922091750994</v>
       </c>
       <c r="J15">
-        <v>0.9402299454005216</v>
+        <v>0.9437479510275614</v>
       </c>
       <c r="K15">
-        <v>0.9593388773530388</v>
+        <v>0.9620949861996549</v>
       </c>
       <c r="L15">
-        <v>0.9347130590652164</v>
+        <v>0.9382846170782769</v>
       </c>
       <c r="M15">
-        <v>0.9367844559752019</v>
+        <v>0.9398641763518769</v>
+      </c>
+      <c r="N15">
+        <v>0.9450881813674232</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9180621294427702</v>
+        <v>0.9216951539338456</v>
       </c>
       <c r="D16">
-        <v>0.9522203639085093</v>
+        <v>0.9549745070249243</v>
       </c>
       <c r="E16">
-        <v>0.9290518398140977</v>
+        <v>0.9326294894400555</v>
       </c>
       <c r="F16">
-        <v>0.9312884597078483</v>
+        <v>0.9343586304136905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011931901397079</v>
+        <v>1.013409379938931</v>
       </c>
       <c r="J16">
-        <v>0.9498625260497056</v>
+        <v>0.9533130583935128</v>
       </c>
       <c r="K16">
-        <v>0.9674700219411858</v>
+        <v>0.9701680172862501</v>
       </c>
       <c r="L16">
-        <v>0.9447913438243026</v>
+        <v>0.9482912432439115</v>
       </c>
       <c r="M16">
-        <v>0.9469792641176515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9499830892334271</v>
+      </c>
+      <c r="N16">
+        <v>0.9546668722829678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.924909169471989</v>
+        <v>0.9284946166493027</v>
       </c>
       <c r="D17">
-        <v>0.9575090877829687</v>
+        <v>0.9602289585116732</v>
       </c>
       <c r="E17">
-        <v>0.935548852398333</v>
+        <v>0.9390835486776129</v>
       </c>
       <c r="F17">
-        <v>0.9378575346971362</v>
+        <v>0.9408826646075704</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.014615849716773</v>
+        <v>1.016075565255742</v>
       </c>
       <c r="J17">
-        <v>0.9555936285059172</v>
+        <v>0.9590078760624041</v>
       </c>
       <c r="K17">
-        <v>0.9723055429343603</v>
+        <v>0.9749722043001197</v>
       </c>
       <c r="L17">
-        <v>0.9507899046633407</v>
+        <v>0.9542511850652663</v>
       </c>
       <c r="M17">
-        <v>0.9530505526832472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9560132127475227</v>
+      </c>
+      <c r="N17">
+        <v>0.9603697772461536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9287837617707217</v>
+        <v>0.9323437157618618</v>
       </c>
       <c r="D18">
-        <v>0.9605033049416073</v>
+        <v>0.9632048214840122</v>
       </c>
       <c r="E18">
-        <v>0.9392273423266995</v>
+        <v>0.9427390406843648</v>
       </c>
       <c r="F18">
-        <v>0.9415779385947357</v>
+        <v>0.9445788795585215</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016132368829707</v>
+        <v>1.017582588324905</v>
       </c>
       <c r="J18">
-        <v>0.9588361729067251</v>
+        <v>0.9622310636808693</v>
       </c>
       <c r="K18">
-        <v>0.9750405054078418</v>
+        <v>0.9776904243734774</v>
       </c>
       <c r="L18">
-        <v>0.9541845771007993</v>
+        <v>0.9576252270145387</v>
       </c>
       <c r="M18">
-        <v>0.9564875390380644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9594281198280838</v>
+      </c>
+      <c r="N18">
+        <v>0.9635975421607419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.930085867333473</v>
+        <v>0.9336374759218679</v>
       </c>
       <c r="D19">
-        <v>0.961509764585826</v>
+        <v>0.9642052745313168</v>
       </c>
       <c r="E19">
-        <v>0.9404638612254995</v>
+        <v>0.9439680339693111</v>
       </c>
       <c r="F19">
-        <v>0.9428287310562795</v>
+        <v>0.945821744581968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016641618686767</v>
+        <v>1.018088733323895</v>
       </c>
       <c r="J19">
-        <v>0.9599257623355839</v>
+        <v>0.9633143306848938</v>
       </c>
       <c r="K19">
-        <v>0.9759593779318805</v>
+        <v>0.9786038240923048</v>
       </c>
       <c r="L19">
-        <v>0.9553254215552381</v>
+        <v>0.9587593282943228</v>
       </c>
       <c r="M19">
-        <v>0.9576427954103555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9605761448509827</v>
+      </c>
+      <c r="N19">
+        <v>0.9646823475281647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241871639357158</v>
+        <v>0.9277774732373805</v>
       </c>
       <c r="D20">
-        <v>0.9569512450759218</v>
+        <v>0.9596746172200609</v>
       </c>
       <c r="E20">
-        <v>0.9348635457659338</v>
+        <v>0.9384026297336541</v>
       </c>
       <c r="F20">
-        <v>0.9371645092590071</v>
+        <v>0.9401942480219495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.014333068012774</v>
+        <v>1.015794596504922</v>
       </c>
       <c r="J20">
-        <v>0.9549893518312496</v>
+        <v>0.9584072982556558</v>
       </c>
       <c r="K20">
-        <v>0.971795785398983</v>
+        <v>0.9744656438639694</v>
       </c>
       <c r="L20">
-        <v>0.9501573431458732</v>
+        <v>0.9536225634395953</v>
       </c>
       <c r="M20">
-        <v>0.9524101997416063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9553770690307009</v>
+      </c>
+      <c r="N20">
+        <v>0.9597683465500327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9035069182109009</v>
+        <v>0.9072529001061127</v>
       </c>
       <c r="D21">
-        <v>0.9409903686245416</v>
+        <v>0.9438259437698017</v>
       </c>
       <c r="E21">
-        <v>0.9152558694797205</v>
+        <v>0.9189356378828477</v>
       </c>
       <c r="F21">
-        <v>0.9173474958389495</v>
+        <v>0.9205241469475988</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.006211940464837</v>
+        <v>1.007731755066399</v>
       </c>
       <c r="J21">
-        <v>0.9376769194554323</v>
+        <v>0.9412142903063785</v>
       </c>
       <c r="K21">
-        <v>0.9571831172610015</v>
+        <v>0.9599558722068844</v>
       </c>
       <c r="L21">
-        <v>0.9320426572040101</v>
+        <v>0.9356347500075864</v>
       </c>
       <c r="M21">
-        <v>0.9340843319140666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9371857008934632</v>
+      </c>
+      <c r="N21">
+        <v>0.9425509225574015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8890777237529134</v>
+        <v>0.8929540330003195</v>
       </c>
       <c r="D22">
-        <v>0.9298778112165857</v>
+        <v>0.9328073921465868</v>
       </c>
       <c r="E22">
-        <v>0.901600504389228</v>
+        <v>0.9053982758665843</v>
       </c>
       <c r="F22">
-        <v>0.903558866142445</v>
+        <v>0.9068577368111399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000526426336863</v>
+        <v>1.002095282178708</v>
       </c>
       <c r="J22">
-        <v>0.9255961981472387</v>
+        <v>0.9292346921219918</v>
       </c>
       <c r="K22">
-        <v>0.9469793017305415</v>
+        <v>0.9498387782511891</v>
       </c>
       <c r="L22">
-        <v>0.9194104469856367</v>
+        <v>0.9231095863670035</v>
       </c>
       <c r="M22">
-        <v>0.9213178077941594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9245314408504381</v>
+      </c>
+      <c r="N22">
+        <v>0.9305543119695141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8968837328449889</v>
+        <v>0.9006870643216437</v>
       </c>
       <c r="D23">
-        <v>0.9358868271100068</v>
+        <v>0.9387637652970117</v>
       </c>
       <c r="E23">
-        <v>0.9089852034844049</v>
+        <v>0.9127168782385673</v>
       </c>
       <c r="F23">
-        <v>0.9110143995801179</v>
+        <v>0.9142449061989704</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.00360377485683</v>
+        <v>1.005145149264519</v>
       </c>
       <c r="J23">
-        <v>0.9321315843508683</v>
+        <v>0.935713347959664</v>
       </c>
       <c r="K23">
-        <v>0.9524998653402506</v>
+        <v>0.9553107305323899</v>
       </c>
       <c r="L23">
-        <v>0.9262433944632216</v>
+        <v>0.929882515772115</v>
       </c>
       <c r="M23">
-        <v>0.9282221354526283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9313729388660922</v>
+      </c>
+      <c r="N23">
+        <v>0.9370421682415878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245137720425533</v>
+        <v>0.9281018774900111</v>
       </c>
       <c r="D24">
-        <v>0.9572035876733959</v>
+        <v>0.9599253726996735</v>
       </c>
       <c r="E24">
-        <v>0.9351735465567386</v>
+        <v>0.9387106416614551</v>
       </c>
       <c r="F24">
-        <v>0.9374779982072462</v>
+        <v>0.9405056480912304</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014460994935023</v>
+        <v>1.015921701600185</v>
       </c>
       <c r="J24">
-        <v>0.9552627056348175</v>
+        <v>0.9586789752011414</v>
       </c>
       <c r="K24">
-        <v>0.9720263847913934</v>
+        <v>0.9746947939569433</v>
       </c>
       <c r="L24">
-        <v>0.9504434895135148</v>
+        <v>0.9539069237735046</v>
       </c>
       <c r="M24">
-        <v>0.9526998670431959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9556648284873954</v>
+      </c>
+      <c r="N24">
+        <v>0.9600404093079423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9519505245826521</v>
+        <v>0.9553771846770799</v>
       </c>
       <c r="D25">
-        <v>0.9784228767176889</v>
+        <v>0.9810286106927418</v>
       </c>
       <c r="E25">
-        <v>0.9612503678989863</v>
+        <v>0.9646420814410593</v>
       </c>
       <c r="F25">
-        <v>0.9638697212603463</v>
+        <v>0.9667434137563059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025158117787144</v>
+        <v>1.026559038170887</v>
       </c>
       <c r="J25">
-        <v>0.9782106790349292</v>
+        <v>0.981505608008985</v>
       </c>
       <c r="K25">
-        <v>0.9913656470883618</v>
+        <v>0.9939287498949653</v>
       </c>
       <c r="L25">
-        <v>0.9744815616715208</v>
+        <v>0.9778152582887443</v>
       </c>
       <c r="M25">
-        <v>0.9770560633330748</v>
+        <v>0.9798809098593527</v>
+      </c>
+      <c r="N25">
+        <v>0.9828994585526246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9745761749636679</v>
+        <v>0.976468904657278</v>
       </c>
       <c r="D2">
-        <v>0.9958964729855104</v>
+        <v>0.9993360215582251</v>
       </c>
       <c r="E2">
-        <v>0.982934294102783</v>
+        <v>0.9848126548053678</v>
       </c>
       <c r="F2">
-        <v>0.9852791042269269</v>
+        <v>0.952030001019636</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033971329107041</v>
+        <v>1.034477235976739</v>
       </c>
       <c r="J2">
-        <v>0.9975448418773115</v>
+        <v>0.9993769513414699</v>
       </c>
       <c r="K2">
-        <v>1.007413274051963</v>
+        <v>1.010804614412222</v>
       </c>
       <c r="L2">
-        <v>0.9946366150401493</v>
+        <v>0.9964877083983598</v>
       </c>
       <c r="M2">
-        <v>0.9969474070004484</v>
+        <v>0.9642007147346932</v>
       </c>
       <c r="N2">
-        <v>0.9989614699727698</v>
+        <v>1.000796181242513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9873874337992613</v>
+        <v>0.9879163907746484</v>
       </c>
       <c r="D3">
-        <v>1.005816971065557</v>
+        <v>1.008311548376845</v>
       </c>
       <c r="E3">
-        <v>0.9951577231452429</v>
+        <v>0.9956834587756731</v>
       </c>
       <c r="F3">
-        <v>0.9976795537768653</v>
+        <v>0.9666372842073304</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038871398262324</v>
+        <v>1.03892301973769</v>
       </c>
       <c r="J3">
-        <v>1.008227936844682</v>
+        <v>1.008741976682634</v>
       </c>
       <c r="K3">
-        <v>1.016375959804586</v>
+        <v>1.018839174605618</v>
       </c>
       <c r="L3">
-        <v>1.005852939058523</v>
+        <v>1.006371870132768</v>
       </c>
       <c r="M3">
-        <v>1.008342211500254</v>
+        <v>0.977715627732939</v>
       </c>
       <c r="N3">
-        <v>1.009659736160362</v>
+        <v>1.010174505993846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9952393599717694</v>
+        <v>0.9949477075968259</v>
       </c>
       <c r="D4">
-        <v>1.011894840458407</v>
+        <v>1.013827631268042</v>
       </c>
       <c r="E4">
-        <v>1.002656052450072</v>
+        <v>1.002365921638579</v>
       </c>
       <c r="F4">
-        <v>1.00529272668548</v>
+        <v>0.9755983589320839</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041852670279292</v>
+        <v>1.04163422634019</v>
       </c>
       <c r="J4">
-        <v>1.014765632374318</v>
+        <v>1.014481540475503</v>
       </c>
       <c r="K4">
-        <v>1.021851794084823</v>
+        <v>1.023761985067881</v>
       </c>
       <c r="L4">
-        <v>1.012722526613446</v>
+        <v>1.012435875696134</v>
       </c>
       <c r="M4">
-        <v>1.015327690132883</v>
+        <v>0.9860004939396075</v>
       </c>
       <c r="N4">
-        <v>1.016206715967535</v>
+        <v>1.015922220625638</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984457855484401</v>
+        <v>0.9978221576853011</v>
       </c>
       <c r="D5">
-        <v>1.014375998036974</v>
+        <v>1.016083172622241</v>
       </c>
       <c r="E5">
-        <v>1.005719528345733</v>
+        <v>1.005098938084985</v>
       </c>
       <c r="F5">
-        <v>1.008404579186468</v>
+        <v>0.9792599262611542</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043064750827884</v>
+        <v>1.042737844185759</v>
       </c>
       <c r="J5">
-        <v>1.017432901982489</v>
+        <v>1.016824869267378</v>
       </c>
       <c r="K5">
-        <v>1.024083630168049</v>
+        <v>1.025771454190974</v>
       </c>
       <c r="L5">
-        <v>1.015526529589531</v>
+        <v>1.014913144463942</v>
       </c>
       <c r="M5">
-        <v>1.0181805328565</v>
+        <v>0.9893842138156178</v>
       </c>
       <c r="N5">
-        <v>1.018877773404489</v>
+        <v>1.01826887721318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9989788838909076</v>
+        <v>0.9983002326379428</v>
       </c>
       <c r="D6">
-        <v>1.014788459341571</v>
+        <v>1.016458336823796</v>
       </c>
       <c r="E6">
-        <v>1.006228940945253</v>
+        <v>1.005553556636589</v>
       </c>
       <c r="F6">
-        <v>1.008922120745495</v>
+        <v>0.9798688313938856</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043265952742717</v>
+        <v>1.042921115588074</v>
       </c>
       <c r="J6">
-        <v>1.017876212243618</v>
+        <v>1.017214429340358</v>
       </c>
       <c r="K6">
-        <v>1.024454438245955</v>
+        <v>1.026105487211913</v>
       </c>
       <c r="L6">
-        <v>1.01599264333127</v>
+        <v>1.015325057318224</v>
       </c>
       <c r="M6">
-        <v>1.018654854608655</v>
+        <v>0.9899468209059358</v>
       </c>
       <c r="N6">
-        <v>1.019321713217038</v>
+        <v>1.018658990506147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9952825634449437</v>
+        <v>0.9949864262084454</v>
       </c>
       <c r="D7">
-        <v>1.01192827518298</v>
+        <v>1.013858011391648</v>
       </c>
       <c r="E7">
-        <v>1.002697324257492</v>
+        <v>1.002402730589095</v>
       </c>
       <c r="F7">
-        <v>1.005334644494419</v>
+        <v>0.9756476859780197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041869023302651</v>
+        <v>1.041649110913579</v>
       </c>
       <c r="J7">
-        <v>1.014801581206431</v>
+        <v>1.014513117036106</v>
       </c>
       <c r="K7">
-        <v>1.021881883102824</v>
+        <v>1.023789064518617</v>
       </c>
       <c r="L7">
-        <v>1.012760313038977</v>
+        <v>1.012469251264948</v>
       </c>
       <c r="M7">
-        <v>1.015366128661173</v>
+        <v>0.9860460841815867</v>
       </c>
       <c r="N7">
-        <v>1.016242715851112</v>
+        <v>1.015953842028578</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9790032186281701</v>
+        <v>0.9804210532255795</v>
       </c>
       <c r="D8">
-        <v>0.999324917903223</v>
+        <v>1.002433938554067</v>
       </c>
       <c r="E8">
-        <v>0.9871566681546154</v>
+        <v>0.9885644902253558</v>
       </c>
       <c r="F8">
-        <v>0.9895612569751007</v>
+        <v>0.9570760138616983</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035669238335571</v>
+        <v>1.03601624199896</v>
       </c>
       <c r="J8">
-        <v>1.001238534215909</v>
+        <v>1.002612855497696</v>
       </c>
       <c r="K8">
-        <v>1.010514041376187</v>
+        <v>1.013581041225701</v>
       </c>
       <c r="L8">
-        <v>0.9985134676507414</v>
+        <v>0.9999016237387078</v>
       </c>
       <c r="M8">
-        <v>1.000884509261848</v>
+        <v>0.9688706173908974</v>
       </c>
       <c r="N8">
-        <v>1.002660407778161</v>
+        <v>1.004036680753805</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9463841045105658</v>
+        <v>0.9514007324921991</v>
       </c>
       <c r="D9">
-        <v>0.9740668882883436</v>
+        <v>0.9797115919374287</v>
       </c>
       <c r="E9">
-        <v>0.9560847129125467</v>
+        <v>0.9610449440705173</v>
       </c>
       <c r="F9">
-        <v>0.9580801984718188</v>
+        <v>0.9199233753250197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023063678778306</v>
+        <v>1.024630076905657</v>
       </c>
       <c r="J9">
-        <v>0.973983392809308</v>
+        <v>0.978794625618898</v>
       </c>
       <c r="K9">
-        <v>0.9875952083953834</v>
+        <v>0.9931426406652608</v>
       </c>
       <c r="L9">
-        <v>0.9699328738306777</v>
+        <v>0.9748033262098708</v>
       </c>
       <c r="M9">
-        <v>0.9718920963009117</v>
+        <v>0.9344645766640316</v>
       </c>
       <c r="N9">
-        <v>0.9753665609445539</v>
+        <v>0.9801846262565894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9209099894667213</v>
+        <v>0.9289202985684705</v>
       </c>
       <c r="D10">
-        <v>0.9543679675662923</v>
+        <v>0.9621603994559005</v>
       </c>
       <c r="E10">
-        <v>0.9318844926773286</v>
+        <v>0.9397749039209975</v>
       </c>
       <c r="F10">
-        <v>0.9336057117898922</v>
+        <v>0.8909266226347347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013101195420453</v>
+        <v>1.015701461255342</v>
       </c>
       <c r="J10">
-        <v>0.9526553814214611</v>
+        <v>0.9602683153331436</v>
       </c>
       <c r="K10">
-        <v>0.9696130778997138</v>
+        <v>0.977248205905169</v>
       </c>
       <c r="L10">
-        <v>0.9476030598418034</v>
+        <v>0.9553238973831641</v>
       </c>
       <c r="M10">
-        <v>0.9492869636426048</v>
+        <v>0.9075904568030987</v>
       </c>
       <c r="N10">
-        <v>0.954008261334179</v>
+        <v>0.9616320064852321</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9086281274493565</v>
+        <v>0.9181496822227891</v>
       </c>
       <c r="D11">
-        <v>0.9448867534307851</v>
+        <v>0.953770727838065</v>
       </c>
       <c r="E11">
-        <v>0.9202387180618057</v>
+        <v>0.9295991921179582</v>
       </c>
       <c r="F11">
-        <v>0.9218401635708969</v>
+        <v>0.8769425146340686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.008273137836833</v>
+        <v>1.01139937027269</v>
       </c>
       <c r="J11">
-        <v>0.9423664596861147</v>
+        <v>0.9513738296949026</v>
       </c>
       <c r="K11">
-        <v>0.9609286551183044</v>
+        <v>0.9696204940089154</v>
       </c>
       <c r="L11">
-        <v>0.9368397264303531</v>
+        <v>0.945983207433807</v>
       </c>
       <c r="M11">
-        <v>0.9384036290883409</v>
+        <v>0.8946292651402706</v>
       </c>
       <c r="N11">
-        <v>0.9437047281498124</v>
+        <v>0.9527248896571729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9038317414074641</v>
+        <v>0.9139567625957218</v>
       </c>
       <c r="D12">
-        <v>0.9411877430086066</v>
+        <v>0.950508415240647</v>
       </c>
       <c r="E12">
-        <v>0.9156947814418985</v>
+        <v>0.9256405192776397</v>
       </c>
       <c r="F12">
-        <v>0.9172515136439243</v>
+        <v>0.8714797708001112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.006384359172163</v>
+        <v>1.009721131758498</v>
       </c>
       <c r="J12">
-        <v>0.9383480033029983</v>
+        <v>0.9479084769389888</v>
       </c>
       <c r="K12">
-        <v>0.9575356344955073</v>
+        <v>0.9666494579096139</v>
       </c>
       <c r="L12">
-        <v>0.9326373573656095</v>
+        <v>0.9423458663527916</v>
       </c>
       <c r="M12">
-        <v>0.9341565016782657</v>
+        <v>0.8895665662195855</v>
       </c>
       <c r="N12">
-        <v>0.939680565097709</v>
+        <v>0.9492546157028643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9048721314696855</v>
+        <v>0.9148655949530872</v>
       </c>
       <c r="D13">
-        <v>0.9419899122636438</v>
+        <v>0.9512153518214689</v>
       </c>
       <c r="E13">
-        <v>0.9166802162473844</v>
+        <v>0.9264984508411044</v>
       </c>
       <c r="F13">
-        <v>0.9182465510814023</v>
+        <v>0.8726647923996458</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.006794195771384</v>
+        <v>1.010085049050383</v>
       </c>
       <c r="J13">
-        <v>0.9392196572034258</v>
+        <v>0.9486597328460648</v>
       </c>
       <c r="K13">
-        <v>0.9582716737558464</v>
+        <v>0.9672935103046167</v>
       </c>
       <c r="L13">
-        <v>0.9335488418138767</v>
+        <v>0.9431343215276298</v>
       </c>
       <c r="M13">
-        <v>0.935077596537476</v>
+        <v>0.8906647748939823</v>
       </c>
       <c r="N13">
-        <v>0.9405534568466554</v>
+        <v>0.9500069384794986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9082367702462034</v>
+        <v>0.9178072760188642</v>
       </c>
       <c r="D14">
-        <v>0.9445848541373127</v>
+        <v>0.9535042374779846</v>
       </c>
       <c r="E14">
-        <v>0.9198678730542132</v>
+        <v>0.9292758592156558</v>
       </c>
       <c r="F14">
-        <v>0.921465627593237</v>
+        <v>0.8764968252762275</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008119087551394</v>
+        <v>1.011262388757205</v>
       </c>
       <c r="J14">
-        <v>0.9420385805423847</v>
+        <v>0.9510908952524201</v>
       </c>
       <c r="K14">
-        <v>0.9606518302401157</v>
+        <v>0.9693779013852304</v>
       </c>
       <c r="L14">
-        <v>0.9364968134188991</v>
+        <v>0.9456861924716925</v>
       </c>
       <c r="M14">
-        <v>0.9380570205445958</v>
+        <v>0.8942162011163671</v>
       </c>
       <c r="N14">
-        <v>0.9433763833800902</v>
+        <v>0.952441553415329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9102770913635659</v>
+        <v>0.9195929474295461</v>
       </c>
       <c r="D15">
-        <v>0.9461589454287052</v>
+        <v>0.9548941575769856</v>
       </c>
       <c r="E15">
-        <v>0.9218014219300504</v>
+        <v>0.9309621713131057</v>
       </c>
       <c r="F15">
-        <v>0.9234185030656088</v>
+        <v>0.8788203339603626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008922091750994</v>
+        <v>1.011976618581425</v>
       </c>
       <c r="J15">
-        <v>0.9437479510275614</v>
+        <v>0.9525663048122739</v>
       </c>
       <c r="K15">
-        <v>0.9620949861996549</v>
+        <v>0.9706429746513815</v>
       </c>
       <c r="L15">
-        <v>0.9382846170782769</v>
+        <v>0.9472351027506811</v>
       </c>
       <c r="M15">
-        <v>0.9398641763518769</v>
+        <v>0.896369646518677</v>
       </c>
       <c r="N15">
-        <v>0.9450881813674232</v>
+        <v>0.9539190582259895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9216951539338456</v>
+        <v>0.9296104436918462</v>
       </c>
       <c r="D16">
-        <v>0.9549745070249243</v>
+        <v>0.9626984334730807</v>
       </c>
       <c r="E16">
-        <v>0.9326294894400555</v>
+        <v>0.9404272626584842</v>
       </c>
       <c r="F16">
-        <v>0.9343586304136905</v>
+        <v>0.8918204567816247</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013409379938931</v>
+        <v>1.015976648856016</v>
       </c>
       <c r="J16">
-        <v>0.9533130583935128</v>
+        <v>0.9608378716286142</v>
       </c>
       <c r="K16">
-        <v>0.9701680172862501</v>
+        <v>0.9777367313228346</v>
       </c>
       <c r="L16">
-        <v>0.9482912432439115</v>
+        <v>0.9559222666776565</v>
       </c>
       <c r="M16">
-        <v>0.9499830892334271</v>
+        <v>0.9084189346269219</v>
       </c>
       <c r="N16">
-        <v>0.9546668722829678</v>
+        <v>0.9622023716159712</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9284946166493027</v>
+        <v>0.935594673626402</v>
       </c>
       <c r="D17">
-        <v>0.9602289585116732</v>
+        <v>0.9673658922539669</v>
       </c>
       <c r="E17">
-        <v>0.9390835486776129</v>
+        <v>0.9460855214127931</v>
       </c>
       <c r="F17">
-        <v>0.9408826646075704</v>
+        <v>0.8995604870437943</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016075565255742</v>
+        <v>1.018360156149666</v>
       </c>
       <c r="J17">
-        <v>0.9590078760624041</v>
+        <v>0.9657744746959191</v>
       </c>
       <c r="K17">
-        <v>0.9749722043001197</v>
+        <v>0.9819713783742485</v>
       </c>
       <c r="L17">
-        <v>0.9542511850652663</v>
+        <v>0.9611098598109286</v>
       </c>
       <c r="M17">
-        <v>0.9560132127475227</v>
+        <v>0.9155929812415587</v>
       </c>
       <c r="N17">
-        <v>0.9603697772461536</v>
+        <v>0.9671459852258679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9323437157618618</v>
+        <v>0.938988175412375</v>
       </c>
       <c r="D18">
-        <v>0.9632048214840122</v>
+        <v>0.970014376036089</v>
       </c>
       <c r="E18">
-        <v>0.9427390406843648</v>
+        <v>0.9492955031213308</v>
       </c>
       <c r="F18">
-        <v>0.9445788795585215</v>
+        <v>0.9039417558341084</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017582588324905</v>
+        <v>1.019709566312069</v>
       </c>
       <c r="J18">
-        <v>0.9622310636808693</v>
+        <v>0.9685722365125303</v>
       </c>
       <c r="K18">
-        <v>0.9776904243734774</v>
+        <v>0.9843715842707584</v>
       </c>
       <c r="L18">
-        <v>0.9576252270145387</v>
+        <v>0.964050887498956</v>
       </c>
       <c r="M18">
-        <v>0.9594281198280838</v>
+        <v>0.9196537619075098</v>
       </c>
       <c r="N18">
-        <v>0.9635975421607419</v>
+        <v>0.9699477201851663</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9336374759218679</v>
+        <v>0.9401297300060615</v>
       </c>
       <c r="D19">
-        <v>0.9642052745313168</v>
+        <v>0.9709055772147279</v>
       </c>
       <c r="E19">
-        <v>0.9439680339693111</v>
+        <v>0.9503755383301469</v>
       </c>
       <c r="F19">
-        <v>0.945821744581968</v>
+        <v>0.9054143659418288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018088733323895</v>
+        <v>1.020163119789866</v>
       </c>
       <c r="J19">
-        <v>0.9633143306848938</v>
+        <v>0.9695131070908793</v>
       </c>
       <c r="K19">
-        <v>0.9786038240923048</v>
+        <v>0.9851787978505392</v>
       </c>
       <c r="L19">
-        <v>0.9587593282943228</v>
+        <v>0.9650401071808202</v>
       </c>
       <c r="M19">
-        <v>0.9605761448509827</v>
+        <v>0.9210186194746237</v>
       </c>
       <c r="N19">
-        <v>0.9646823475281647</v>
+        <v>0.9708899269076561</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9277774732373805</v>
+        <v>0.9349628788441126</v>
       </c>
       <c r="D20">
-        <v>0.9596746172200609</v>
+        <v>0.9668729361937658</v>
       </c>
       <c r="E20">
-        <v>0.9384026297336541</v>
+        <v>0.9454880001116794</v>
       </c>
       <c r="F20">
-        <v>0.9401942480219495</v>
+        <v>0.8987441760390938</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015794596504922</v>
+        <v>1.018108743951641</v>
       </c>
       <c r="J20">
-        <v>0.9584072982556558</v>
+        <v>0.9652534583478816</v>
       </c>
       <c r="K20">
-        <v>0.9744656438639694</v>
+        <v>0.9815244175877847</v>
       </c>
       <c r="L20">
-        <v>0.9536225634395953</v>
+        <v>0.9605622460682076</v>
       </c>
       <c r="M20">
-        <v>0.9553770690307009</v>
+        <v>0.914836370782976</v>
       </c>
       <c r="N20">
-        <v>0.9597683465500327</v>
+        <v>0.9666242289748548</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9072529001061127</v>
+        <v>0.9169466928639425</v>
       </c>
       <c r="D21">
-        <v>0.9438259437698017</v>
+        <v>0.9528345192496749</v>
       </c>
       <c r="E21">
-        <v>0.9189356378828477</v>
+        <v>0.9284632576677018</v>
       </c>
       <c r="F21">
-        <v>0.9205241469475988</v>
+        <v>0.8753763350529271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.007731755066399</v>
+        <v>1.010918053037891</v>
       </c>
       <c r="J21">
-        <v>0.9412142903063785</v>
+        <v>0.950379740022389</v>
       </c>
       <c r="K21">
-        <v>0.9599558722068844</v>
+        <v>0.9687681587152842</v>
       </c>
       <c r="L21">
-        <v>0.9356347500075864</v>
+        <v>0.9449396760639821</v>
       </c>
       <c r="M21">
-        <v>0.9371857008934632</v>
+        <v>0.8931777425394093</v>
       </c>
       <c r="N21">
-        <v>0.9425509225574015</v>
+        <v>0.9517293882633004</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8929540330003195</v>
+        <v>0.9044772791383102</v>
       </c>
       <c r="D22">
-        <v>0.9328073921465868</v>
+        <v>0.9431410005168304</v>
       </c>
       <c r="E22">
-        <v>0.9053982758665843</v>
+        <v>0.9166961547873316</v>
       </c>
       <c r="F22">
-        <v>0.9068577368111399</v>
+        <v>0.8590863793141221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.002095282178708</v>
+        <v>1.005920684223224</v>
       </c>
       <c r="J22">
-        <v>0.9292346921219918</v>
+        <v>0.9400685871730383</v>
       </c>
       <c r="K22">
-        <v>0.9498387782511891</v>
+        <v>0.9599297536391419</v>
       </c>
       <c r="L22">
-        <v>0.9231095863670035</v>
+        <v>0.9341205608270325</v>
       </c>
       <c r="M22">
-        <v>0.9245314408504381</v>
+        <v>0.8780824946968502</v>
       </c>
       <c r="N22">
-        <v>0.9305543119695141</v>
+        <v>0.9414035923941982</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006870643216437</v>
+        <v>0.911211994678911</v>
       </c>
       <c r="D23">
-        <v>0.9387637652970117</v>
+        <v>0.9483740174911575</v>
       </c>
       <c r="E23">
-        <v>0.9127168782385673</v>
+        <v>0.9230499041774286</v>
       </c>
       <c r="F23">
-        <v>0.9142449061989704</v>
+        <v>0.8678975996936904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.005145149264519</v>
+        <v>1.008621572127289</v>
       </c>
       <c r="J23">
-        <v>0.935713347959664</v>
+        <v>0.9456391906911121</v>
       </c>
       <c r="K23">
-        <v>0.9553107305323899</v>
+        <v>0.9647041378614454</v>
       </c>
       <c r="L23">
-        <v>0.929882515772115</v>
+        <v>0.9399645003108708</v>
       </c>
       <c r="M23">
-        <v>0.9313729388660922</v>
+        <v>0.8862469447748701</v>
       </c>
       <c r="N23">
-        <v>0.9370421682415878</v>
+        <v>0.9469821068082248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9281018774900111</v>
+        <v>0.9352486568711428</v>
       </c>
       <c r="D24">
-        <v>0.9599253726996735</v>
+        <v>0.9670959084528704</v>
       </c>
       <c r="E24">
-        <v>0.9387106416614551</v>
+        <v>0.9457582711775924</v>
       </c>
       <c r="F24">
-        <v>0.9405056480912304</v>
+        <v>0.8991134401578798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015921701600185</v>
+        <v>1.018222471490358</v>
       </c>
       <c r="J24">
-        <v>0.9586789752011414</v>
+        <v>0.9654891334461246</v>
       </c>
       <c r="K24">
-        <v>0.9746947939569433</v>
+        <v>0.9817265937747228</v>
       </c>
       <c r="L24">
-        <v>0.9539069237735046</v>
+        <v>0.9608099489778226</v>
       </c>
       <c r="M24">
-        <v>0.9556648284873954</v>
+        <v>0.915178629318454</v>
       </c>
       <c r="N24">
-        <v>0.9600404093079423</v>
+        <v>0.9668602387587696</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9553771846770799</v>
+        <v>0.9593774897444494</v>
       </c>
       <c r="D25">
-        <v>0.9810286106927418</v>
+        <v>0.98595081245328</v>
       </c>
       <c r="E25">
-        <v>0.9646420814410593</v>
+        <v>0.9686022837155541</v>
       </c>
       <c r="F25">
-        <v>0.9667434137563059</v>
+        <v>0.930161492208092</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026559038170887</v>
+        <v>1.027777887308074</v>
       </c>
       <c r="J25">
-        <v>0.981505608008985</v>
+        <v>0.9853538060220615</v>
       </c>
       <c r="K25">
-        <v>0.9939287498949653</v>
+        <v>0.9987712107936144</v>
       </c>
       <c r="L25">
-        <v>0.9778152582887443</v>
+        <v>0.9817083825494554</v>
       </c>
       <c r="M25">
-        <v>0.9798809098593527</v>
+        <v>0.943950212120983</v>
       </c>
       <c r="N25">
-        <v>0.9828994585526246</v>
+        <v>0.986753121448274</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.976468904657278</v>
+        <v>0.9878125663716332</v>
       </c>
       <c r="D2">
-        <v>0.9993360215582251</v>
+        <v>1.008640371207822</v>
       </c>
       <c r="E2">
-        <v>0.9848126548053678</v>
+        <v>0.9960728640121543</v>
       </c>
       <c r="F2">
-        <v>0.952030001019636</v>
+        <v>0.9971468981742716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034477235976739</v>
+        <v>1.040763806479278</v>
       </c>
       <c r="J2">
-        <v>0.9993769513414699</v>
+        <v>1.010364014004326</v>
       </c>
       <c r="K2">
-        <v>1.010804614412222</v>
+        <v>1.019980630202111</v>
       </c>
       <c r="L2">
-        <v>0.9964877083983598</v>
+        <v>1.007587182575497</v>
       </c>
       <c r="M2">
-        <v>0.9642007147346932</v>
+        <v>1.008646124868956</v>
       </c>
       <c r="N2">
-        <v>1.000796181242513</v>
+        <v>1.007455230543794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9879163907746484</v>
+        <v>0.992258812257546</v>
       </c>
       <c r="D3">
-        <v>1.008311548376845</v>
+        <v>1.011817385118471</v>
       </c>
       <c r="E3">
-        <v>0.9956834587756731</v>
+        <v>0.9999997519222215</v>
       </c>
       <c r="F3">
-        <v>0.9666372842073304</v>
+        <v>1.002435887751085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03892301973769</v>
+        <v>1.042046095292156</v>
       </c>
       <c r="J3">
-        <v>1.008741976682634</v>
+        <v>1.012962757753745</v>
       </c>
       <c r="K3">
-        <v>1.018839174605618</v>
+        <v>1.022301260627443</v>
       </c>
       <c r="L3">
-        <v>1.006371870132768</v>
+        <v>1.010632635922518</v>
       </c>
       <c r="M3">
-        <v>0.977715627732939</v>
+        <v>1.013037695530633</v>
       </c>
       <c r="N3">
-        <v>1.010174505993846</v>
+        <v>1.00832499286111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9949477075968259</v>
+        <v>0.9950746297513501</v>
       </c>
       <c r="D4">
-        <v>1.013827631268042</v>
+        <v>1.013829650385839</v>
       </c>
       <c r="E4">
-        <v>1.002365921638579</v>
+        <v>1.002492181354599</v>
       </c>
       <c r="F4">
-        <v>0.9755983589320839</v>
+        <v>1.005784216154221</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04163422634019</v>
+        <v>1.04284319080298</v>
       </c>
       <c r="J4">
-        <v>1.014481540475503</v>
+        <v>1.014605171701742</v>
       </c>
       <c r="K4">
-        <v>1.023761985067881</v>
+        <v>1.023763980632168</v>
       </c>
       <c r="L4">
-        <v>1.012435875696134</v>
+        <v>1.012560620717618</v>
       </c>
       <c r="M4">
-        <v>0.9860004939396075</v>
+        <v>1.015813328488851</v>
       </c>
       <c r="N4">
-        <v>1.015922220625638</v>
+        <v>1.008874549186048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9978221576853011</v>
+        <v>0.9962442781149057</v>
       </c>
       <c r="D5">
-        <v>1.016083172622241</v>
+        <v>1.014665516522461</v>
       </c>
       <c r="E5">
-        <v>1.005098938084985</v>
+        <v>1.003528788468315</v>
       </c>
       <c r="F5">
-        <v>0.9792599262611542</v>
+        <v>1.007174820282087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042737844185759</v>
+        <v>1.043170648293905</v>
       </c>
       <c r="J5">
-        <v>1.016824869267378</v>
+        <v>1.015286565638398</v>
       </c>
       <c r="K5">
-        <v>1.025771454190974</v>
+        <v>1.024369861352894</v>
       </c>
       <c r="L5">
-        <v>1.014913144463942</v>
+        <v>1.01336127370662</v>
       </c>
       <c r="M5">
-        <v>0.9893842138156178</v>
+        <v>1.016964968420836</v>
       </c>
       <c r="N5">
-        <v>1.01826887721318</v>
+        <v>1.009102509924004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9983002326379428</v>
+        <v>0.996439854041314</v>
       </c>
       <c r="D6">
-        <v>1.016458336823796</v>
+        <v>1.014805279368877</v>
       </c>
       <c r="E6">
-        <v>1.005553556636589</v>
+        <v>1.003702193463216</v>
       </c>
       <c r="F6">
-        <v>0.9798688313938856</v>
+        <v>1.007407329160196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042921115588074</v>
+        <v>1.043225186527504</v>
       </c>
       <c r="J6">
-        <v>1.017214429340358</v>
+        <v>1.015400450692557</v>
       </c>
       <c r="K6">
-        <v>1.026105487211913</v>
+        <v>1.024471068240284</v>
       </c>
       <c r="L6">
-        <v>1.015325057318224</v>
+        <v>1.013495137343409</v>
       </c>
       <c r="M6">
-        <v>0.9899468209059358</v>
+        <v>1.017157456255435</v>
       </c>
       <c r="N6">
-        <v>1.018658990506147</v>
+        <v>1.009140608057762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9949864262084454</v>
+        <v>0.9950903134550938</v>
       </c>
       <c r="D7">
-        <v>1.013858011391648</v>
+        <v>1.013840858507998</v>
       </c>
       <c r="E7">
-        <v>1.002402730589095</v>
+        <v>1.002506076072779</v>
       </c>
       <c r="F7">
-        <v>0.9756476859780197</v>
+        <v>1.005802863526472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041649110913579</v>
+        <v>1.042847596112323</v>
       </c>
       <c r="J7">
-        <v>1.014513117036106</v>
+        <v>1.014614311807198</v>
       </c>
       <c r="K7">
-        <v>1.023789064518617</v>
+        <v>1.023772111650455</v>
       </c>
       <c r="L7">
-        <v>1.012469251264948</v>
+        <v>1.01257135744258</v>
       </c>
       <c r="M7">
-        <v>0.9860460841815867</v>
+        <v>1.015828775898794</v>
       </c>
       <c r="N7">
-        <v>1.015953842028578</v>
+        <v>1.008877607158186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804210532255795</v>
+        <v>0.9893281963902117</v>
       </c>
       <c r="D8">
-        <v>1.002433938554067</v>
+        <v>1.009723256453904</v>
       </c>
       <c r="E8">
-        <v>0.9885644902253558</v>
+        <v>0.9974102748804702</v>
       </c>
       <c r="F8">
-        <v>0.9570760138616983</v>
+        <v>0.9989500829178481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03601624199896</v>
+        <v>1.04120402421928</v>
       </c>
       <c r="J8">
-        <v>1.002612855497696</v>
+        <v>1.011250559943424</v>
       </c>
       <c r="K8">
-        <v>1.013581041225701</v>
+        <v>1.020773111339787</v>
       </c>
       <c r="L8">
-        <v>0.9999016237387078</v>
+        <v>1.008625440289073</v>
       </c>
       <c r="M8">
-        <v>0.9688706173908974</v>
+        <v>1.010144294804489</v>
       </c>
       <c r="N8">
-        <v>1.004036680753805</v>
+        <v>1.00775197156658</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9514007324921991</v>
+        <v>0.9786805480079674</v>
       </c>
       <c r="D9">
-        <v>0.9797115919374287</v>
+        <v>1.002119385044538</v>
       </c>
       <c r="E9">
-        <v>0.9610449440705173</v>
+        <v>0.9880396970348998</v>
       </c>
       <c r="F9">
-        <v>0.9199233753250197</v>
+        <v>0.9862751026208049</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024630076905657</v>
+        <v>1.038049747548628</v>
       </c>
       <c r="J9">
-        <v>0.978794625618898</v>
+        <v>1.005009283830357</v>
       </c>
       <c r="K9">
-        <v>0.9931426406652608</v>
+        <v>1.015178170038276</v>
       </c>
       <c r="L9">
-        <v>0.9748033262098708</v>
+        <v>1.001329848903262</v>
       </c>
       <c r="M9">
-        <v>0.9344645766640316</v>
+        <v>0.999594852131816</v>
       </c>
       <c r="N9">
-        <v>0.9801846262565894</v>
+        <v>1.005662458762562</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9289202985684705</v>
+        <v>0.9712120203477015</v>
       </c>
       <c r="D10">
-        <v>0.9621603994559005</v>
+        <v>0.9967934300664116</v>
       </c>
       <c r="E10">
-        <v>0.9397749039209975</v>
+        <v>0.9815006430225381</v>
       </c>
       <c r="F10">
-        <v>0.8909266226347347</v>
+        <v>0.9773728403468555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015701461255342</v>
+        <v>1.035761087518542</v>
       </c>
       <c r="J10">
-        <v>0.9602683153331436</v>
+        <v>1.000616279377664</v>
       </c>
       <c r="K10">
-        <v>0.977248205905169</v>
+        <v>1.011220822487616</v>
       </c>
       <c r="L10">
-        <v>0.9553238973831641</v>
+        <v>0.9962121400189128</v>
       </c>
       <c r="M10">
-        <v>0.9075904568030987</v>
+        <v>0.9921630170626918</v>
       </c>
       <c r="N10">
-        <v>0.9616320064852321</v>
+        <v>1.004191279519126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9181496822227891</v>
+        <v>0.9678810289906964</v>
       </c>
       <c r="D11">
-        <v>0.953770727838065</v>
+        <v>0.9944208359296306</v>
       </c>
       <c r="E11">
-        <v>0.9295991921179582</v>
+        <v>0.9785928385225109</v>
       </c>
       <c r="F11">
-        <v>0.8769425146340686</v>
+        <v>0.9733987097261498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01139937027269</v>
+        <v>1.034722993104545</v>
       </c>
       <c r="J11">
-        <v>0.9513738296949026</v>
+        <v>0.9986538491436451</v>
       </c>
       <c r="K11">
-        <v>0.9696204940089154</v>
+        <v>1.009448739705518</v>
       </c>
       <c r="L11">
-        <v>0.945983207433807</v>
+        <v>0.9939300783710932</v>
       </c>
       <c r="M11">
-        <v>0.8946292651402706</v>
+        <v>0.9888403495963762</v>
       </c>
       <c r="N11">
-        <v>0.9527248896571729</v>
+        <v>1.003534016782265</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9139567625957218</v>
+        <v>0.9666283091380201</v>
       </c>
       <c r="D12">
-        <v>0.950508415240647</v>
+        <v>0.9935290607030084</v>
       </c>
       <c r="E12">
-        <v>0.9256405192776397</v>
+        <v>0.9775006267491577</v>
       </c>
       <c r="F12">
-        <v>0.8714797708001112</v>
+        <v>0.9719034783073296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009721131758498</v>
+        <v>1.034330044515604</v>
       </c>
       <c r="J12">
-        <v>0.9479084769389888</v>
+        <v>0.9979153894005857</v>
       </c>
       <c r="K12">
-        <v>0.9666494579096139</v>
+        <v>1.008781292696547</v>
       </c>
       <c r="L12">
-        <v>0.9423458663527916</v>
+        <v>0.993071957815067</v>
       </c>
       <c r="M12">
-        <v>0.8895665662195855</v>
+        <v>0.9875895129017102</v>
       </c>
       <c r="N12">
-        <v>0.9492546157028643</v>
+        <v>1.003286684313671</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9148655949530872</v>
+        <v>0.9668977350458597</v>
       </c>
       <c r="D13">
-        <v>0.9512153518214689</v>
+        <v>0.9937208327143172</v>
       </c>
       <c r="E13">
-        <v>0.9264984508411044</v>
+        <v>0.9777354695202053</v>
       </c>
       <c r="F13">
-        <v>0.8726647923996458</v>
+        <v>0.9722250921962623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010085049050383</v>
+        <v>1.034414670833032</v>
       </c>
       <c r="J13">
-        <v>0.9486597328460648</v>
+        <v>0.9980742306374325</v>
       </c>
       <c r="K13">
-        <v>0.9672935103046167</v>
+        <v>1.008924886570834</v>
       </c>
       <c r="L13">
-        <v>0.9431343215276298</v>
+        <v>0.9932565100380155</v>
       </c>
       <c r="M13">
-        <v>0.8906647748939823</v>
+        <v>0.987858590817953</v>
       </c>
       <c r="N13">
-        <v>0.9500069384794986</v>
+        <v>1.00333988522264</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9178072760188642</v>
+        <v>0.9677777989673881</v>
       </c>
       <c r="D14">
-        <v>0.9535042374779846</v>
+        <v>0.9943473385425063</v>
       </c>
       <c r="E14">
-        <v>0.9292758592156558</v>
+        <v>0.9785028072225644</v>
       </c>
       <c r="F14">
-        <v>0.8764968252762275</v>
+        <v>0.9732755091237664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011262388757205</v>
+        <v>1.034690663564643</v>
       </c>
       <c r="J14">
-        <v>0.9510908952524201</v>
+        <v>0.9985930050388556</v>
       </c>
       <c r="K14">
-        <v>0.9693779013852304</v>
+        <v>1.009393758906143</v>
       </c>
       <c r="L14">
-        <v>0.9456861924716925</v>
+        <v>0.9938593625090868</v>
       </c>
       <c r="M14">
-        <v>0.8942162011163671</v>
+        <v>0.9887373003416102</v>
       </c>
       <c r="N14">
-        <v>0.952441553415329</v>
+        <v>1.003513638341736</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9195929474295461</v>
+        <v>0.9683179625042972</v>
       </c>
       <c r="D15">
-        <v>0.9548941575769856</v>
+        <v>0.9947319438198258</v>
       </c>
       <c r="E15">
-        <v>0.9309621713131057</v>
+        <v>0.9789739624539072</v>
       </c>
       <c r="F15">
-        <v>0.8788203339603626</v>
+        <v>0.9739201445297258</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011976618581425</v>
+        <v>1.034859728585654</v>
       </c>
       <c r="J15">
-        <v>0.9525663048122739</v>
+        <v>0.9989113619391856</v>
       </c>
       <c r="K15">
-        <v>0.9706429746513815</v>
+        <v>1.009681412127338</v>
       </c>
       <c r="L15">
-        <v>0.9472351027506811</v>
+        <v>0.9942293968697584</v>
       </c>
       <c r="M15">
-        <v>0.896369646518677</v>
+        <v>0.9892764669150156</v>
       </c>
       <c r="N15">
-        <v>0.9539190582259895</v>
+        <v>1.003620265025642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9296104436918462</v>
+        <v>0.971430970385652</v>
       </c>
       <c r="D16">
-        <v>0.9626984334730807</v>
+        <v>0.9969494492995712</v>
       </c>
       <c r="E16">
-        <v>0.9404272626584842</v>
+        <v>0.9816919611642214</v>
       </c>
       <c r="F16">
-        <v>0.8918204567816247</v>
+        <v>0.9776339808575992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015976648856016</v>
+        <v>1.035828966933681</v>
       </c>
       <c r="J16">
-        <v>0.9608378716286142</v>
+        <v>1.000745210533163</v>
       </c>
       <c r="K16">
-        <v>0.9777367313228346</v>
+        <v>1.011337161268716</v>
       </c>
       <c r="L16">
-        <v>0.9559222666776565</v>
+        <v>0.9963621562378134</v>
       </c>
       <c r="M16">
-        <v>0.9084189346269219</v>
+        <v>0.9923812493280485</v>
       </c>
       <c r="N16">
-        <v>0.9622023716159712</v>
+        <v>1.004234460547264</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.935594673626402</v>
+        <v>0.9733571042566089</v>
       </c>
       <c r="D17">
-        <v>0.9673658922539669</v>
+        <v>0.9983223012705805</v>
       </c>
       <c r="E17">
-        <v>0.9460855214127931</v>
+        <v>0.983376002571931</v>
       </c>
       <c r="F17">
-        <v>0.8995604870437943</v>
+        <v>0.9799308411383481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018360156149666</v>
+        <v>1.036424146651254</v>
       </c>
       <c r="J17">
-        <v>0.9657744746959191</v>
+        <v>1.001879084369493</v>
       </c>
       <c r="K17">
-        <v>0.9819713783742485</v>
+        <v>1.012359810706824</v>
       </c>
       <c r="L17">
-        <v>0.9611098598109286</v>
+        <v>0.9976819273214522</v>
       </c>
       <c r="M17">
-        <v>0.9155929812415587</v>
+        <v>0.9943001500524211</v>
       </c>
       <c r="N17">
-        <v>0.9671459852258679</v>
+        <v>1.004614205784598</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.938988175412375</v>
+        <v>0.9744712810219595</v>
       </c>
       <c r="D18">
-        <v>0.970014376036089</v>
+        <v>0.9991166902900693</v>
       </c>
       <c r="E18">
-        <v>0.9492955031213308</v>
+        <v>0.9843509552318215</v>
       </c>
       <c r="F18">
-        <v>0.9039417558341084</v>
+        <v>0.9812591218620641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019709566312069</v>
+        <v>1.036766781428894</v>
       </c>
       <c r="J18">
-        <v>0.9685722365125303</v>
+        <v>1.002534676492653</v>
       </c>
       <c r="K18">
-        <v>0.9843715842707584</v>
+        <v>1.012950688249073</v>
       </c>
       <c r="L18">
-        <v>0.964050887498956</v>
+        <v>0.9984453919298116</v>
       </c>
       <c r="M18">
-        <v>0.9196537619075098</v>
+        <v>0.995409383329539</v>
       </c>
       <c r="N18">
-        <v>0.9699477201851663</v>
+        <v>1.004833763771752</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9401297300060615</v>
+        <v>0.9748496332907434</v>
       </c>
       <c r="D19">
-        <v>0.9709055772147279</v>
+        <v>0.9993864904232362</v>
       </c>
       <c r="E19">
-        <v>0.9503755383301469</v>
+        <v>0.984682166308734</v>
       </c>
       <c r="F19">
-        <v>0.9054143659418288</v>
+        <v>0.9817101237156158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020163119789866</v>
+        <v>1.03688285191323</v>
       </c>
       <c r="J19">
-        <v>0.9695131070908793</v>
+        <v>1.002757250434762</v>
       </c>
       <c r="K19">
-        <v>0.9851787978505392</v>
+        <v>1.013151221909801</v>
       </c>
       <c r="L19">
-        <v>0.9650401071808202</v>
+        <v>0.9987046546599339</v>
       </c>
       <c r="M19">
-        <v>0.9210186194746237</v>
+        <v>0.9957859291621266</v>
       </c>
       <c r="N19">
-        <v>0.9708899269076561</v>
+        <v>1.004908302697896</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9349628788441126</v>
+        <v>0.9731514167246722</v>
       </c>
       <c r="D20">
-        <v>0.9668729361937658</v>
+        <v>0.9981756699263883</v>
       </c>
       <c r="E20">
-        <v>0.9454880001116794</v>
+        <v>0.9831960825949311</v>
       </c>
       <c r="F20">
-        <v>0.8987441760390938</v>
+        <v>0.9796856008026908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018108743951641</v>
+        <v>1.036360759337294</v>
       </c>
       <c r="J20">
-        <v>0.9652534583478816</v>
+        <v>1.001758031343619</v>
       </c>
       <c r="K20">
-        <v>0.9815244175877847</v>
+        <v>1.012250674011236</v>
       </c>
       <c r="L20">
-        <v>0.9605622460682076</v>
+        <v>0.997540987438958</v>
       </c>
       <c r="M20">
-        <v>0.914836370782976</v>
+        <v>0.9940953140035459</v>
       </c>
       <c r="N20">
-        <v>0.9666242289748548</v>
+        <v>1.004573664570772</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9169466928639425</v>
+        <v>0.9675190755523879</v>
       </c>
       <c r="D21">
-        <v>0.9528345192496749</v>
+        <v>0.9941631419926331</v>
       </c>
       <c r="E21">
-        <v>0.9284632576677018</v>
+        <v>0.9782771855544958</v>
       </c>
       <c r="F21">
-        <v>0.8753763350529271</v>
+        <v>0.9729667232253618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010918053037891</v>
+        <v>1.034609595945253</v>
       </c>
       <c r="J21">
-        <v>0.950379740022389</v>
+        <v>0.9984405058768854</v>
       </c>
       <c r="K21">
-        <v>0.9687681587152842</v>
+        <v>1.00925594567613</v>
       </c>
       <c r="L21">
-        <v>0.9449396760639821</v>
+        <v>0.9936821307747103</v>
       </c>
       <c r="M21">
-        <v>0.8931777425394093</v>
+        <v>0.9884790097533109</v>
       </c>
       <c r="N21">
-        <v>0.9517293882633004</v>
+        <v>1.003462561912597</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9044772791383102</v>
+        <v>0.963887986455649</v>
       </c>
       <c r="D22">
-        <v>0.9431410005168304</v>
+        <v>0.9915793452557652</v>
       </c>
       <c r="E22">
-        <v>0.9166961547873316</v>
+        <v>0.9751139762890648</v>
       </c>
       <c r="F22">
-        <v>0.8590863793141221</v>
+        <v>0.9686313841409355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005920684223224</v>
+        <v>1.033465867073683</v>
       </c>
       <c r="J22">
-        <v>0.9400685871730383</v>
+        <v>0.9962992696292641</v>
       </c>
       <c r="K22">
-        <v>0.9599297536391419</v>
+        <v>1.007319483212666</v>
       </c>
       <c r="L22">
-        <v>0.9341205608270325</v>
+        <v>0.9911950931214002</v>
       </c>
       <c r="M22">
-        <v>0.8780824946968502</v>
+        <v>0.9848509681217141</v>
       </c>
       <c r="N22">
-        <v>0.9414035923941982</v>
+        <v>1.002745391365954</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.911211994678911</v>
+        <v>0.9658217125849118</v>
       </c>
       <c r="D23">
-        <v>0.9483740174911575</v>
+        <v>0.9929550232133133</v>
       </c>
       <c r="E23">
-        <v>0.9230499041774286</v>
+        <v>0.9767977671648483</v>
       </c>
       <c r="F23">
-        <v>0.8678975996936904</v>
+        <v>0.9709405427084419</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008621572127289</v>
+        <v>1.03407632615128</v>
       </c>
       <c r="J23">
-        <v>0.9456391906911121</v>
+        <v>0.9974397973623581</v>
       </c>
       <c r="K23">
-        <v>0.9647041378614454</v>
+        <v>1.008351265299075</v>
       </c>
       <c r="L23">
-        <v>0.9399645003108708</v>
+        <v>0.9925194738651116</v>
       </c>
       <c r="M23">
-        <v>0.8862469447748701</v>
+        <v>0.9867837721010788</v>
       </c>
       <c r="N23">
-        <v>0.9469821068082248</v>
+        <v>1.003127393140382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9352486568711428</v>
+        <v>0.973244386757629</v>
       </c>
       <c r="D24">
-        <v>0.9670959084528704</v>
+        <v>0.9982419459745066</v>
       </c>
       <c r="E24">
-        <v>0.9457582711775924</v>
+        <v>0.9832774032620747</v>
       </c>
       <c r="F24">
-        <v>0.8991134401578798</v>
+        <v>0.9797964496215064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018222471490358</v>
+        <v>1.036389415294371</v>
       </c>
       <c r="J24">
-        <v>0.9654891334461246</v>
+        <v>1.001812747814095</v>
       </c>
       <c r="K24">
-        <v>0.9817265937747228</v>
+        <v>1.012300005512172</v>
       </c>
       <c r="L24">
-        <v>0.9608099489778226</v>
+        <v>0.9976046916447361</v>
       </c>
       <c r="M24">
-        <v>0.915178629318454</v>
+        <v>0.9941879015214464</v>
       </c>
       <c r="N24">
-        <v>0.9668602387587696</v>
+        <v>1.004591989387052</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9593774897444494</v>
+        <v>0.9814955109444844</v>
       </c>
       <c r="D25">
-        <v>0.98595081245328</v>
+        <v>1.004128660782025</v>
       </c>
       <c r="E25">
-        <v>0.9686022837155541</v>
+        <v>0.9905114350775194</v>
       </c>
       <c r="F25">
-        <v>0.930161492208092</v>
+        <v>0.9896277779373672</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027777887308074</v>
+        <v>1.038896999366395</v>
       </c>
       <c r="J25">
-        <v>0.9853538060220615</v>
+        <v>1.006662085911409</v>
       </c>
       <c r="K25">
-        <v>0.9987712107936144</v>
+        <v>1.016663220928671</v>
       </c>
       <c r="L25">
-        <v>0.9817083825494554</v>
+        <v>1.003258856581978</v>
       </c>
       <c r="M25">
-        <v>0.943950212120983</v>
+        <v>1.002389271954414</v>
       </c>
       <c r="N25">
-        <v>0.986753121448274</v>
+        <v>1.006215890565134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9878125663716332</v>
+        <v>1.018541264468057</v>
       </c>
       <c r="D2">
-        <v>1.008640371207822</v>
+        <v>1.024128462187883</v>
       </c>
       <c r="E2">
-        <v>0.9960728640121543</v>
+        <v>1.022155727825481</v>
       </c>
       <c r="F2">
-        <v>0.9971468981742716</v>
+        <v>1.029979372652939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040763806479278</v>
+        <v>1.02905108162313</v>
       </c>
       <c r="J2">
-        <v>1.010364014004326</v>
+        <v>1.023749113728984</v>
       </c>
       <c r="K2">
-        <v>1.019980630202111</v>
+        <v>1.026957872351175</v>
       </c>
       <c r="L2">
-        <v>1.007587182575497</v>
+        <v>1.024990941089987</v>
       </c>
       <c r="M2">
-        <v>1.008646124868956</v>
+        <v>1.032791713615767</v>
       </c>
       <c r="N2">
-        <v>1.007455230543794</v>
+        <v>1.012003235603879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.992258812257546</v>
+        <v>1.019467788996196</v>
       </c>
       <c r="D3">
-        <v>1.011817385118471</v>
+        <v>1.024795202116994</v>
       </c>
       <c r="E3">
-        <v>0.9999997519222215</v>
+        <v>1.023028964857404</v>
       </c>
       <c r="F3">
-        <v>1.002435887751085</v>
+        <v>1.031140292148025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042046095292156</v>
+        <v>1.029229431520331</v>
       </c>
       <c r="J3">
-        <v>1.012962757753745</v>
+        <v>1.024312124823089</v>
       </c>
       <c r="K3">
-        <v>1.022301260627443</v>
+        <v>1.027432019784377</v>
       </c>
       <c r="L3">
-        <v>1.010632635922518</v>
+        <v>1.02567060191941</v>
       </c>
       <c r="M3">
-        <v>1.013037695530633</v>
+        <v>1.033759943817087</v>
       </c>
       <c r="N3">
-        <v>1.00832499286111</v>
+        <v>1.012190487044383</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9950746297513501</v>
+        <v>1.020067489029026</v>
       </c>
       <c r="D4">
-        <v>1.013829650385839</v>
+        <v>1.025226391496851</v>
       </c>
       <c r="E4">
-        <v>1.002492181354599</v>
+        <v>1.023594548949633</v>
       </c>
       <c r="F4">
-        <v>1.005784216154221</v>
+        <v>1.031891611754013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04284319080298</v>
+        <v>1.029343025660816</v>
       </c>
       <c r="J4">
-        <v>1.014605171701742</v>
+        <v>1.02467601809657</v>
       </c>
       <c r="K4">
-        <v>1.023763980632168</v>
+        <v>1.027737910382204</v>
       </c>
       <c r="L4">
-        <v>1.012560620717618</v>
+        <v>1.026110295955803</v>
       </c>
       <c r="M4">
-        <v>1.015813328488851</v>
+        <v>1.034386010737232</v>
       </c>
       <c r="N4">
-        <v>1.008874549186048</v>
+        <v>1.012311472664902</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9962442781149057</v>
+        <v>1.020319644572139</v>
       </c>
       <c r="D5">
-        <v>1.014665516522461</v>
+        <v>1.02540760581279</v>
       </c>
       <c r="E5">
-        <v>1.003528788468315</v>
+        <v>1.023832449071072</v>
       </c>
       <c r="F5">
-        <v>1.007174820282087</v>
+        <v>1.032207497040916</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043170648293905</v>
+        <v>1.029390346722382</v>
       </c>
       <c r="J5">
-        <v>1.015286565638398</v>
+        <v>1.024828899366689</v>
       </c>
       <c r="K5">
-        <v>1.024369861352894</v>
+        <v>1.027866287015995</v>
       </c>
       <c r="L5">
-        <v>1.01336127370662</v>
+        <v>1.026295120482157</v>
       </c>
       <c r="M5">
-        <v>1.016964968420836</v>
+        <v>1.034649103188469</v>
       </c>
       <c r="N5">
-        <v>1.009102509924004</v>
+        <v>1.012362291993621</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.996439854041314</v>
+        <v>1.020361985020658</v>
       </c>
       <c r="D6">
-        <v>1.014805279368877</v>
+        <v>1.025438029074827</v>
       </c>
       <c r="E6">
-        <v>1.003702193463216</v>
+        <v>1.023872401057648</v>
       </c>
       <c r="F6">
-        <v>1.007407329160196</v>
+        <v>1.032260537363568</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043225186527504</v>
+        <v>1.029398266675578</v>
       </c>
       <c r="J6">
-        <v>1.015400450692557</v>
+        <v>1.024854562951846</v>
       </c>
       <c r="K6">
-        <v>1.024471068240284</v>
+        <v>1.027887829105508</v>
       </c>
       <c r="L6">
-        <v>1.013495137343409</v>
+        <v>1.026326151969497</v>
       </c>
       <c r="M6">
-        <v>1.017157456255435</v>
+        <v>1.034693271345534</v>
       </c>
       <c r="N6">
-        <v>1.009140608057762</v>
+        <v>1.012370822251491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9950903134550938</v>
+        <v>1.020070858180901</v>
       </c>
       <c r="D7">
-        <v>1.013840858507998</v>
+        <v>1.025228813119669</v>
       </c>
       <c r="E7">
-        <v>1.002506076072779</v>
+        <v>1.023597727278807</v>
       </c>
       <c r="F7">
-        <v>1.005802863526472</v>
+        <v>1.031895832508614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042847596112323</v>
+        <v>1.029343659672852</v>
       </c>
       <c r="J7">
-        <v>1.014614311807198</v>
+        <v>1.024678061295281</v>
       </c>
       <c r="K7">
-        <v>1.023772111650455</v>
+        <v>1.027739626621694</v>
       </c>
       <c r="L7">
-        <v>1.01257135744258</v>
+        <v>1.026112765680989</v>
       </c>
       <c r="M7">
-        <v>1.015828775898794</v>
+        <v>1.03438952660839</v>
       </c>
       <c r="N7">
-        <v>1.008877607158186</v>
+        <v>1.012312151884668</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9893281963902117</v>
+        <v>1.018854350788431</v>
       </c>
       <c r="D8">
-        <v>1.009723256453904</v>
+        <v>1.024353838192693</v>
       </c>
       <c r="E8">
-        <v>0.9974102748804702</v>
+        <v>1.022450729663238</v>
       </c>
       <c r="F8">
-        <v>0.9989500829178481</v>
+        <v>1.030371684586409</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04120402421928</v>
+        <v>1.029111730279861</v>
       </c>
       <c r="J8">
-        <v>1.011250559943424</v>
+        <v>1.023939470968386</v>
       </c>
       <c r="K8">
-        <v>1.020773111339787</v>
+        <v>1.027118301544838</v>
       </c>
       <c r="L8">
-        <v>1.008625440289073</v>
+        <v>1.025220654194646</v>
       </c>
       <c r="M8">
-        <v>1.010144294804489</v>
+        <v>1.033119023173727</v>
       </c>
       <c r="N8">
-        <v>1.00775197156658</v>
+        <v>1.012066554917869</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9786805480079674</v>
+        <v>1.016712091237269</v>
       </c>
       <c r="D9">
-        <v>1.002119385044538</v>
+        <v>1.022810266786694</v>
       </c>
       <c r="E9">
-        <v>0.9880396970348998</v>
+        <v>1.020433764413745</v>
       </c>
       <c r="F9">
-        <v>0.9862751026208049</v>
+        <v>1.027686908928988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038049747548628</v>
+        <v>1.028689201591828</v>
       </c>
       <c r="J9">
-        <v>1.005009283830357</v>
+        <v>1.02263485118405</v>
       </c>
       <c r="K9">
-        <v>1.015178170038276</v>
+        <v>1.026016480152347</v>
       </c>
       <c r="L9">
-        <v>1.001329848903262</v>
+        <v>1.023647971665985</v>
       </c>
       <c r="M9">
-        <v>0.999594852131816</v>
+        <v>1.030876845707987</v>
       </c>
       <c r="N9">
-        <v>1.005662458762562</v>
+        <v>1.011632425893743</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9712120203477015</v>
+        <v>1.015284883607027</v>
       </c>
       <c r="D10">
-        <v>0.9967934300664116</v>
+        <v>1.021780110426431</v>
       </c>
       <c r="E10">
-        <v>0.9815006430225381</v>
+        <v>1.019091997923447</v>
       </c>
       <c r="F10">
-        <v>0.9773728403468555</v>
+        <v>1.025897697840026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035761087518542</v>
+        <v>1.028398242655511</v>
       </c>
       <c r="J10">
-        <v>1.000616279377664</v>
+        <v>1.021763040291997</v>
       </c>
       <c r="K10">
-        <v>1.011220822487616</v>
+        <v>1.025277296391351</v>
       </c>
       <c r="L10">
-        <v>0.9962121400189128</v>
+        <v>1.022599114835558</v>
       </c>
       <c r="M10">
-        <v>0.9921630170626918</v>
+        <v>1.02937978335397</v>
       </c>
       <c r="N10">
-        <v>1.004191279519126</v>
+        <v>1.011342110634816</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9678810289906964</v>
+        <v>1.014667122878556</v>
       </c>
       <c r="D11">
-        <v>0.9944208359296306</v>
+        <v>1.021333792792107</v>
       </c>
       <c r="E11">
-        <v>0.9785928385225109</v>
+        <v>1.018511692572734</v>
       </c>
       <c r="F11">
-        <v>0.9733987097261498</v>
+        <v>1.025123097670626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034722993104545</v>
+        <v>1.028270061120033</v>
       </c>
       <c r="J11">
-        <v>0.9986538491436451</v>
+        <v>1.021385054801863</v>
       </c>
       <c r="K11">
-        <v>1.009448739705518</v>
+        <v>1.024956131766235</v>
       </c>
       <c r="L11">
-        <v>0.9939300783710932</v>
+        <v>1.022144862459876</v>
       </c>
       <c r="M11">
-        <v>0.9888403495963762</v>
+        <v>1.02873099768099</v>
       </c>
       <c r="N11">
-        <v>1.003534016782265</v>
+        <v>1.011216191579352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9666283091380201</v>
+        <v>1.014437694009109</v>
       </c>
       <c r="D12">
-        <v>0.9935290607030084</v>
+        <v>1.021167973635084</v>
       </c>
       <c r="E12">
-        <v>0.9775006267491577</v>
+        <v>1.018296245661087</v>
       </c>
       <c r="F12">
-        <v>0.9719034783073296</v>
+        <v>1.02483539727294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034330044515604</v>
+        <v>1.028222119564799</v>
       </c>
       <c r="J12">
-        <v>0.9979153894005857</v>
+        <v>1.021244581781462</v>
       </c>
       <c r="K12">
-        <v>1.008781292696547</v>
+        <v>1.024836673415511</v>
       </c>
       <c r="L12">
-        <v>0.993071957815067</v>
+        <v>1.021976120023909</v>
       </c>
       <c r="M12">
-        <v>0.9875895129017102</v>
+        <v>1.028489927281109</v>
       </c>
       <c r="N12">
-        <v>1.003286684313671</v>
+        <v>1.01116938822621</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9668977350458597</v>
+        <v>1.014486905690262</v>
       </c>
       <c r="D13">
-        <v>0.9937208327143172</v>
+        <v>1.021203544059826</v>
       </c>
       <c r="E13">
-        <v>0.9777354695202053</v>
+        <v>1.018342455019092</v>
       </c>
       <c r="F13">
-        <v>0.9722250921962623</v>
+        <v>1.024897109060097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034414670833032</v>
+        <v>1.028232418081987</v>
       </c>
       <c r="J13">
-        <v>0.9980742306374325</v>
+        <v>1.021274716987244</v>
       </c>
       <c r="K13">
-        <v>1.008924886570834</v>
+        <v>1.024862305024741</v>
       </c>
       <c r="L13">
-        <v>0.9932565100380155</v>
+        <v>1.022012316420622</v>
       </c>
       <c r="M13">
-        <v>0.987858590817953</v>
+        <v>1.028541641437597</v>
       </c>
       <c r="N13">
-        <v>1.00333988522264</v>
+        <v>1.011179429121907</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9677777989673881</v>
+        <v>1.014648157500483</v>
       </c>
       <c r="D14">
-        <v>0.9943473385425063</v>
+        <v>1.021320086875501</v>
       </c>
       <c r="E14">
-        <v>0.9785028072225644</v>
+        <v>1.018493881530181</v>
       </c>
       <c r="F14">
-        <v>0.9732755091237664</v>
+        <v>1.025099315848468</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034690663564643</v>
+        <v>1.028266104969593</v>
       </c>
       <c r="J14">
-        <v>0.9985930050388556</v>
+        <v>1.021373444731357</v>
       </c>
       <c r="K14">
-        <v>1.009393758906143</v>
+        <v>1.024946260633041</v>
       </c>
       <c r="L14">
-        <v>0.9938593625090868</v>
+        <v>1.022130914416091</v>
       </c>
       <c r="M14">
-        <v>0.9887373003416102</v>
+        <v>1.028711072411035</v>
       </c>
       <c r="N14">
-        <v>1.003513638341736</v>
+        <v>1.011212323438964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9683179625042972</v>
+        <v>1.014747514710988</v>
       </c>
       <c r="D15">
-        <v>0.9947319438198258</v>
+        <v>1.021391887892217</v>
       </c>
       <c r="E15">
-        <v>0.9789739624539072</v>
+        <v>1.018587194253763</v>
       </c>
       <c r="F15">
-        <v>0.9739201445297258</v>
+        <v>1.025223904840054</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034859728585654</v>
+        <v>1.028286816960879</v>
       </c>
       <c r="J15">
-        <v>0.9989113619391856</v>
+        <v>1.021434264579216</v>
       </c>
       <c r="K15">
-        <v>1.009681412127338</v>
+        <v>1.024997966809361</v>
       </c>
       <c r="L15">
-        <v>0.9942293968697584</v>
+        <v>1.022203984870055</v>
       </c>
       <c r="M15">
-        <v>0.9892764669150156</v>
+        <v>1.028815453485389</v>
       </c>
       <c r="N15">
-        <v>1.003620265025642</v>
+        <v>1.011232586558332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.971430970385652</v>
+        <v>1.015325887230038</v>
       </c>
       <c r="D16">
-        <v>0.9969494492995712</v>
+        <v>1.021809725820042</v>
       </c>
       <c r="E16">
-        <v>0.9816919611642214</v>
+        <v>1.019130525459841</v>
       </c>
       <c r="F16">
-        <v>0.9776339808575992</v>
+        <v>1.025949108414709</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035828966933681</v>
+        <v>1.028406703447603</v>
       </c>
       <c r="J16">
-        <v>1.000745210533163</v>
+        <v>1.021788115762179</v>
       </c>
       <c r="K16">
-        <v>1.011337161268716</v>
+        <v>1.025298588060087</v>
       </c>
       <c r="L16">
-        <v>0.9963621562378134</v>
+        <v>1.022629260224811</v>
       </c>
       <c r="M16">
-        <v>0.9923812493280485</v>
+        <v>1.029422829562766</v>
       </c>
       <c r="N16">
-        <v>1.004234460547264</v>
+        <v>1.011350463050192</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9733571042566089</v>
+        <v>1.015688746836718</v>
       </c>
       <c r="D17">
-        <v>0.9983223012705805</v>
+        <v>1.022071757531836</v>
       </c>
       <c r="E17">
-        <v>0.983376002571931</v>
+        <v>1.019471527717316</v>
       </c>
       <c r="F17">
-        <v>0.9799308411383481</v>
+        <v>1.026404046636755</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036424146651254</v>
+        <v>1.028481317895494</v>
       </c>
       <c r="J17">
-        <v>1.001879084369493</v>
+        <v>1.022009947656381</v>
       </c>
       <c r="K17">
-        <v>1.012359810706824</v>
+        <v>1.025486867669533</v>
       </c>
       <c r="L17">
-        <v>0.9976819273214522</v>
+        <v>1.022896000506895</v>
       </c>
       <c r="M17">
-        <v>0.9943001500524211</v>
+        <v>1.029803673719451</v>
       </c>
       <c r="N17">
-        <v>1.004614205784598</v>
+        <v>1.011424347633853</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9744712810219595</v>
+        <v>1.015900418826724</v>
       </c>
       <c r="D18">
-        <v>0.9991166902900693</v>
+        <v>1.02222457169816</v>
       </c>
       <c r="E18">
-        <v>0.9843509552318215</v>
+        <v>1.019670494924015</v>
       </c>
       <c r="F18">
-        <v>0.9812591218620641</v>
+        <v>1.026669417946445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036766781428894</v>
+        <v>1.028524627482713</v>
       </c>
       <c r="J18">
-        <v>1.002534676492653</v>
+        <v>1.022139291553145</v>
       </c>
       <c r="K18">
-        <v>1.012950688249073</v>
+        <v>1.025596582455832</v>
       </c>
       <c r="L18">
-        <v>0.9984453919298116</v>
+        <v>1.023051576826314</v>
       </c>
       <c r="M18">
-        <v>0.995409383329539</v>
+        <v>1.030025760832927</v>
       </c>
       <c r="N18">
-        <v>1.004833763771752</v>
+        <v>1.011467422922754</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9748496332907434</v>
+        <v>1.015972597242714</v>
       </c>
       <c r="D19">
-        <v>0.9993864904232362</v>
+        <v>1.022276673190494</v>
       </c>
       <c r="E19">
-        <v>0.984682166308734</v>
+        <v>1.019738348827644</v>
       </c>
       <c r="F19">
-        <v>0.9817101237156158</v>
+        <v>1.026759905015655</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03688285191323</v>
+        <v>1.028539359000952</v>
       </c>
       <c r="J19">
-        <v>1.002757250434762</v>
+        <v>1.022183386507673</v>
       </c>
       <c r="K19">
-        <v>1.013151221909801</v>
+        <v>1.025633974441648</v>
       </c>
       <c r="L19">
-        <v>0.9987046546599339</v>
+        <v>1.023104622820849</v>
       </c>
       <c r="M19">
-        <v>0.9957859291621266</v>
+        <v>1.030101477843306</v>
       </c>
       <c r="N19">
-        <v>1.004908302697896</v>
+        <v>1.011482107026111</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9731514167246722</v>
+        <v>1.015649813143429</v>
       </c>
       <c r="D20">
-        <v>0.9981756699263883</v>
+        <v>1.022043646534829</v>
       </c>
       <c r="E20">
-        <v>0.9831960825949311</v>
+        <v>1.019434934531817</v>
       </c>
       <c r="F20">
-        <v>0.9796856008026908</v>
+        <v>1.026355234673372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036360759337294</v>
+        <v>1.028473334371139</v>
       </c>
       <c r="J20">
-        <v>1.001758031343619</v>
+        <v>1.021986152039754</v>
       </c>
       <c r="K20">
-        <v>1.012250674011236</v>
+        <v>1.025466677958868</v>
       </c>
       <c r="L20">
-        <v>0.997540987438958</v>
+        <v>1.022867382701399</v>
       </c>
       <c r="M20">
-        <v>0.9940953140035459</v>
+        <v>1.029762818212561</v>
       </c>
       <c r="N20">
-        <v>1.004573664570772</v>
+        <v>1.01141642261927</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9675190755523879</v>
+        <v>1.014600671892272</v>
       </c>
       <c r="D21">
-        <v>0.9941631419926331</v>
+        <v>1.021285768931164</v>
       </c>
       <c r="E21">
-        <v>0.9782771855544958</v>
+        <v>1.018449287309459</v>
       </c>
       <c r="F21">
-        <v>0.9729667232253618</v>
+        <v>1.025039770424243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034609595945253</v>
+        <v>1.0282561941054</v>
       </c>
       <c r="J21">
-        <v>0.9984405058768854</v>
+        <v>1.021344373864832</v>
       </c>
       <c r="K21">
-        <v>1.00925594567613</v>
+        <v>1.02492154230676</v>
       </c>
       <c r="L21">
-        <v>0.9936821307747103</v>
+        <v>1.02209599061221</v>
       </c>
       <c r="M21">
-        <v>0.9884790097533109</v>
+        <v>1.028661181491826</v>
       </c>
       <c r="N21">
-        <v>1.003462561912597</v>
+        <v>1.011202637747626</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.963887986455649</v>
+        <v>1.013941237714038</v>
       </c>
       <c r="D22">
-        <v>0.9915793452557652</v>
+        <v>1.020809048167479</v>
       </c>
       <c r="E22">
-        <v>0.9751139762890648</v>
+        <v>1.017830175871132</v>
       </c>
       <c r="F22">
-        <v>0.9686313841409355</v>
+        <v>1.024212804770892</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033465867073683</v>
+        <v>1.02811776482765</v>
       </c>
       <c r="J22">
-        <v>0.9962992696292641</v>
+        <v>1.020940443972872</v>
       </c>
       <c r="K22">
-        <v>1.007319483212666</v>
+        <v>1.024577848229592</v>
       </c>
       <c r="L22">
-        <v>0.9911950931214002</v>
+        <v>1.021610911630118</v>
       </c>
       <c r="M22">
-        <v>0.9848509681217141</v>
+        <v>1.027968061254976</v>
       </c>
       <c r="N22">
-        <v>1.002745391365954</v>
+        <v>1.01106804110442</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9658217125849118</v>
+        <v>1.014290796888741</v>
       </c>
       <c r="D23">
-        <v>0.9929550232133133</v>
+        <v>1.021061786687014</v>
       </c>
       <c r="E23">
-        <v>0.9767977671648483</v>
+        <v>1.018158320994797</v>
       </c>
       <c r="F23">
-        <v>0.9709405427084419</v>
+        <v>1.02465118378638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03407632615128</v>
+        <v>1.02819132918683</v>
       </c>
       <c r="J23">
-        <v>0.9974397973623581</v>
+        <v>1.021154614325786</v>
       </c>
       <c r="K23">
-        <v>1.008351265299075</v>
+        <v>1.024760136358202</v>
       </c>
       <c r="L23">
-        <v>0.9925194738651116</v>
+        <v>1.021868067969628</v>
       </c>
       <c r="M23">
-        <v>0.9867837721010788</v>
+        <v>1.028335542741051</v>
       </c>
       <c r="N23">
-        <v>1.003127393140382</v>
+        <v>1.011139410467728</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.973244386757629</v>
+        <v>1.015667405535154</v>
       </c>
       <c r="D24">
-        <v>0.9982419459745066</v>
+        <v>1.022056348760127</v>
       </c>
       <c r="E24">
-        <v>0.9832774032620747</v>
+        <v>1.019451469212211</v>
       </c>
       <c r="F24">
-        <v>0.9797964496215064</v>
+        <v>1.026377290656434</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036389415294371</v>
+        <v>1.028476942436451</v>
       </c>
       <c r="J24">
-        <v>1.001812747814095</v>
+        <v>1.021996904399536</v>
       </c>
       <c r="K24">
-        <v>1.012300005512172</v>
+        <v>1.025475801146142</v>
       </c>
       <c r="L24">
-        <v>0.9976046916447361</v>
+        <v>1.022880313882993</v>
       </c>
       <c r="M24">
-        <v>0.9941879015214464</v>
+        <v>1.029781279220576</v>
       </c>
       <c r="N24">
-        <v>1.004591989387052</v>
+        <v>1.011420003655083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9814955109444844</v>
+        <v>1.017265749173061</v>
       </c>
       <c r="D25">
-        <v>1.004128660782025</v>
+        <v>1.023209517544812</v>
       </c>
       <c r="E25">
-        <v>0.9905114350775194</v>
+        <v>1.020954695499509</v>
       </c>
       <c r="F25">
-        <v>0.9896277779373672</v>
+        <v>1.028380874261599</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038896999366395</v>
+        <v>1.028800072147627</v>
       </c>
       <c r="J25">
-        <v>1.006662085911409</v>
+        <v>1.022972493411607</v>
       </c>
       <c r="K25">
-        <v>1.016663220928671</v>
+        <v>1.026302148055789</v>
       </c>
       <c r="L25">
-        <v>1.003258856581978</v>
+        <v>1.024054622072892</v>
       </c>
       <c r="M25">
-        <v>1.002389271954414</v>
+        <v>1.03145690375903</v>
       </c>
       <c r="N25">
-        <v>1.006215890565134</v>
+        <v>1.011744817702694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018541264468057</v>
+        <v>0.9878125663716331</v>
       </c>
       <c r="D2">
-        <v>1.024128462187883</v>
+        <v>1.008640371207821</v>
       </c>
       <c r="E2">
-        <v>1.022155727825481</v>
+        <v>0.996072864012154</v>
       </c>
       <c r="F2">
-        <v>1.029979372652939</v>
+        <v>0.997146898174271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02905108162313</v>
+        <v>1.040763806479278</v>
       </c>
       <c r="J2">
-        <v>1.023749113728984</v>
+        <v>1.010364014004326</v>
       </c>
       <c r="K2">
-        <v>1.026957872351175</v>
+        <v>1.01998063020211</v>
       </c>
       <c r="L2">
-        <v>1.024990941089987</v>
+        <v>1.007587182575497</v>
       </c>
       <c r="M2">
-        <v>1.032791713615767</v>
+        <v>1.008646124868956</v>
       </c>
       <c r="N2">
-        <v>1.012003235603879</v>
+        <v>1.007455230543794</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019467788996196</v>
+        <v>0.9922588122575451</v>
       </c>
       <c r="D3">
-        <v>1.024795202116994</v>
+        <v>1.01181738511847</v>
       </c>
       <c r="E3">
-        <v>1.023028964857404</v>
+        <v>0.9999997519222208</v>
       </c>
       <c r="F3">
-        <v>1.031140292148025</v>
+        <v>1.002435887751084</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029229431520331</v>
+        <v>1.042046095292155</v>
       </c>
       <c r="J3">
-        <v>1.024312124823089</v>
+        <v>1.012962757753744</v>
       </c>
       <c r="K3">
-        <v>1.027432019784377</v>
+        <v>1.022301260627442</v>
       </c>
       <c r="L3">
-        <v>1.02567060191941</v>
+        <v>1.010632635922518</v>
       </c>
       <c r="M3">
-        <v>1.033759943817087</v>
+        <v>1.013037695530632</v>
       </c>
       <c r="N3">
-        <v>1.012190487044383</v>
+        <v>1.00832499286111</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020067489029026</v>
+        <v>0.9950746297513499</v>
       </c>
       <c r="D4">
-        <v>1.025226391496851</v>
+        <v>1.013829650385839</v>
       </c>
       <c r="E4">
-        <v>1.023594548949633</v>
+        <v>1.002492181354599</v>
       </c>
       <c r="F4">
-        <v>1.031891611754013</v>
+        <v>1.00578421615422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029343025660816</v>
+        <v>1.04284319080298</v>
       </c>
       <c r="J4">
-        <v>1.02467601809657</v>
+        <v>1.014605171701742</v>
       </c>
       <c r="K4">
-        <v>1.027737910382204</v>
+        <v>1.023763980632168</v>
       </c>
       <c r="L4">
-        <v>1.026110295955803</v>
+        <v>1.012560620717618</v>
       </c>
       <c r="M4">
-        <v>1.034386010737232</v>
+        <v>1.015813328488851</v>
       </c>
       <c r="N4">
-        <v>1.012311472664902</v>
+        <v>1.008874549186048</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020319644572139</v>
+        <v>0.9962442781149053</v>
       </c>
       <c r="D5">
-        <v>1.02540760581279</v>
+        <v>1.01466551652246</v>
       </c>
       <c r="E5">
-        <v>1.023832449071072</v>
+        <v>1.003528788468315</v>
       </c>
       <c r="F5">
-        <v>1.032207497040916</v>
+        <v>1.007174820282086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029390346722382</v>
+        <v>1.043170648293905</v>
       </c>
       <c r="J5">
-        <v>1.024828899366689</v>
+        <v>1.015286565638398</v>
       </c>
       <c r="K5">
-        <v>1.027866287015995</v>
+        <v>1.024369861352894</v>
       </c>
       <c r="L5">
-        <v>1.026295120482157</v>
+        <v>1.01336127370662</v>
       </c>
       <c r="M5">
-        <v>1.034649103188469</v>
+        <v>1.016964968420836</v>
       </c>
       <c r="N5">
-        <v>1.012362291993621</v>
+        <v>1.009102509924004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020361985020658</v>
+        <v>0.9964398540413142</v>
       </c>
       <c r="D6">
-        <v>1.025438029074827</v>
+        <v>1.014805279368877</v>
       </c>
       <c r="E6">
-        <v>1.023872401057648</v>
+        <v>1.003702193463217</v>
       </c>
       <c r="F6">
-        <v>1.032260537363568</v>
+        <v>1.007407329160196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029398266675578</v>
+        <v>1.043225186527504</v>
       </c>
       <c r="J6">
-        <v>1.024854562951846</v>
+        <v>1.015400450692557</v>
       </c>
       <c r="K6">
-        <v>1.027887829105508</v>
+        <v>1.024471068240284</v>
       </c>
       <c r="L6">
-        <v>1.026326151969497</v>
+        <v>1.013495137343409</v>
       </c>
       <c r="M6">
-        <v>1.034693271345534</v>
+        <v>1.017157456255436</v>
       </c>
       <c r="N6">
-        <v>1.012370822251491</v>
+        <v>1.009140608057762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020070858180901</v>
+        <v>0.9950903134550944</v>
       </c>
       <c r="D7">
-        <v>1.025228813119669</v>
+        <v>1.013840858507999</v>
       </c>
       <c r="E7">
-        <v>1.023597727278807</v>
+        <v>1.00250607607278</v>
       </c>
       <c r="F7">
-        <v>1.031895832508614</v>
+        <v>1.005802863526472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029343659672852</v>
+        <v>1.042847596112324</v>
       </c>
       <c r="J7">
-        <v>1.024678061295281</v>
+        <v>1.014614311807199</v>
       </c>
       <c r="K7">
-        <v>1.027739626621694</v>
+        <v>1.023772111650455</v>
       </c>
       <c r="L7">
-        <v>1.026112765680989</v>
+        <v>1.012571357442581</v>
       </c>
       <c r="M7">
-        <v>1.03438952660839</v>
+        <v>1.015828775898795</v>
       </c>
       <c r="N7">
-        <v>1.012312151884668</v>
+        <v>1.008877607158186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018854350788431</v>
+        <v>0.9893281963902112</v>
       </c>
       <c r="D8">
-        <v>1.024353838192693</v>
+        <v>1.009723256453904</v>
       </c>
       <c r="E8">
-        <v>1.022450729663238</v>
+        <v>0.99741027488047</v>
       </c>
       <c r="F8">
-        <v>1.030371684586409</v>
+        <v>0.9989500829178475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029111730279861</v>
+        <v>1.04120402421928</v>
       </c>
       <c r="J8">
-        <v>1.023939470968386</v>
+        <v>1.011250559943424</v>
       </c>
       <c r="K8">
-        <v>1.027118301544838</v>
+        <v>1.020773111339787</v>
       </c>
       <c r="L8">
-        <v>1.025220654194646</v>
+        <v>1.008625440289073</v>
       </c>
       <c r="M8">
-        <v>1.033119023173727</v>
+        <v>1.010144294804488</v>
       </c>
       <c r="N8">
-        <v>1.012066554917869</v>
+        <v>1.00775197156658</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016712091237269</v>
+        <v>0.9786805480079676</v>
       </c>
       <c r="D9">
-        <v>1.022810266786694</v>
+        <v>1.002119385044538</v>
       </c>
       <c r="E9">
-        <v>1.020433764413745</v>
+        <v>0.9880396970348998</v>
       </c>
       <c r="F9">
-        <v>1.027686908928988</v>
+        <v>0.9862751026208046</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028689201591828</v>
+        <v>1.038049747548628</v>
       </c>
       <c r="J9">
-        <v>1.02263485118405</v>
+        <v>1.005009283830357</v>
       </c>
       <c r="K9">
-        <v>1.026016480152347</v>
+        <v>1.015178170038276</v>
       </c>
       <c r="L9">
-        <v>1.023647971665985</v>
+        <v>1.001329848903262</v>
       </c>
       <c r="M9">
-        <v>1.030876845707987</v>
+        <v>0.9995948521318159</v>
       </c>
       <c r="N9">
-        <v>1.011632425893743</v>
+        <v>1.005662458762562</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015284883607027</v>
+        <v>0.971212020347701</v>
       </c>
       <c r="D10">
-        <v>1.021780110426431</v>
+        <v>0.9967934300664116</v>
       </c>
       <c r="E10">
-        <v>1.019091997923447</v>
+        <v>0.981500643022538</v>
       </c>
       <c r="F10">
-        <v>1.025897697840026</v>
+        <v>0.9773728403468555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028398242655511</v>
+        <v>1.035761087518542</v>
       </c>
       <c r="J10">
-        <v>1.021763040291997</v>
+        <v>1.000616279377664</v>
       </c>
       <c r="K10">
-        <v>1.025277296391351</v>
+        <v>1.011220822487616</v>
       </c>
       <c r="L10">
-        <v>1.022599114835558</v>
+        <v>0.9962121400189126</v>
       </c>
       <c r="M10">
-        <v>1.02937978335397</v>
+        <v>0.9921630170626919</v>
       </c>
       <c r="N10">
-        <v>1.011342110634816</v>
+        <v>1.004191279519126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014667122878556</v>
+        <v>0.9678810289906963</v>
       </c>
       <c r="D11">
-        <v>1.021333792792107</v>
+        <v>0.9944208359296305</v>
       </c>
       <c r="E11">
-        <v>1.018511692572734</v>
+        <v>0.9785928385225103</v>
       </c>
       <c r="F11">
-        <v>1.025123097670626</v>
+        <v>0.9733987097261493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028270061120033</v>
+        <v>1.034722993104544</v>
       </c>
       <c r="J11">
-        <v>1.021385054801863</v>
+        <v>0.9986538491436447</v>
       </c>
       <c r="K11">
-        <v>1.024956131766235</v>
+        <v>1.009448739705517</v>
       </c>
       <c r="L11">
-        <v>1.022144862459876</v>
+        <v>0.9939300783710926</v>
       </c>
       <c r="M11">
-        <v>1.02873099768099</v>
+        <v>0.9888403495963758</v>
       </c>
       <c r="N11">
-        <v>1.011216191579352</v>
+        <v>1.003534016782265</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014437694009109</v>
+        <v>0.96662830913802</v>
       </c>
       <c r="D12">
-        <v>1.021167973635084</v>
+        <v>0.9935290607030082</v>
       </c>
       <c r="E12">
-        <v>1.018296245661087</v>
+        <v>0.9775006267491576</v>
       </c>
       <c r="F12">
-        <v>1.02483539727294</v>
+        <v>0.9719034783073295</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028222119564799</v>
+        <v>1.034330044515604</v>
       </c>
       <c r="J12">
-        <v>1.021244581781462</v>
+        <v>0.9979153894005854</v>
       </c>
       <c r="K12">
-        <v>1.024836673415511</v>
+        <v>1.008781292696547</v>
       </c>
       <c r="L12">
-        <v>1.021976120023909</v>
+        <v>0.9930719578150669</v>
       </c>
       <c r="M12">
-        <v>1.028489927281109</v>
+        <v>0.98758951290171</v>
       </c>
       <c r="N12">
-        <v>1.01116938822621</v>
+        <v>1.003286684313671</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014486905690262</v>
+        <v>0.9668977350458595</v>
       </c>
       <c r="D13">
-        <v>1.021203544059826</v>
+        <v>0.9937208327143169</v>
       </c>
       <c r="E13">
-        <v>1.018342455019092</v>
+        <v>0.9777354695202052</v>
       </c>
       <c r="F13">
-        <v>1.024897109060097</v>
+        <v>0.9722250921962619</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028232418081987</v>
+        <v>1.034414670833032</v>
       </c>
       <c r="J13">
-        <v>1.021274716987244</v>
+        <v>0.9980742306374322</v>
       </c>
       <c r="K13">
-        <v>1.024862305024741</v>
+        <v>1.008924886570833</v>
       </c>
       <c r="L13">
-        <v>1.022012316420622</v>
+        <v>0.9932565100380154</v>
       </c>
       <c r="M13">
-        <v>1.028541641437597</v>
+        <v>0.9878585908179526</v>
       </c>
       <c r="N13">
-        <v>1.011179429121907</v>
+        <v>1.00333988522264</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014648157500483</v>
+        <v>0.967777798967387</v>
       </c>
       <c r="D14">
-        <v>1.021320086875501</v>
+        <v>0.9943473385425052</v>
       </c>
       <c r="E14">
-        <v>1.018493881530181</v>
+        <v>0.9785028072225631</v>
       </c>
       <c r="F14">
-        <v>1.025099315848468</v>
+        <v>0.973275509123765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028266104969593</v>
+        <v>1.034690663564642</v>
       </c>
       <c r="J14">
-        <v>1.021373444731357</v>
+        <v>0.9985930050388546</v>
       </c>
       <c r="K14">
-        <v>1.024946260633041</v>
+        <v>1.009393758906141</v>
       </c>
       <c r="L14">
-        <v>1.022130914416091</v>
+        <v>0.9938593625090856</v>
       </c>
       <c r="M14">
-        <v>1.028711072411035</v>
+        <v>0.988737300341609</v>
       </c>
       <c r="N14">
-        <v>1.011212323438964</v>
+        <v>1.003513638341736</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014747514710988</v>
+        <v>0.9683179625042968</v>
       </c>
       <c r="D15">
-        <v>1.021391887892217</v>
+        <v>0.9947319438198253</v>
       </c>
       <c r="E15">
-        <v>1.018587194253763</v>
+        <v>0.9789739624539066</v>
       </c>
       <c r="F15">
-        <v>1.025223904840054</v>
+        <v>0.9739201445297254</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028286816960879</v>
+        <v>1.034859728585654</v>
       </c>
       <c r="J15">
-        <v>1.021434264579216</v>
+        <v>0.9989113619391851</v>
       </c>
       <c r="K15">
-        <v>1.024997966809361</v>
+        <v>1.009681412127337</v>
       </c>
       <c r="L15">
-        <v>1.022203984870055</v>
+        <v>0.9942293968697579</v>
       </c>
       <c r="M15">
-        <v>1.028815453485389</v>
+        <v>0.9892764669150153</v>
       </c>
       <c r="N15">
-        <v>1.011232586558332</v>
+        <v>1.003620265025642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015325887230038</v>
+        <v>0.9714309703856523</v>
       </c>
       <c r="D16">
-        <v>1.021809725820042</v>
+        <v>0.9969494492995714</v>
       </c>
       <c r="E16">
-        <v>1.019130525459841</v>
+        <v>0.9816919611642214</v>
       </c>
       <c r="F16">
-        <v>1.025949108414709</v>
+        <v>0.9776339808575992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028406703447603</v>
+        <v>1.035828966933681</v>
       </c>
       <c r="J16">
-        <v>1.021788115762179</v>
+        <v>1.000745210533163</v>
       </c>
       <c r="K16">
-        <v>1.025298588060087</v>
+        <v>1.011337161268716</v>
       </c>
       <c r="L16">
-        <v>1.022629260224811</v>
+        <v>0.9963621562378134</v>
       </c>
       <c r="M16">
-        <v>1.029422829562766</v>
+        <v>0.9923812493280486</v>
       </c>
       <c r="N16">
-        <v>1.011350463050192</v>
+        <v>1.004234460547264</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015688746836718</v>
+        <v>0.9733571042566093</v>
       </c>
       <c r="D17">
-        <v>1.022071757531836</v>
+        <v>0.9983223012705806</v>
       </c>
       <c r="E17">
-        <v>1.019471527717316</v>
+        <v>0.9833760025719313</v>
       </c>
       <c r="F17">
-        <v>1.026404046636755</v>
+        <v>0.9799308411383481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028481317895494</v>
+        <v>1.036424146651255</v>
       </c>
       <c r="J17">
-        <v>1.022009947656381</v>
+        <v>1.001879084369493</v>
       </c>
       <c r="K17">
-        <v>1.025486867669533</v>
+        <v>1.012359810706824</v>
       </c>
       <c r="L17">
-        <v>1.022896000506895</v>
+        <v>0.9976819273214526</v>
       </c>
       <c r="M17">
-        <v>1.029803673719451</v>
+        <v>0.9943001500524212</v>
       </c>
       <c r="N17">
-        <v>1.011424347633853</v>
+        <v>1.004614205784599</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015900418826724</v>
+        <v>0.9744712810219595</v>
       </c>
       <c r="D18">
-        <v>1.02222457169816</v>
+        <v>0.9991166902900693</v>
       </c>
       <c r="E18">
-        <v>1.019670494924015</v>
+        <v>0.9843509552318216</v>
       </c>
       <c r="F18">
-        <v>1.026669417946445</v>
+        <v>0.9812591218620635</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028524627482713</v>
+        <v>1.036766781428894</v>
       </c>
       <c r="J18">
-        <v>1.022139291553145</v>
+        <v>1.002534676492653</v>
       </c>
       <c r="K18">
-        <v>1.025596582455832</v>
+        <v>1.012950688249073</v>
       </c>
       <c r="L18">
-        <v>1.023051576826314</v>
+        <v>0.9984453919298117</v>
       </c>
       <c r="M18">
-        <v>1.030025760832927</v>
+        <v>0.9954093833295385</v>
       </c>
       <c r="N18">
-        <v>1.011467422922754</v>
+        <v>1.004833763771752</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015972597242714</v>
+        <v>0.974849633290743</v>
       </c>
       <c r="D19">
-        <v>1.022276673190494</v>
+        <v>0.9993864904232361</v>
       </c>
       <c r="E19">
-        <v>1.019738348827644</v>
+        <v>0.9846821663087338</v>
       </c>
       <c r="F19">
-        <v>1.026759905015655</v>
+        <v>0.9817101237156151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028539359000952</v>
+        <v>1.03688285191323</v>
       </c>
       <c r="J19">
-        <v>1.022183386507673</v>
+        <v>1.002757250434761</v>
       </c>
       <c r="K19">
-        <v>1.025633974441648</v>
+        <v>1.0131512219098</v>
       </c>
       <c r="L19">
-        <v>1.023104622820849</v>
+        <v>0.9987046546599335</v>
       </c>
       <c r="M19">
-        <v>1.030101477843306</v>
+        <v>0.9957859291621259</v>
       </c>
       <c r="N19">
-        <v>1.011482107026111</v>
+        <v>1.004908302697896</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015649813143429</v>
+        <v>0.9731514167246723</v>
       </c>
       <c r="D20">
-        <v>1.022043646534829</v>
+        <v>0.9981756699263885</v>
       </c>
       <c r="E20">
-        <v>1.019434934531817</v>
+        <v>0.9831960825949311</v>
       </c>
       <c r="F20">
-        <v>1.026355234673372</v>
+        <v>0.9796856008026911</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028473334371139</v>
+        <v>1.036360759337294</v>
       </c>
       <c r="J20">
-        <v>1.021986152039754</v>
+        <v>1.001758031343619</v>
       </c>
       <c r="K20">
-        <v>1.025466677958868</v>
+        <v>1.012250674011236</v>
       </c>
       <c r="L20">
-        <v>1.022867382701399</v>
+        <v>0.9975409874389581</v>
       </c>
       <c r="M20">
-        <v>1.029762818212561</v>
+        <v>0.9940953140035458</v>
       </c>
       <c r="N20">
-        <v>1.01141642261927</v>
+        <v>1.004573664570772</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014600671892272</v>
+        <v>0.9675190755523888</v>
       </c>
       <c r="D21">
-        <v>1.021285768931164</v>
+        <v>0.9941631419926342</v>
       </c>
       <c r="E21">
-        <v>1.018449287309459</v>
+        <v>0.9782771855544973</v>
       </c>
       <c r="F21">
-        <v>1.025039770424243</v>
+        <v>0.9729667232253626</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0282561941054</v>
+        <v>1.034609595945254</v>
       </c>
       <c r="J21">
-        <v>1.021344373864832</v>
+        <v>0.9984405058768863</v>
       </c>
       <c r="K21">
-        <v>1.02492154230676</v>
+        <v>1.009255945676131</v>
       </c>
       <c r="L21">
-        <v>1.02209599061221</v>
+        <v>0.9936821307747117</v>
       </c>
       <c r="M21">
-        <v>1.028661181491826</v>
+        <v>0.9884790097533117</v>
       </c>
       <c r="N21">
-        <v>1.011202637747626</v>
+        <v>1.003462561912597</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013941237714038</v>
+        <v>0.9638879864556499</v>
       </c>
       <c r="D22">
-        <v>1.020809048167479</v>
+        <v>0.9915793452557662</v>
       </c>
       <c r="E22">
-        <v>1.017830175871132</v>
+        <v>0.9751139762890657</v>
       </c>
       <c r="F22">
-        <v>1.024212804770892</v>
+        <v>0.9686313841409364</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02811776482765</v>
+        <v>1.033465867073684</v>
       </c>
       <c r="J22">
-        <v>1.020940443972872</v>
+        <v>0.996299269629265</v>
       </c>
       <c r="K22">
-        <v>1.024577848229592</v>
+        <v>1.007319483212668</v>
       </c>
       <c r="L22">
-        <v>1.021610911630118</v>
+        <v>0.9911950931214014</v>
       </c>
       <c r="M22">
-        <v>1.027968061254976</v>
+        <v>0.9848509681217149</v>
       </c>
       <c r="N22">
-        <v>1.01106804110442</v>
+        <v>1.002745391365954</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014290796888741</v>
+        <v>0.9658217125849129</v>
       </c>
       <c r="D23">
-        <v>1.021061786687014</v>
+        <v>0.9929550232133143</v>
       </c>
       <c r="E23">
-        <v>1.018158320994797</v>
+        <v>0.9767977671648497</v>
       </c>
       <c r="F23">
-        <v>1.02465118378638</v>
+        <v>0.9709405427084428</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02819132918683</v>
+        <v>1.034076326151281</v>
       </c>
       <c r="J23">
-        <v>1.021154614325786</v>
+        <v>0.997439797362359</v>
       </c>
       <c r="K23">
-        <v>1.024760136358202</v>
+        <v>1.008351265299076</v>
       </c>
       <c r="L23">
-        <v>1.021868067969628</v>
+        <v>0.9925194738651127</v>
       </c>
       <c r="M23">
-        <v>1.028335542741051</v>
+        <v>0.9867837721010797</v>
       </c>
       <c r="N23">
-        <v>1.011139410467728</v>
+        <v>1.003127393140383</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015667405535154</v>
+        <v>0.9732443867576299</v>
       </c>
       <c r="D24">
-        <v>1.022056348760127</v>
+        <v>0.9982419459745071</v>
       </c>
       <c r="E24">
-        <v>1.019451469212211</v>
+        <v>0.9832774032620758</v>
       </c>
       <c r="F24">
-        <v>1.026377290656434</v>
+        <v>0.9797964496215068</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028476942436451</v>
+        <v>1.036389415294371</v>
       </c>
       <c r="J24">
-        <v>1.021996904399536</v>
+        <v>1.001812747814096</v>
       </c>
       <c r="K24">
-        <v>1.025475801146142</v>
+        <v>1.012300005512172</v>
       </c>
       <c r="L24">
-        <v>1.022880313882993</v>
+        <v>0.9976046916447371</v>
       </c>
       <c r="M24">
-        <v>1.029781279220576</v>
+        <v>0.9941879015214469</v>
       </c>
       <c r="N24">
-        <v>1.011420003655083</v>
+        <v>1.004591989387052</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017265749173061</v>
+        <v>0.9814955109444838</v>
       </c>
       <c r="D25">
-        <v>1.023209517544812</v>
+        <v>1.004128660782025</v>
       </c>
       <c r="E25">
-        <v>1.020954695499509</v>
+        <v>0.9905114350775187</v>
       </c>
       <c r="F25">
-        <v>1.028380874261599</v>
+        <v>0.9896277779373664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028800072147627</v>
+        <v>1.038896999366395</v>
       </c>
       <c r="J25">
-        <v>1.022972493411607</v>
+        <v>1.006662085911409</v>
       </c>
       <c r="K25">
-        <v>1.026302148055789</v>
+        <v>1.01666322092867</v>
       </c>
       <c r="L25">
-        <v>1.024054622072892</v>
+        <v>1.003258856581977</v>
       </c>
       <c r="M25">
-        <v>1.03145690375903</v>
+        <v>1.002389271954413</v>
       </c>
       <c r="N25">
-        <v>1.011744817702694</v>
+        <v>1.006215890565134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9878125663716331</v>
+        <v>1.007000656055455</v>
       </c>
       <c r="D2">
-        <v>1.008640371207821</v>
+        <v>1.025564496338859</v>
       </c>
       <c r="E2">
-        <v>0.996072864012154</v>
+        <v>1.015129674245067</v>
       </c>
       <c r="F2">
-        <v>0.997146898174271</v>
+        <v>1.019654964848963</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040763806479278</v>
+        <v>1.047986361674613</v>
       </c>
       <c r="J2">
-        <v>1.010364014004326</v>
+        <v>1.028973976029054</v>
       </c>
       <c r="K2">
-        <v>1.01998063020211</v>
+        <v>1.036678805369505</v>
       </c>
       <c r="L2">
-        <v>1.007587182575497</v>
+        <v>1.026382177140813</v>
       </c>
       <c r="M2">
-        <v>1.008646124868956</v>
+        <v>1.030847101062015</v>
       </c>
       <c r="N2">
-        <v>1.007455230543794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013513475095165</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.032985762046444</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037005352282017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9922588122575451</v>
+        <v>1.010541749873828</v>
       </c>
       <c r="D3">
-        <v>1.01181738511847</v>
+        <v>1.027903467290012</v>
       </c>
       <c r="E3">
-        <v>0.9999997519222208</v>
+        <v>1.018178662366119</v>
       </c>
       <c r="F3">
-        <v>1.002435887751084</v>
+        <v>1.022590730844786</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042046095292155</v>
+        <v>1.048920487595768</v>
       </c>
       <c r="J3">
-        <v>1.012962757753744</v>
+        <v>1.030749103996899</v>
       </c>
       <c r="K3">
-        <v>1.022301260627442</v>
+        <v>1.038191345191133</v>
       </c>
       <c r="L3">
-        <v>1.010632635922518</v>
+        <v>1.028584109743865</v>
       </c>
       <c r="M3">
-        <v>1.013037695530632</v>
+        <v>1.032942493711981</v>
       </c>
       <c r="N3">
-        <v>1.00832499286111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014114784122468</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.034644140407845</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038072183054931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9950746297513499</v>
+        <v>1.012791759770038</v>
       </c>
       <c r="D4">
-        <v>1.013829650385839</v>
+        <v>1.029392811416526</v>
       </c>
       <c r="E4">
-        <v>1.002492181354599</v>
+        <v>1.020120962615987</v>
       </c>
       <c r="F4">
-        <v>1.00578421615422</v>
+        <v>1.024463031125958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04284319080298</v>
+        <v>1.049504003503697</v>
       </c>
       <c r="J4">
-        <v>1.014605171701742</v>
+        <v>1.031873816068675</v>
       </c>
       <c r="K4">
-        <v>1.023763980632168</v>
+        <v>1.039148975738069</v>
       </c>
       <c r="L4">
-        <v>1.012560620717618</v>
+        <v>1.029982462221755</v>
       </c>
       <c r="M4">
-        <v>1.015813328488851</v>
+        <v>1.034274908796378</v>
       </c>
       <c r="N4">
-        <v>1.008874549186048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014495795357398</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035698665483589</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038750209587074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962442781149053</v>
+        <v>1.013730868427211</v>
       </c>
       <c r="D5">
-        <v>1.01466551652246</v>
+        <v>1.030017254427821</v>
       </c>
       <c r="E5">
-        <v>1.003528788468315</v>
+        <v>1.02093318125477</v>
       </c>
       <c r="F5">
-        <v>1.007174820282086</v>
+        <v>1.025244998745764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043170648293905</v>
+        <v>1.049746571533028</v>
       </c>
       <c r="J5">
-        <v>1.015286565638398</v>
+        <v>1.032343798687445</v>
       </c>
       <c r="K5">
-        <v>1.024369861352894</v>
+        <v>1.039550541486273</v>
       </c>
       <c r="L5">
-        <v>1.01336127370662</v>
+        <v>1.030566923384517</v>
       </c>
       <c r="M5">
-        <v>1.016964968420836</v>
+        <v>1.034830786324506</v>
       </c>
       <c r="N5">
-        <v>1.009102509924004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014655376801677</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.036138608096375</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039041330912129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9964398540413142</v>
+        <v>1.013891425491007</v>
       </c>
       <c r="D6">
-        <v>1.014805279368877</v>
+        <v>1.03012659794506</v>
       </c>
       <c r="E6">
-        <v>1.003702193463217</v>
+        <v>1.021072561173858</v>
       </c>
       <c r="F6">
-        <v>1.007407329160196</v>
+        <v>1.02537740930972</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043225186527504</v>
+        <v>1.049789679960597</v>
       </c>
       <c r="J6">
-        <v>1.015400450692557</v>
+        <v>1.03242573724517</v>
       </c>
       <c r="K6">
-        <v>1.024471068240284</v>
+        <v>1.039622450739545</v>
       </c>
       <c r="L6">
-        <v>1.013495137343409</v>
+        <v>1.030668078365517</v>
       </c>
       <c r="M6">
-        <v>1.017157456255436</v>
+        <v>1.034925270202135</v>
       </c>
       <c r="N6">
-        <v>1.009140608057762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014683641984825</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.036213386202703</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039100932385295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9950903134550944</v>
+        <v>1.012813565288128</v>
       </c>
       <c r="D7">
-        <v>1.013840858507999</v>
+        <v>1.029414097867993</v>
       </c>
       <c r="E7">
-        <v>1.00250607607278</v>
+        <v>1.020141019091194</v>
       </c>
       <c r="F7">
-        <v>1.005802863526472</v>
+        <v>1.024477489613203</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042847596112324</v>
+        <v>1.049514408852258</v>
       </c>
       <c r="J7">
-        <v>1.014614311807199</v>
+        <v>1.031889109692055</v>
       </c>
       <c r="K7">
-        <v>1.023772111650455</v>
+        <v>1.039167136265655</v>
       </c>
       <c r="L7">
-        <v>1.012571357442581</v>
+        <v>1.029999366331872</v>
       </c>
       <c r="M7">
-        <v>1.015828775898795</v>
+        <v>1.034286297516585</v>
       </c>
       <c r="N7">
-        <v>1.008877607158186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014502193966554</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035707678952553</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03878318921702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9893281963902112</v>
+        <v>1.008217572160956</v>
       </c>
       <c r="D8">
-        <v>1.009723256453904</v>
+        <v>1.026375954693648</v>
       </c>
       <c r="E8">
-        <v>0.99741027488047</v>
+        <v>1.016177941332214</v>
       </c>
       <c r="F8">
-        <v>0.9989500829178475</v>
+        <v>1.020657853998091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04120402421928</v>
+        <v>1.048315232949799</v>
       </c>
       <c r="J8">
-        <v>1.011250559943424</v>
+        <v>1.029590056195394</v>
       </c>
       <c r="K8">
-        <v>1.020773111339787</v>
+        <v>1.037210117195575</v>
       </c>
       <c r="L8">
-        <v>1.008625440289073</v>
+        <v>1.027143142048196</v>
       </c>
       <c r="M8">
-        <v>1.010144294804488</v>
+        <v>1.031565087289302</v>
       </c>
       <c r="N8">
-        <v>1.00775197156658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013723740064685</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.033554005781635</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037403984172755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9786805480079676</v>
+        <v>0.9997748250621998</v>
       </c>
       <c r="D9">
-        <v>1.002119385044538</v>
+        <v>1.020810921960636</v>
       </c>
       <c r="E9">
-        <v>0.9880396970348998</v>
+        <v>1.008936509920117</v>
       </c>
       <c r="F9">
-        <v>0.9862751026208046</v>
+        <v>1.013703101049067</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038049747548628</v>
+        <v>1.046027050708314</v>
       </c>
       <c r="J9">
-        <v>1.005009283830357</v>
+        <v>1.025335537343361</v>
       </c>
       <c r="K9">
-        <v>1.015178170038276</v>
+        <v>1.033575144538626</v>
       </c>
       <c r="L9">
-        <v>1.001329848903262</v>
+        <v>1.021886243487439</v>
       </c>
       <c r="M9">
-        <v>0.9995948521318159</v>
+        <v>1.026577699496111</v>
       </c>
       <c r="N9">
-        <v>1.005662458762562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012281394611164</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.029606773073699</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034830625033193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971212020347701</v>
+        <v>0.9939970908422834</v>
       </c>
       <c r="D10">
-        <v>0.9967934300664116</v>
+        <v>1.017032805531421</v>
       </c>
       <c r="E10">
-        <v>0.981500643022538</v>
+        <v>1.004022157505087</v>
       </c>
       <c r="F10">
-        <v>0.9773728403468555</v>
+        <v>1.009224669822762</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035761087518542</v>
+        <v>1.044434931192141</v>
       </c>
       <c r="J10">
-        <v>1.000616279377664</v>
+        <v>1.02245091841199</v>
       </c>
       <c r="K10">
-        <v>1.011220822487616</v>
+        <v>1.031101189880514</v>
       </c>
       <c r="L10">
-        <v>0.9962121400189126</v>
+        <v>1.018319168426092</v>
       </c>
       <c r="M10">
-        <v>0.9921630170626919</v>
+        <v>1.023429343789406</v>
       </c>
       <c r="N10">
-        <v>1.004191279519126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011309744089586</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027167171919585</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033098234859315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9678810289906963</v>
+        <v>0.9921444593989485</v>
       </c>
       <c r="D11">
-        <v>0.9944208359296305</v>
+        <v>1.015897252458506</v>
       </c>
       <c r="E11">
-        <v>0.9785928385225103</v>
+        <v>1.002551201462391</v>
       </c>
       <c r="F11">
-        <v>0.9733987097261493</v>
+        <v>1.009718192558747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034722993104544</v>
+        <v>1.044093640213106</v>
       </c>
       <c r="J11">
-        <v>0.9986538491436447</v>
+        <v>1.021847729385086</v>
       </c>
       <c r="K11">
-        <v>1.009448739705517</v>
+        <v>1.030525470474237</v>
       </c>
       <c r="L11">
-        <v>0.9939300783710926</v>
+        <v>1.017425165702388</v>
       </c>
       <c r="M11">
-        <v>0.9888403495963758</v>
+        <v>1.024459135964747</v>
       </c>
       <c r="N11">
-        <v>1.003534016782265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011155371431215</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.028423476639434</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032724119575603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.96662830913802</v>
+        <v>0.9916813398263716</v>
       </c>
       <c r="D12">
-        <v>0.9935290607030082</v>
+        <v>1.015640599579208</v>
       </c>
       <c r="E12">
-        <v>0.9775006267491576</v>
+        <v>1.002229198915549</v>
       </c>
       <c r="F12">
-        <v>0.9719034783073295</v>
+        <v>1.010721023289587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034330044515604</v>
+        <v>1.044084384761159</v>
       </c>
       <c r="J12">
-        <v>0.9979153894005854</v>
+        <v>1.021841981078574</v>
       </c>
       <c r="K12">
-        <v>1.008781292696547</v>
+        <v>1.030474162143544</v>
       </c>
       <c r="L12">
-        <v>0.9930719578150669</v>
+        <v>1.017313815247648</v>
       </c>
       <c r="M12">
-        <v>0.98758951290171</v>
+        <v>1.025645667985577</v>
       </c>
       <c r="N12">
-        <v>1.003286684313671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011191233796157</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029691505932082</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032687842723552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9668977350458595</v>
+        <v>0.992264626747273</v>
       </c>
       <c r="D13">
-        <v>0.9937208327143169</v>
+        <v>1.016055249466159</v>
       </c>
       <c r="E13">
-        <v>0.9777354695202052</v>
+        <v>1.002776242297422</v>
       </c>
       <c r="F13">
-        <v>0.9722250921962619</v>
+        <v>1.012208178780087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034414670833032</v>
+        <v>1.044341310181103</v>
       </c>
       <c r="J13">
-        <v>0.9980742306374322</v>
+        <v>1.022306174918113</v>
       </c>
       <c r="K13">
-        <v>1.008924886570833</v>
+        <v>1.030838163914022</v>
       </c>
       <c r="L13">
-        <v>0.9932565100380154</v>
+        <v>1.017806590616244</v>
       </c>
       <c r="M13">
-        <v>0.9878585908179526</v>
+        <v>1.027061906659054</v>
       </c>
       <c r="N13">
-        <v>1.00333988522264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011381149611654</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031090095139283</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03294270548405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.967777798967387</v>
+        <v>0.9931390369758004</v>
       </c>
       <c r="D14">
-        <v>0.9943473385425052</v>
+        <v>1.016645128106011</v>
       </c>
       <c r="E14">
-        <v>0.9785028072225631</v>
+        <v>1.003545094843772</v>
       </c>
       <c r="F14">
-        <v>0.973275509123765</v>
+        <v>1.013442849282984</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034690663564642</v>
+        <v>1.044637748409474</v>
       </c>
       <c r="J14">
-        <v>0.9985930050388546</v>
+        <v>1.022836118363807</v>
       </c>
       <c r="K14">
-        <v>1.009393758906141</v>
+        <v>1.031276389920179</v>
       </c>
       <c r="L14">
-        <v>0.9938593625090856</v>
+        <v>1.018417345656911</v>
       </c>
       <c r="M14">
-        <v>0.988737300341609</v>
+        <v>1.028132271579082</v>
       </c>
       <c r="N14">
-        <v>1.003513638341736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011581282983022</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032110584144483</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033253975830981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9683179625042968</v>
+        <v>0.9935906805566714</v>
       </c>
       <c r="D15">
-        <v>0.9947319438198253</v>
+        <v>1.016945338352714</v>
       </c>
       <c r="E15">
-        <v>0.9789739624539066</v>
+        <v>1.00393310157076</v>
       </c>
       <c r="F15">
-        <v>0.9739201445297254</v>
+        <v>1.013897100568916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034859728585654</v>
+        <v>1.044775044252874</v>
       </c>
       <c r="J15">
-        <v>0.9989113619391851</v>
+        <v>1.02307982796282</v>
       </c>
       <c r="K15">
-        <v>1.009681412127337</v>
+        <v>1.031484419451294</v>
       </c>
       <c r="L15">
-        <v>0.9942293968697579</v>
+        <v>1.018709707126254</v>
       </c>
       <c r="M15">
-        <v>0.9892764669150153</v>
+        <v>1.028491112921368</v>
       </c>
       <c r="N15">
-        <v>1.003620265025642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011668266568167</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032431948272707</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033406946813491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9714309703856523</v>
+        <v>0.9959096644492882</v>
       </c>
       <c r="D16">
-        <v>0.9969494492995714</v>
+        <v>1.018455249187457</v>
       </c>
       <c r="E16">
-        <v>0.9816919611642214</v>
+        <v>1.005890197189072</v>
       </c>
       <c r="F16">
-        <v>0.9776339808575992</v>
+        <v>1.01554797545203</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035828966933681</v>
+        <v>1.045408127559673</v>
       </c>
       <c r="J16">
-        <v>1.000745210533163</v>
+        <v>1.024209205518233</v>
       </c>
       <c r="K16">
-        <v>1.011337161268716</v>
+        <v>1.032463372526664</v>
       </c>
       <c r="L16">
-        <v>0.9963621562378134</v>
+        <v>1.020117542835868</v>
       </c>
       <c r="M16">
-        <v>0.9923812493280486</v>
+        <v>1.029606197919151</v>
       </c>
       <c r="N16">
-        <v>1.004234460547264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012042708619384</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033274377562473</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034102280154695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9733571042566093</v>
+        <v>0.9972391028907113</v>
       </c>
       <c r="D17">
-        <v>0.9983223012705806</v>
+        <v>1.019311619196906</v>
       </c>
       <c r="E17">
-        <v>0.9833760025719313</v>
+        <v>1.006998103893828</v>
       </c>
       <c r="F17">
-        <v>0.9799308411383481</v>
+        <v>1.016172933565321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036424146651255</v>
+        <v>1.045739815130262</v>
       </c>
       <c r="J17">
-        <v>1.001879084369493</v>
+        <v>1.024803793309571</v>
       </c>
       <c r="K17">
-        <v>1.012359810706824</v>
+        <v>1.032989311379634</v>
       </c>
       <c r="L17">
-        <v>0.9976819273214526</v>
+        <v>1.020884533599492</v>
       </c>
       <c r="M17">
-        <v>0.9943001500524212</v>
+        <v>1.02990321294515</v>
       </c>
       <c r="N17">
-        <v>1.004614205784599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01222701080545</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033379351763134</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034476735130412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9744712810219595</v>
+        <v>0.9978064483006054</v>
       </c>
       <c r="D18">
-        <v>0.9991166902900693</v>
+        <v>1.019652690885237</v>
       </c>
       <c r="E18">
-        <v>0.9843509552318216</v>
+        <v>1.007439736998283</v>
       </c>
       <c r="F18">
-        <v>0.9812591218620635</v>
+        <v>1.015807786121108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036766781428894</v>
+        <v>1.045821822209369</v>
       </c>
       <c r="J18">
-        <v>1.002534676492653</v>
+        <v>1.024952582280667</v>
       </c>
       <c r="K18">
-        <v>1.012950688249073</v>
+        <v>1.033140601994196</v>
       </c>
       <c r="L18">
-        <v>0.9984453919298117</v>
+        <v>1.021131274809715</v>
       </c>
       <c r="M18">
-        <v>0.9954093833295385</v>
+        <v>1.029359123497773</v>
       </c>
       <c r="N18">
-        <v>1.004833763771752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012249013525698</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032709873464212</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03457203929469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.974849633290743</v>
+        <v>0.9976638785681278</v>
       </c>
       <c r="D19">
-        <v>0.9993864904232361</v>
+        <v>1.019521491352032</v>
       </c>
       <c r="E19">
-        <v>0.9846821663087338</v>
+        <v>1.007257848556977</v>
       </c>
       <c r="F19">
-        <v>0.9817101237156151</v>
+        <v>1.01444375470539</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03688285191323</v>
+        <v>1.045672958404294</v>
       </c>
       <c r="J19">
-        <v>1.002757250434761</v>
+        <v>1.024680287946925</v>
       </c>
       <c r="K19">
-        <v>1.0131512219098</v>
+        <v>1.032948772925288</v>
       </c>
       <c r="L19">
-        <v>0.9987046546599335</v>
+        <v>1.020888589438917</v>
       </c>
       <c r="M19">
-        <v>0.9957859291621259</v>
+        <v>1.027954510134028</v>
       </c>
       <c r="N19">
-        <v>1.004908302697896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012121846786403</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031270846425765</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03444282019414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9731514167246723</v>
+        <v>0.9955199578846681</v>
       </c>
       <c r="D20">
-        <v>0.9981756699263885</v>
+        <v>1.018043782438945</v>
       </c>
       <c r="E20">
-        <v>0.9831960825949311</v>
+        <v>1.005318991633546</v>
       </c>
       <c r="F20">
-        <v>0.9796856008026911</v>
+        <v>1.010405225606693</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036360759337294</v>
+        <v>1.044870110553219</v>
       </c>
       <c r="J20">
-        <v>1.001758031343619</v>
+        <v>1.023224676724703</v>
       </c>
       <c r="K20">
-        <v>1.012250674011236</v>
+        <v>1.031776604231301</v>
       </c>
       <c r="L20">
-        <v>0.9975409874389581</v>
+        <v>1.019268953363888</v>
       </c>
       <c r="M20">
-        <v>0.9940953140035458</v>
+        <v>1.024267546360847</v>
       </c>
       <c r="N20">
-        <v>1.004573664570772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011574187172053</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.027819835399272</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033617981174306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9675190755523888</v>
+        <v>0.9910426819189364</v>
       </c>
       <c r="D21">
-        <v>0.9941631419926342</v>
+        <v>1.015107069262935</v>
       </c>
       <c r="E21">
-        <v>0.9782771855544973</v>
+        <v>1.001501846138268</v>
       </c>
       <c r="F21">
-        <v>0.9729667232253626</v>
+        <v>1.006571615476137</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034609595945254</v>
+        <v>1.043582600533286</v>
       </c>
       <c r="J21">
-        <v>0.9984405058768863</v>
+        <v>1.020919738078955</v>
       </c>
       <c r="K21">
-        <v>1.009255945676131</v>
+        <v>1.02980777659901</v>
       </c>
       <c r="L21">
-        <v>0.9936821307747117</v>
+        <v>1.016454821337291</v>
       </c>
       <c r="M21">
-        <v>0.9884790097533117</v>
+        <v>1.021429547064033</v>
       </c>
       <c r="N21">
-        <v>1.003462561912597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010788591808665</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.025532280731019</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032229176190663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9638879864556499</v>
+        <v>0.9882054078999941</v>
       </c>
       <c r="D22">
-        <v>0.9915793452557662</v>
+        <v>1.013248790549442</v>
       </c>
       <c r="E22">
-        <v>0.9751139762890657</v>
+        <v>0.9990943742452524</v>
       </c>
       <c r="F22">
-        <v>0.9686313841409364</v>
+        <v>1.00427590634498</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033465867073684</v>
+        <v>1.042763412461614</v>
       </c>
       <c r="J22">
-        <v>0.996299269629265</v>
+        <v>1.019472150466782</v>
       </c>
       <c r="K22">
-        <v>1.007319483212668</v>
+        <v>1.028562277354998</v>
       </c>
       <c r="L22">
-        <v>0.9911950931214014</v>
+        <v>1.014683793132215</v>
       </c>
       <c r="M22">
-        <v>0.9848509681217149</v>
+        <v>1.019763129953257</v>
       </c>
       <c r="N22">
-        <v>1.002745391365954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010296491968259</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024213393888335</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031334994962687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9658217125849129</v>
+        <v>0.989706530218077</v>
       </c>
       <c r="D23">
-        <v>0.9929550232133143</v>
+        <v>1.014225668832171</v>
       </c>
       <c r="E23">
-        <v>0.9767977671648497</v>
+        <v>1.000366280510419</v>
       </c>
       <c r="F23">
-        <v>0.9709405427084428</v>
+        <v>1.005492809820054</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034076326151281</v>
+        <v>1.043193907312413</v>
       </c>
       <c r="J23">
-        <v>0.997439797362359</v>
+        <v>1.020234481693769</v>
       </c>
       <c r="K23">
-        <v>1.008351265299076</v>
+        <v>1.029214073133096</v>
       </c>
       <c r="L23">
-        <v>0.9925194738651127</v>
+        <v>1.01561784145863</v>
       </c>
       <c r="M23">
-        <v>0.9867837721010797</v>
+        <v>1.02064592417874</v>
       </c>
       <c r="N23">
-        <v>1.003127393140383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010554300252959</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024912082237</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03178617531903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9732443867576299</v>
+        <v>0.995510752265002</v>
       </c>
       <c r="D24">
-        <v>0.9982419459745071</v>
+        <v>1.018022132145338</v>
       </c>
       <c r="E24">
-        <v>0.9832774032620758</v>
+        <v>1.005299835478949</v>
       </c>
       <c r="F24">
-        <v>0.9797964496215068</v>
+        <v>1.010211509485119</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036389415294371</v>
+        <v>1.044844237430839</v>
       </c>
       <c r="J24">
-        <v>1.001812747814096</v>
+        <v>1.02318271401584</v>
       </c>
       <c r="K24">
-        <v>1.012300005512172</v>
+        <v>1.031739981922408</v>
       </c>
       <c r="L24">
-        <v>0.9976046916447371</v>
+        <v>1.019234514942936</v>
       </c>
       <c r="M24">
-        <v>0.9941879015214469</v>
+        <v>1.024061641670675</v>
       </c>
       <c r="N24">
-        <v>1.004591989387052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.0115536803118</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.027615448429611</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033564599086704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9814955109444838</v>
+        <v>1.002012969595847</v>
       </c>
       <c r="D25">
-        <v>1.004128660782025</v>
+        <v>1.022293156074935</v>
       </c>
       <c r="E25">
-        <v>0.9905114350775187</v>
+        <v>1.010853211830737</v>
       </c>
       <c r="F25">
-        <v>0.9896277779373664</v>
+        <v>1.015534413437741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038896999366395</v>
+        <v>1.046649579158016</v>
       </c>
       <c r="J25">
-        <v>1.006662085911409</v>
+        <v>1.026472778671367</v>
       </c>
       <c r="K25">
-        <v>1.01666322092867</v>
+        <v>1.034554982898936</v>
       </c>
       <c r="L25">
-        <v>1.003258856581977</v>
+        <v>1.023285349956156</v>
       </c>
       <c r="M25">
-        <v>1.002389271954413</v>
+        <v>1.027896270581697</v>
       </c>
       <c r="N25">
-        <v>1.006215890565134</v>
+        <v>1.012669005170559</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030650348984912</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03555208965012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007000656055455</v>
+        <v>1.006753932603202</v>
       </c>
       <c r="D2">
-        <v>1.025564496338859</v>
+        <v>1.024877693555063</v>
       </c>
       <c r="E2">
-        <v>1.015129674245067</v>
+        <v>1.014884563632131</v>
       </c>
       <c r="F2">
-        <v>1.019654964848963</v>
+        <v>1.01954808447639</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047986361674613</v>
+        <v>1.047663206662852</v>
       </c>
       <c r="J2">
-        <v>1.028973976029054</v>
+        <v>1.028734494343827</v>
       </c>
       <c r="K2">
-        <v>1.036678805369505</v>
+        <v>1.036000989861117</v>
       </c>
       <c r="L2">
-        <v>1.026382177140813</v>
+        <v>1.026140355577705</v>
       </c>
       <c r="M2">
-        <v>1.030847101062015</v>
+        <v>1.030741638702803</v>
       </c>
       <c r="N2">
-        <v>1.013513475095165</v>
+        <v>1.014787752550673</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032985762046444</v>
+        <v>1.032902294773014</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037005352282017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036534868715713</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021654268879255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010541749873828</v>
+        <v>1.01016525145791</v>
       </c>
       <c r="D3">
-        <v>1.027903467290012</v>
+        <v>1.027043709563942</v>
       </c>
       <c r="E3">
-        <v>1.018178662366119</v>
+        <v>1.017804211983087</v>
       </c>
       <c r="F3">
-        <v>1.022590730844786</v>
+        <v>1.022427854753919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048920487595768</v>
+        <v>1.048499063407006</v>
       </c>
       <c r="J3">
-        <v>1.030749103996899</v>
+        <v>1.0303825858149</v>
       </c>
       <c r="K3">
-        <v>1.038191345191133</v>
+        <v>1.037341870337943</v>
       </c>
       <c r="L3">
-        <v>1.028584109743865</v>
+        <v>1.028214242185581</v>
       </c>
       <c r="M3">
-        <v>1.032942493711981</v>
+        <v>1.032781589210894</v>
       </c>
       <c r="N3">
-        <v>1.014114784122468</v>
+        <v>1.015230543984753</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.034644140407845</v>
+        <v>1.034516794226357</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038072183054931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037480044412458</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021913259082546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012791759770038</v>
+        <v>1.012333680919685</v>
       </c>
       <c r="D4">
-        <v>1.029392811416526</v>
+        <v>1.028423758007043</v>
       </c>
       <c r="E4">
-        <v>1.020120962615987</v>
+        <v>1.019665067673902</v>
       </c>
       <c r="F4">
-        <v>1.024463031125958</v>
+        <v>1.024265035035333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049504003503697</v>
+        <v>1.04902039738581</v>
       </c>
       <c r="J4">
-        <v>1.031873816068675</v>
+        <v>1.031427066599049</v>
       </c>
       <c r="K4">
-        <v>1.039148975738069</v>
+        <v>1.038190822016234</v>
       </c>
       <c r="L4">
-        <v>1.029982462221755</v>
+        <v>1.029531807597416</v>
       </c>
       <c r="M4">
-        <v>1.034274908796378</v>
+        <v>1.034079164149869</v>
       </c>
       <c r="N4">
-        <v>1.014495795357398</v>
+        <v>1.015511235906726</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035698665483589</v>
+        <v>1.035543745662193</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038750209587074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038081307610852</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022074759719938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013730868427211</v>
+        <v>1.013238902123701</v>
       </c>
       <c r="D5">
-        <v>1.030017254427821</v>
+        <v>1.029002743242936</v>
       </c>
       <c r="E5">
-        <v>1.02093318125477</v>
+        <v>1.020443425667605</v>
       </c>
       <c r="F5">
-        <v>1.025244998745764</v>
+        <v>1.025032432473011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049746571533028</v>
+        <v>1.049237069464231</v>
       </c>
       <c r="J5">
-        <v>1.032343798687445</v>
+        <v>1.031863639891602</v>
       </c>
       <c r="K5">
-        <v>1.039550541486273</v>
+        <v>1.038547141077858</v>
       </c>
       <c r="L5">
-        <v>1.030566923384517</v>
+        <v>1.030082646238587</v>
       </c>
       <c r="M5">
-        <v>1.034830786324506</v>
+        <v>1.034620572516018</v>
       </c>
       <c r="N5">
-        <v>1.014655376801677</v>
+        <v>1.015628852078165</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.036138608096375</v>
+        <v>1.035972236927143</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039041330912129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038341147006925</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022142416778094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013891425491007</v>
+        <v>1.013393630970231</v>
       </c>
       <c r="D6">
-        <v>1.03012659794506</v>
+        <v>1.029104347856468</v>
       </c>
       <c r="E6">
-        <v>1.021072561173858</v>
+        <v>1.020576980876947</v>
       </c>
       <c r="F6">
-        <v>1.02537740930972</v>
+        <v>1.025162337858041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049789679960597</v>
+        <v>1.049275751263513</v>
       </c>
       <c r="J6">
-        <v>1.03242573724517</v>
+        <v>1.031939829276763</v>
       </c>
       <c r="K6">
-        <v>1.039622450739545</v>
+        <v>1.038611345484568</v>
       </c>
       <c r="L6">
-        <v>1.030668078365517</v>
+        <v>1.030178016078084</v>
       </c>
       <c r="M6">
-        <v>1.034925270202135</v>
+        <v>1.034712567999949</v>
       </c>
       <c r="N6">
-        <v>1.014683641984825</v>
+        <v>1.015649714058256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036213386202703</v>
+        <v>1.036045045641972</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039100932385295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038396169761114</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022155149695737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012813565288128</v>
+        <v>1.012361734132307</v>
       </c>
       <c r="D7">
-        <v>1.029414097867993</v>
+        <v>1.028449209180576</v>
       </c>
       <c r="E7">
-        <v>1.020141019091194</v>
+        <v>1.019691340248208</v>
       </c>
       <c r="F7">
-        <v>1.024477489613203</v>
+        <v>1.024282194931884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049514408852258</v>
+        <v>1.049033952314133</v>
       </c>
       <c r="J7">
-        <v>1.031889109692055</v>
+        <v>1.031448448578906</v>
       </c>
       <c r="K7">
-        <v>1.039167136265655</v>
+        <v>1.038213096195317</v>
       </c>
       <c r="L7">
-        <v>1.029999366331872</v>
+        <v>1.029554854337251</v>
       </c>
       <c r="M7">
-        <v>1.034286297516585</v>
+        <v>1.034093222735156</v>
       </c>
       <c r="N7">
-        <v>1.014502193966554</v>
+        <v>1.015543843896096</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035707678952553</v>
+        <v>1.035554872166962</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03878318921702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038119195745652</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022081167273209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008217572160956</v>
+        <v>1.0079479101226</v>
       </c>
       <c r="D8">
-        <v>1.026375954693648</v>
+        <v>1.025645519249202</v>
       </c>
       <c r="E8">
-        <v>1.016177941332214</v>
+        <v>1.015909939725831</v>
       </c>
       <c r="F8">
-        <v>1.020657853998091</v>
+        <v>1.020541090922688</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048315232949799</v>
+        <v>1.047969769782882</v>
       </c>
       <c r="J8">
-        <v>1.029590056195394</v>
+        <v>1.029328045912858</v>
       </c>
       <c r="K8">
-        <v>1.037210117195575</v>
+        <v>1.036488959191918</v>
       </c>
       <c r="L8">
-        <v>1.027143142048196</v>
+        <v>1.026878628517956</v>
       </c>
       <c r="M8">
-        <v>1.031565087289302</v>
+        <v>1.03144982698066</v>
       </c>
       <c r="N8">
-        <v>1.013723740064685</v>
+        <v>1.01502727752139</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033554005781635</v>
+        <v>1.033462784079094</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037403984172755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036905121178919</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021752827707715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9997748250621998</v>
+        <v>0.9998235528083544</v>
       </c>
       <c r="D9">
-        <v>1.020810921960636</v>
+        <v>1.020498826429312</v>
       </c>
       <c r="E9">
-        <v>1.008936509920117</v>
+        <v>1.008984802957024</v>
       </c>
       <c r="F9">
-        <v>1.013703101049067</v>
+        <v>1.013724268492296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046027050708314</v>
+        <v>1.045919167928279</v>
       </c>
       <c r="J9">
-        <v>1.025335537343361</v>
+        <v>1.025382543419659</v>
       </c>
       <c r="K9">
-        <v>1.033575144538626</v>
+        <v>1.033267854272969</v>
       </c>
       <c r="L9">
-        <v>1.021886243487439</v>
+        <v>1.02193377072852</v>
       </c>
       <c r="M9">
-        <v>1.026577699496111</v>
+        <v>1.026598535295505</v>
       </c>
       <c r="N9">
-        <v>1.012281394611164</v>
+        <v>1.013976238549186</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029606773073699</v>
+        <v>1.029623263465971</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034830625033193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03462411793748</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021115369207434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9939970908422834</v>
+        <v>0.9942983255665769</v>
       </c>
       <c r="D10">
-        <v>1.017032805531421</v>
+        <v>1.017030592401543</v>
       </c>
       <c r="E10">
-        <v>1.004022157505087</v>
+        <v>1.004320081851645</v>
       </c>
       <c r="F10">
-        <v>1.009224669822762</v>
+        <v>1.009355687028452</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044434931192141</v>
+        <v>1.044505966335143</v>
       </c>
       <c r="J10">
-        <v>1.02245091841199</v>
+        <v>1.022740001018072</v>
       </c>
       <c r="K10">
-        <v>1.031101189880514</v>
+        <v>1.031099014996891</v>
       </c>
       <c r="L10">
-        <v>1.018319168426092</v>
+        <v>1.018611771524831</v>
       </c>
       <c r="M10">
-        <v>1.023429343789406</v>
+        <v>1.023558051562436</v>
       </c>
       <c r="N10">
-        <v>1.011309744089586</v>
+        <v>1.013388171556072</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027167171919585</v>
+        <v>1.027269030888381</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033098234859315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033109145033257</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020682166252936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9921444593989485</v>
+        <v>0.9925544510194946</v>
       </c>
       <c r="D11">
-        <v>1.015897252458506</v>
+        <v>1.016006847341829</v>
       </c>
       <c r="E11">
-        <v>1.002551201462391</v>
+        <v>1.002956310810887</v>
       </c>
       <c r="F11">
-        <v>1.009718192558747</v>
+        <v>1.009895198043367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044093640213106</v>
+        <v>1.044233678573288</v>
       </c>
       <c r="J11">
-        <v>1.021847729385086</v>
+        <v>1.022240287733794</v>
       </c>
       <c r="K11">
-        <v>1.030525470474237</v>
+        <v>1.030633082096376</v>
       </c>
       <c r="L11">
-        <v>1.017425165702388</v>
+        <v>1.017822689962322</v>
       </c>
       <c r="M11">
-        <v>1.024459135964747</v>
+        <v>1.024632887313705</v>
       </c>
       <c r="N11">
-        <v>1.011155371431215</v>
+        <v>1.013518023883927</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.028423476639434</v>
+        <v>1.028560911978555</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032724119575603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032815866362377</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020634498171922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916813398263716</v>
+        <v>0.9921171655841183</v>
       </c>
       <c r="D12">
-        <v>1.015640599579208</v>
+        <v>1.015773456163914</v>
       </c>
       <c r="E12">
-        <v>1.002229198915549</v>
+        <v>1.00265968769737</v>
       </c>
       <c r="F12">
-        <v>1.010721023289587</v>
+        <v>1.01090815529612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044084384761159</v>
+        <v>1.044239721600883</v>
       </c>
       <c r="J12">
-        <v>1.021841981078574</v>
+        <v>1.022258928935625</v>
       </c>
       <c r="K12">
-        <v>1.030474162143544</v>
+        <v>1.030604574931337</v>
       </c>
       <c r="L12">
-        <v>1.017313815247648</v>
+        <v>1.017736109069218</v>
       </c>
       <c r="M12">
-        <v>1.025645667985577</v>
+        <v>1.025829314227274</v>
       </c>
       <c r="N12">
-        <v>1.011191233796157</v>
+        <v>1.013650748452029</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029691505932082</v>
+        <v>1.029836717891778</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032687842723552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032795711190803</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02065951315736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.992264626747273</v>
+        <v>0.9926543064036778</v>
       </c>
       <c r="D13">
-        <v>1.016055249466159</v>
+        <v>1.016137826928019</v>
       </c>
       <c r="E13">
-        <v>1.002776242297422</v>
+        <v>1.003161187923448</v>
       </c>
       <c r="F13">
-        <v>1.012208178780087</v>
+        <v>1.01237475991128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044341310181103</v>
+        <v>1.044466640068719</v>
       </c>
       <c r="J13">
-        <v>1.022306174918113</v>
+        <v>1.022679064468677</v>
       </c>
       <c r="K13">
-        <v>1.030838163914022</v>
+        <v>1.030919229018462</v>
       </c>
       <c r="L13">
-        <v>1.017806590616244</v>
+        <v>1.018184242851089</v>
       </c>
       <c r="M13">
-        <v>1.027061906659054</v>
+        <v>1.027225406981793</v>
       </c>
       <c r="N13">
-        <v>1.011381149611654</v>
+        <v>1.013762827891727</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031090095139283</v>
+        <v>1.031219344484089</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03294270548405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033015436325957</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020746205036424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9931390369758004</v>
+        <v>0.993465257101292</v>
       </c>
       <c r="D14">
-        <v>1.016645128106011</v>
+        <v>1.016660624010018</v>
       </c>
       <c r="E14">
-        <v>1.003545094843772</v>
+        <v>1.003867437931855</v>
       </c>
       <c r="F14">
-        <v>1.013442849282984</v>
+        <v>1.013581950772236</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044637748409474</v>
+        <v>1.044722420357441</v>
       </c>
       <c r="J14">
-        <v>1.022836118363807</v>
+        <v>1.023148485349783</v>
       </c>
       <c r="K14">
-        <v>1.031276389920179</v>
+        <v>1.031291605542518</v>
       </c>
       <c r="L14">
-        <v>1.018417345656911</v>
+        <v>1.018733660381653</v>
       </c>
       <c r="M14">
-        <v>1.028132271579082</v>
+        <v>1.028268836739739</v>
       </c>
       <c r="N14">
-        <v>1.011581282983022</v>
+        <v>1.01383150429026</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032110584144483</v>
+        <v>1.032218526171905</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033253975830981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033280281644142</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020834117998419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9935906805566714</v>
+        <v>0.993885957231444</v>
       </c>
       <c r="D15">
-        <v>1.016945338352714</v>
+        <v>1.01692830250078</v>
       </c>
       <c r="E15">
-        <v>1.00393310157076</v>
+        <v>1.004224915291446</v>
       </c>
       <c r="F15">
-        <v>1.013897100568916</v>
+        <v>1.01402294078916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044775044252874</v>
+        <v>1.044839907808468</v>
       </c>
       <c r="J15">
-        <v>1.02307982796282</v>
+        <v>1.023362674941521</v>
       </c>
       <c r="K15">
-        <v>1.031484419451294</v>
+        <v>1.031467689407756</v>
       </c>
       <c r="L15">
-        <v>1.018709707126254</v>
+        <v>1.018996106106383</v>
       </c>
       <c r="M15">
-        <v>1.028491112921368</v>
+        <v>1.028614676919577</v>
       </c>
       <c r="N15">
-        <v>1.011668266568167</v>
+        <v>1.013850286385155</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032431948272707</v>
+        <v>1.032529611512087</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033406946813491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033411234118614</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020872208611024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9959096644492882</v>
+        <v>0.9960615986384277</v>
       </c>
       <c r="D16">
-        <v>1.018455249187457</v>
+        <v>1.018284843244441</v>
       </c>
       <c r="E16">
-        <v>1.005890197189072</v>
+        <v>1.006040483300935</v>
       </c>
       <c r="F16">
-        <v>1.01554797545203</v>
+        <v>1.015612742373543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045408127559673</v>
+        <v>1.045379932839172</v>
       </c>
       <c r="J16">
-        <v>1.024209205518233</v>
+        <v>1.02435506208872</v>
       </c>
       <c r="K16">
-        <v>1.032463372526664</v>
+        <v>1.032295892874469</v>
       </c>
       <c r="L16">
-        <v>1.020117542835868</v>
+        <v>1.020265164931648</v>
       </c>
       <c r="M16">
-        <v>1.029606197919151</v>
+        <v>1.029669844714088</v>
       </c>
       <c r="N16">
-        <v>1.012042708619384</v>
+        <v>1.013904488347622</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033274377562473</v>
+        <v>1.033324684537916</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034102280154695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034000279402434</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02103355755015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9972391028907113</v>
+        <v>0.9973213520356641</v>
       </c>
       <c r="D17">
-        <v>1.019311619196906</v>
+        <v>1.01906335874142</v>
       </c>
       <c r="E17">
-        <v>1.006998103893828</v>
+        <v>1.00707950460005</v>
       </c>
       <c r="F17">
-        <v>1.016172933565321</v>
+        <v>1.016208047520975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045739815130262</v>
+        <v>1.045664975626421</v>
       </c>
       <c r="J17">
-        <v>1.024803793309571</v>
+        <v>1.024882857338691</v>
       </c>
       <c r="K17">
-        <v>1.032989311379634</v>
+        <v>1.032745195209822</v>
       </c>
       <c r="L17">
-        <v>1.020884533599492</v>
+        <v>1.020964532738114</v>
       </c>
       <c r="M17">
-        <v>1.02990321294515</v>
+        <v>1.029937736266062</v>
       </c>
       <c r="N17">
-        <v>1.01222701080545</v>
+        <v>1.013940186557501</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033379351763134</v>
+        <v>1.033406642033396</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034476735130412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034320796086685</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021113005720935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9978064483006054</v>
+        <v>0.9978683063514715</v>
       </c>
       <c r="D18">
-        <v>1.019652690885237</v>
+        <v>1.019380181081358</v>
       </c>
       <c r="E18">
-        <v>1.007439736998283</v>
+        <v>1.007500975280536</v>
       </c>
       <c r="F18">
-        <v>1.015807786121108</v>
+        <v>1.0158342801117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045821822209369</v>
+        <v>1.045732612183171</v>
       </c>
       <c r="J18">
-        <v>1.024952582280667</v>
+        <v>1.025012089103261</v>
       </c>
       <c r="K18">
-        <v>1.033140601994196</v>
+        <v>1.032872567302504</v>
       </c>
       <c r="L18">
-        <v>1.021131274809715</v>
+        <v>1.021191476173394</v>
       </c>
       <c r="M18">
-        <v>1.029359123497773</v>
+        <v>1.029385178323644</v>
       </c>
       <c r="N18">
-        <v>1.012249013525698</v>
+        <v>1.013913983938968</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032709873464212</v>
+        <v>1.032730473833384</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03457203929469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034398054108759</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02111848092903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9976638785681278</v>
+        <v>0.9977457578291713</v>
       </c>
       <c r="D19">
-        <v>1.019521491352032</v>
+        <v>1.019271337514873</v>
       </c>
       <c r="E19">
-        <v>1.007257848556977</v>
+        <v>1.007338914498282</v>
       </c>
       <c r="F19">
-        <v>1.01444375470539</v>
+        <v>1.014479002606634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045672958404294</v>
+        <v>1.045596881590658</v>
       </c>
       <c r="J19">
-        <v>1.024680287946925</v>
+        <v>1.024759072025742</v>
       </c>
       <c r="K19">
-        <v>1.032948772925288</v>
+        <v>1.032702706379132</v>
       </c>
       <c r="L19">
-        <v>1.020888589438917</v>
+        <v>1.020968289482103</v>
       </c>
       <c r="M19">
-        <v>1.027954510134028</v>
+        <v>1.027989174881529</v>
       </c>
       <c r="N19">
-        <v>1.012121846786403</v>
+        <v>1.013809964977029</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031270846425765</v>
+        <v>1.031298263374858</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03444282019414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034284992846947</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021056704628013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9955199578846681</v>
+        <v>0.9957336027891233</v>
       </c>
       <c r="D20">
-        <v>1.018043782438945</v>
+        <v>1.017945091971076</v>
       </c>
       <c r="E20">
-        <v>1.005318991633546</v>
+        <v>1.00553040575429</v>
       </c>
       <c r="F20">
-        <v>1.010405225606693</v>
+        <v>1.01049811388321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044870110553219</v>
+        <v>1.044883259640626</v>
       </c>
       <c r="J20">
-        <v>1.023224676724703</v>
+        <v>1.023429983356573</v>
       </c>
       <c r="K20">
-        <v>1.031776604231301</v>
+        <v>1.031679570916964</v>
       </c>
       <c r="L20">
-        <v>1.019268953363888</v>
+        <v>1.019476701751636</v>
       </c>
       <c r="M20">
-        <v>1.024267546360847</v>
+        <v>1.024358844677835</v>
       </c>
       <c r="N20">
-        <v>1.011574187172053</v>
+        <v>1.013476361760653</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027819835399272</v>
+        <v>1.027892089514815</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033617981174306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033565919896544</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020801253891286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9910426819189364</v>
+        <v>0.9915557876337984</v>
       </c>
       <c r="D21">
-        <v>1.015107069262935</v>
+        <v>1.015324518339786</v>
       </c>
       <c r="E21">
-        <v>1.001501846138268</v>
+        <v>1.002008767042391</v>
       </c>
       <c r="F21">
-        <v>1.006571615476137</v>
+        <v>1.006795251176237</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043582600533286</v>
+        <v>1.043788242126247</v>
       </c>
       <c r="J21">
-        <v>1.020919738078955</v>
+        <v>1.021410850136208</v>
       </c>
       <c r="K21">
-        <v>1.02980777659901</v>
+        <v>1.030021265168183</v>
       </c>
       <c r="L21">
-        <v>1.016454821337291</v>
+        <v>1.016952182392093</v>
       </c>
       <c r="M21">
-        <v>1.021429547064033</v>
+        <v>1.02164901899447</v>
       </c>
       <c r="N21">
-        <v>1.010788591808665</v>
+        <v>1.013350515829404</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025532280731019</v>
+        <v>1.025705981734453</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032229176190663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032396998309284</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020465078911144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9882054078999941</v>
+        <v>0.9889076444981028</v>
       </c>
       <c r="D22">
-        <v>1.013248790549442</v>
+        <v>1.013665465683879</v>
       </c>
       <c r="E22">
-        <v>0.9990943742452524</v>
+        <v>0.9997873963492442</v>
       </c>
       <c r="F22">
-        <v>1.00427590634498</v>
+        <v>1.004582299318684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042763412461614</v>
+        <v>1.043090037193956</v>
       </c>
       <c r="J22">
-        <v>1.019472150466782</v>
+        <v>1.020142532371745</v>
       </c>
       <c r="K22">
-        <v>1.028562277354998</v>
+        <v>1.028970982440501</v>
       </c>
       <c r="L22">
-        <v>1.014683793132215</v>
+        <v>1.01536306613632</v>
       </c>
       <c r="M22">
-        <v>1.019763129953257</v>
+        <v>1.02006352325866</v>
       </c>
       <c r="N22">
-        <v>1.010296491968259</v>
+        <v>1.013268341117949</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024213393888335</v>
+        <v>1.024451140542783</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031334994962687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031639547790296</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020251040214347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.989706530218077</v>
+        <v>0.9902971366594724</v>
       </c>
       <c r="D23">
-        <v>1.014225668832171</v>
+        <v>1.014528466877285</v>
       </c>
       <c r="E23">
-        <v>1.000366280510419</v>
+        <v>1.000949474388703</v>
       </c>
       <c r="F23">
-        <v>1.005492809820054</v>
+        <v>1.005750352052518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043193907312413</v>
+        <v>1.043450511785686</v>
       </c>
       <c r="J23">
-        <v>1.020234481693769</v>
+        <v>1.020799083438307</v>
       </c>
       <c r="K23">
-        <v>1.029214073133096</v>
+        <v>1.029511226483636</v>
       </c>
       <c r="L23">
-        <v>1.01561784145863</v>
+        <v>1.016189769458598</v>
       </c>
       <c r="M23">
-        <v>1.02064592417874</v>
+        <v>1.020898555369264</v>
       </c>
       <c r="N23">
-        <v>1.010554300252959</v>
+        <v>1.013266886027074</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024912082237</v>
+        <v>1.025112027306457</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03178617531903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032010912785768</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020359057509606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.995510752265002</v>
+        <v>0.9957266861045576</v>
       </c>
       <c r="D24">
-        <v>1.018022132145338</v>
+        <v>1.017925829025677</v>
       </c>
       <c r="E24">
-        <v>1.005299835478949</v>
+        <v>1.005513519482401</v>
       </c>
       <c r="F24">
-        <v>1.010211509485119</v>
+        <v>1.010305464425926</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044844237430839</v>
+        <v>1.044858837043737</v>
       </c>
       <c r="J24">
-        <v>1.02318271401584</v>
+        <v>1.023390231907427</v>
       </c>
       <c r="K24">
-        <v>1.031739981922408</v>
+        <v>1.031645293878823</v>
       </c>
       <c r="L24">
-        <v>1.019234514942936</v>
+        <v>1.019444498453933</v>
       </c>
       <c r="M24">
-        <v>1.024061641670675</v>
+        <v>1.024153989667588</v>
       </c>
       <c r="N24">
-        <v>1.0115536803118</v>
+        <v>1.01345722805491</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027615448429611</v>
+        <v>1.027688537011332</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033564599086704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033511524805685</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020788143325837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002012969595847</v>
+        <v>1.001967254229321</v>
       </c>
       <c r="D25">
-        <v>1.022293156074935</v>
+        <v>1.021863224457312</v>
       </c>
       <c r="E25">
-        <v>1.010853211830737</v>
+        <v>1.010807869846989</v>
       </c>
       <c r="F25">
-        <v>1.015534413437741</v>
+        <v>1.015514571450604</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046649579158016</v>
+        <v>1.046473778746898</v>
       </c>
       <c r="J25">
-        <v>1.026472778671367</v>
+        <v>1.026428593316053</v>
       </c>
       <c r="K25">
-        <v>1.034554982898936</v>
+        <v>1.034131364290685</v>
       </c>
       <c r="L25">
-        <v>1.023285349956156</v>
+        <v>1.023240692766182</v>
       </c>
       <c r="M25">
-        <v>1.027896270581697</v>
+        <v>1.027876724751903</v>
       </c>
       <c r="N25">
-        <v>1.012669005170559</v>
+        <v>1.014225862786741</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030650348984912</v>
+        <v>1.030634879555725</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03555208965012</v>
+        <v>1.035266133424344</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02129006842215</v>
       </c>
     </row>
   </sheetData>
